--- a/Spreadsheets/RX 6800 XT.xlsx
+++ b/Spreadsheets/RX 6800 XT.xlsx
@@ -929,29 +929,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics card</t>
+          <t>Reference AMD Radeon RX 6800 XT 16GB GDDR6 Sealed, In Hand - Ships Within 24h</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1199</v>
+        <v>1258.88</v>
       </c>
       <c r="E16" t="n">
-        <v>10.9</v>
+        <v>18.95</v>
       </c>
       <c r="F16" t="n">
-        <v>1209.9</v>
+        <v>1277.83</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224259416463?hash=item3436e7218f:g:oeYAAOSwSpNfxi9M</t>
+          <t>https://www.ebay.com/itm/Reference-AMD-Radeon-RX-6800-XT-16GB-GDDR6-Sealed-In-Hand-Ships-Within-24h/154220925877?hash=item23e84893b5:g:cIgAAOSwvrRfxWdx</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reference AMD Radeon RX 6800 XT 16GB GDDR6 Sealed, In Hand - Ships Within 24h</t>
+          <t>AMD RX 6800XT 16GB SEALED NEW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -970,20 +970,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1258.88</v>
+        <v>1100</v>
       </c>
       <c r="E17" t="n">
-        <v>18.95</v>
+        <v>10.9</v>
       </c>
       <c r="F17" t="n">
-        <v>1277.83</v>
+        <v>1110.9</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Reference-AMD-Radeon-RX-6800-XT-16GB-GDDR6-Sealed-In-Hand-Ships-Within-24h/154220925877?hash=item23e84893b5:g:cIgAAOSwvrRfxWdx</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800XT-16GB-SEALED-NEW/143861640050?hash=item217ed26b72:g:iKkAAOSwxAFfvXNH</t>
         </is>
       </c>
     </row>
@@ -993,29 +993,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AMD RX 6800XT 16GB SEALED NEW</t>
+          <t>⚡Sapphire PULSE AMD Radeon RX 6800 XT Gaming Graphics Card IN HAND SHIPS FAST⚡</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>IN HAND, NOT PREORDER, READY TO SHIP</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1100</v>
+        <v>1379.99</v>
       </c>
       <c r="E18" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1110.9</v>
+        <v>1379.99</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800XT-16GB-SEALED-NEW/143861640050?hash=item217ed26b72:g:iKkAAOSwxAFfvXNH</t>
+          <t>https://www.ebay.com/itm/Sapphire-PULSE-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-IN-HAND-SHIPS-FAST/284097361793?hash=item422585b781:g:1M0AAOSwB8xfwYTX</t>
         </is>
       </c>
     </row>
@@ -1025,29 +1025,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>⚡Sapphire PULSE AMD Radeon RX 6800 XT Gaming Graphics Card IN HAND SHIPS FAST⚡</t>
+          <t>✅ Sapphire AMD Radeon RX 6800 XT Graphics Card ✅IN HAND🔥Fast Shipping!🔥SEALED</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IN HAND, NOT PREORDER, READY TO SHIP</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1379.99</v>
+        <v>1247.88</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28.88</v>
       </c>
       <c r="F19" t="n">
-        <v>1379.99</v>
+        <v>1276.76</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-PULSE-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-IN-HAND-SHIPS-FAST/284097361793?hash=item422585b781:g:1M0AAOSwB8xfwYTX</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-Fast-Shipping-SEALED/293868150338?hash=item446be81e42:g:QaAAAOSw8XRfxWGo</t>
         </is>
       </c>
     </row>
@@ -1057,29 +1057,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>✅ Sapphire AMD Radeon RX 6800 XT Graphics Card ✅IN HAND🔥Fast Shipping!🔥SEALED</t>
+          <t>MSI Radeon RX 6800 XT 16G. Brand New</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1247.88</v>
+        <v>1425</v>
       </c>
       <c r="E20" t="n">
-        <v>28.88</v>
+        <v>28.95</v>
       </c>
       <c r="F20" t="n">
-        <v>1276.76</v>
+        <v>1453.95</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-Fast-Shipping-SEALED/293868150338?hash=item446be81e42:g:QaAAAOSw8XRfxWGo</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-Brand-New/174535238915?hash=item28a31c6503:g:a4MAAOSwuklfv~7L</t>
         </is>
       </c>
     </row>
@@ -1089,29 +1089,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G. Brand New</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1425</v>
+        <v>1195</v>
       </c>
       <c r="E21" t="n">
-        <v>28.95</v>
+        <v>12.8</v>
       </c>
       <c r="F21" t="n">
-        <v>1453.95</v>
+        <v>1207.8</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-Brand-New/174535238915?hash=item28a31c6503:g:a4MAAOSwuklfv~7L</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203200991282?hash=item2f4fb91032:g:yhoAAOSwdtxfwCbq</t>
         </is>
       </c>
     </row>
@@ -1121,29 +1121,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
+          <t>SAPPHIRE Radeon RX 6800 XT Graphics Card ✅ Ships Same-Day ✅</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1195</v>
+        <v>1299</v>
       </c>
       <c r="E22" t="n">
-        <v>12.8</v>
+        <v>12.26</v>
       </c>
       <c r="F22" t="n">
-        <v>1207.8</v>
+        <v>1311.26</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203200991282?hash=item2f4fb91032:g:yhoAAOSwdtxfwCbq</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Graphics-Card-Ships-Same-Day/124466086237?hash=item1cfac1c15d:g:zIMAAOSwNDNfxZCW</t>
         </is>
       </c>
     </row>
@@ -1153,29 +1153,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 XT Graphics Card ✅ Ships Same-Day ✅</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1299</v>
+        <v>1125</v>
       </c>
       <c r="E23" t="n">
-        <v>12.26</v>
+        <v>26.27</v>
       </c>
       <c r="F23" t="n">
-        <v>1311.26</v>
+        <v>1151.27</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Graphics-Card-Ships-Same-Day/124466086237?hash=item1cfac1c15d:g:zIMAAOSwNDNfxZCW</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788451977?hash=item3b52933e89:g:j44AAOSwwoRfvTql</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
+          <t>NEW ASRock Radeon RX 6800 XT Graphics Card 16GB GDDR6 SHIPPED NEWEGG ORDER</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1197,17 +1197,17 @@
         <v>1125</v>
       </c>
       <c r="E24" t="n">
-        <v>26.27</v>
+        <v>10.9</v>
       </c>
       <c r="F24" t="n">
-        <v>1151.27</v>
+        <v>1135.9</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788451977?hash=item3b52933e89:g:j44AAOSwwoRfvTql</t>
+          <t>https://www.ebay.com/itm/NEW-ASRock-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-SHIPPED-NEWEGG-ORDER/363193529483?hash=item549005748b:g:3b0AAOSwz7JfvSS1</t>
         </is>
       </c>
     </row>
@@ -1217,29 +1217,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NEW ASRock Radeon RX 6800 XT Graphics Card 16GB GDDR6 SHIPPED NEWEGG ORDER</t>
+          <t>AMD Radeon RX 6800 XT Graphics card</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="E25" t="n">
         <v>10.9</v>
       </c>
       <c r="F25" t="n">
-        <v>1135.9</v>
+        <v>1110.9</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-ASRock-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-SHIPPED-NEWEGG-ORDER/363193529483?hash=item549005748b:g:3b0AAOSwz7JfvSS1</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224247584997?hash=item34363298e5:g:pGwAAOSwutVfut4M</t>
         </is>
       </c>
     </row>
@@ -1249,29 +1249,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics card</t>
+          <t>AMD RADEON RX 6800 XT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="E26" t="n">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
       <c r="F26" t="n">
-        <v>1110.9</v>
+        <v>1384.9</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224247584997?hash=item34363298e5:g:pGwAAOSwutVfut4M</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT/353290445696?hash=item5241c06380:g:bdoAAOSw-tBfvFoJ</t>
         </is>
       </c>
     </row>
@@ -1281,29 +1281,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 XT</t>
+          <t>BIG NAVI ASUS Radeon RX 6800XT 16GB 256-Bit GDDR6 PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1375</v>
+        <v>1200</v>
       </c>
       <c r="E27" t="n">
-        <v>9.9</v>
+        <v>35</v>
       </c>
       <c r="F27" t="n">
-        <v>1384.9</v>
+        <v>1235</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT/353290445696?hash=item5241c06380:g:bdoAAOSw-tBfvFoJ</t>
+          <t>https://www.ebay.com/itm/BIG-NAVI-ASUS-Radeon-RX-6800XT-16GB-256-Bit-GDDR6-PCI-Express-4-0-Video-Card/184550015030?hash=item2af809c036:g:1C8AAOSwmGNfvFGK</t>
         </is>
       </c>
     </row>
@@ -1313,29 +1313,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIG NAVI ASUS Radeon RX 6800XT 16GB 256-Bit GDDR6 PCI Express 4.0 Video Card</t>
+          <t>MSI Radeon RX 6800 XT 16G DirectX 12 GPU - SEALED - IN HAND - Ready To Ship</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brand New · ASUS · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>1235</v>
+        <v>1195</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BIG-NAVI-ASUS-Radeon-RX-6800XT-16GB-256-Bit-GDDR6-PCI-Express-4-0-Video-Card/184550015030?hash=item2af809c036:g:1C8AAOSwmGNfvFGK</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-DirectX-12-GPU-SEALED-IN-HAND-Ready-To-Ship/203194053285?hash=item2f4f4f32a5:g:Sw4AAOSwTnpfvFMu</t>
         </is>
       </c>
     </row>
@@ -1345,29 +1345,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G DirectX 12 GPU - SEALED - IN HAND - Ready To Ship</t>
+          <t>AMD Reference Radeon RX 6800 XT 16GB GDDR6 Graphics Card - In Hand - Ships Fast!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1175</v>
+        <v>1240</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>1195</v>
+        <v>1250</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-DirectX-12-GPU-SEALED-IN-HAND-Ready-To-Ship/203194053285?hash=item2f4f4f32a5:g:Sw4AAOSwTnpfvFMu</t>
+          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-In-Hand-Ships-Fast/293867082312?hash=item446bd7d248:g:niIAAOSwHpZfxYci</t>
         </is>
       </c>
     </row>
@@ -1377,29 +1377,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AMD Reference Radeon RX 6800 XT 16GB GDDR6 Graphics Card - In Hand - Ships Fast!</t>
+          <t>IN HAND Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1240</v>
+        <v>1239.99</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1250</v>
+        <v>1239.99</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-In-Hand-Ships-Fast/293867082312?hash=item446bd7d248:g:niIAAOSwHpZfxYci</t>
+          <t>https://www.ebay.com/itm/IN-HAND-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA/114544918409?hash=item1aab68bf89:g:XDsAAOSwbs5fvsG6</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IN HAND Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 IN HAND</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1418,20 +1418,20 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1239.99</v>
+        <v>1275</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="F31" t="n">
-        <v>1239.99</v>
+        <v>1285.95</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA/114544918409?hash=item1aab68bf89:g:XDsAAOSwbs5fvsG6</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-IN-HAND/154209274987?hash=item23e796cc6b:g:cOwAAOSweNBfu9S4</t>
         </is>
       </c>
     </row>
@@ -1441,29 +1441,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 IN HAND</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1275</v>
+        <v>1300</v>
       </c>
       <c r="E32" t="n">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1285.95</v>
+        <v>1300</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-IN-HAND/154209274987?hash=item23e796cc6b:g:cOwAAOSweNBfu9S4</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/402582098694?hash=item5dbbc35306:g:dJMAAOSwYFpfwnU4</t>
         </is>
       </c>
     </row>
@@ -1482,20 +1482,20 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1300</v>
+        <v>1225</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F33" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/402582098694?hash=item5dbbc35306:g:dJMAAOSwYFpfwnU4</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/284099087926?hash=item4225a00e36:g:rFYAAOSwl3xfxTlk</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1225</v>
+        <v>1249.99</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1250</v>
+        <v>1249.99</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/284099087926?hash=item4225a00e36:g:rFYAAOSwl3xfxTlk</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/303776474432?hash=item46ba7d2540:g:WroAAOSwntBfwbmY</t>
         </is>
       </c>
     </row>
@@ -1537,29 +1537,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1249.99</v>
+        <v>1250</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
-        <v>1249.99</v>
+        <v>1280</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/303776474432?hash=item46ba7d2540:g:WroAAOSwntBfwbmY</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND/303787665689?hash=item46bb27e919:g:R8EAAOSw4z5fwq~4</t>
         </is>
       </c>
     </row>
@@ -1569,29 +1569,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1250</v>
+        <v>1199</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1280</v>
+        <v>1199</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND/303787665689?hash=item46bb27e919:g:R8EAAOSw4z5fwq~4</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324398103168?epid=20042698447&amp;hash=item4b87a23a80:g:UxkAAOSwxmJfxRhE</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1610,20 +1610,20 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1199</v>
+        <v>1399.99</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1199</v>
+        <v>1399.99</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324398103168?epid=20042698447&amp;hash=item4b87a23a80:g:UxkAAOSwxmJfxRhE</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393035271715?hash=item5b82ba4e23:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -1633,29 +1633,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1399.99</v>
+        <v>1250</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="F38" t="n">
-        <v>1399.99</v>
+        <v>1261.3</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393035271715?hash=item5b82ba4e23:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/143867544354?hash=item217f2c8322:g:U8kAAOSwcW9fvfIz</t>
         </is>
       </c>
     </row>
@@ -1665,29 +1665,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>ASRock Radeon RX 6800 XT 16GB GDDR6 Graphics Card - Ships Now - Priority Ship!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="E39" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1261.3</v>
+        <v>1239</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/143867544354?hash=item217f2c8322:g:U8kAAOSwcW9fvfIz</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-Ships-Now-Priority-Ship/284098384330?hash=item42259551ca:g:AIwAAOSwfDRfxFSx</t>
         </is>
       </c>
     </row>
@@ -1697,29 +1697,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT 16GB GDDR6 Graphics Card - Ships Now - Priority Ship!</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Powercolor 16GB GDDR6 VRAM </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1239</v>
+        <v>1325</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>13.95</v>
       </c>
       <c r="F40" t="n">
-        <v>1239</v>
+        <v>1338.95</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-Ships-Now-Priority-Ship/284098384330?hash=item42259551ca:g:AIwAAOSwfDRfxFSx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Powercolor-16GB-GDDR6-VRAM/143859666459?hash=item217eb44e1b:g:KVEAAOSw2V5fu9hD</t>
         </is>
       </c>
     </row>
@@ -1729,29 +1729,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Powercolor 16GB GDDR6 VRAM </t>
+          <t>XFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1325</v>
+        <v>1299</v>
       </c>
       <c r="E41" t="n">
-        <v>13.95</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1338.95</v>
+        <v>1299</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Powercolor-16GB-GDDR6-VRAM/143859666459?hash=item217eb44e1b:g:KVEAAOSw2V5fu9hD</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/143866812794?hash=item217f21597a:g:7VQAAOSwfGhfxACU</t>
         </is>
       </c>
     </row>
@@ -1761,29 +1761,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
+          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT RDNA 2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Amazon Confirmed order ETA to me Thursday 12/3.</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/143866812794?hash=item217f21597a:g:7VQAAOSwfGhfxACU</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-RDNA-2/254789556123?hash=item3b52a4179b:g:D6wAAOSwZDdfvpu6</t>
         </is>
       </c>
     </row>
@@ -1793,29 +1793,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT RDNA 2</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Amazon Confirmed order ETA to me Thursday 12/3.</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1298</v>
+        <v>1289.99</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1298</v>
+        <v>1289.99</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-RDNA-2/254789556123?hash=item3b52a4179b:g:D6wAAOSwZDdfvpu6</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/164547121698?hash=item264fc5d222:g:uH8AAOSwTPRfxAmV</t>
         </is>
       </c>
     </row>
@@ -1825,29 +1825,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1289.99</v>
+        <v>1298.99</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1289.99</v>
+        <v>1298.99</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/164547121698?hash=item264fc5d222:g:uH8AAOSwTPRfxAmV</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/264957547756?hash=item3db0b354ec:g:wLYAAOSwzDxfxBUM</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>🔥 XFX Speedster MERC319 Radeon RX 6800XT IN HAND FAST SHIPPING NOW</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1866,20 +1866,20 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1298.99</v>
+        <v>1299</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F45" t="n">
-        <v>1298.99</v>
+        <v>1366</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/264957547756?hash=item3db0b354ec:g:wLYAAOSwzDxfxBUM</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-FAST-SHIPPING-NOW/184557042657?hash=item2af874fbe1:g:UQMAAOSwnGlfwgvZ</t>
         </is>
       </c>
     </row>
@@ -1889,29 +1889,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>🔥 XFX Speedster MERC319 Radeon RX 6800XT IN HAND FAST SHIPPING NOW</t>
+          <t>ASRock AMD Radeon RX 6800xt Graphics Card -- In Hand, ships fast</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1299</v>
+        <v>1250</v>
       </c>
       <c r="E46" t="n">
-        <v>67</v>
+        <v>10.9</v>
       </c>
       <c r="F46" t="n">
-        <v>1366</v>
+        <v>1260.9</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-FAST-SHIPPING-NOW/184557042657?hash=item2af874fbe1:g:UQMAAOSwnGlfwgvZ</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800xt-Graphics-Card-In-Hand-ships-fast/124464197117?hash=item1cfaa4edfd:g:HzMAAOSwj-JfxD8e</t>
         </is>
       </c>
     </row>
@@ -1921,29 +1921,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800xt Graphics Card -- In Hand, ships fast</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 RX-68TMATFD8 **IN HAND**</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1250</v>
+        <v>1220</v>
       </c>
       <c r="E47" t="n">
-        <v>10.9</v>
+        <v>26.7</v>
       </c>
       <c r="F47" t="n">
-        <v>1260.9</v>
+        <v>1246.7</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800xt-Graphics-Card-In-Hand-ships-fast/124464197117?hash=item1cfaa4edfd:g:HzMAAOSwj-JfxD8e</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-RX-68TMATFD8-IN-HAND/254791702686?hash=item3b52c4d89e:g:z~cAAOSwd7RfwttI</t>
         </is>
       </c>
     </row>
@@ -1953,29 +1953,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 RX-68TMATFD8 **IN HAND**</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card. New In Box, Sealed And Ready To Ship 6800XT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1220</v>
+        <v>1198.43</v>
       </c>
       <c r="E48" t="n">
-        <v>26.7</v>
+        <v>39.84</v>
       </c>
       <c r="F48" t="n">
-        <v>1246.7</v>
+        <v>1238.27</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-RX-68TMATFD8-IN-HAND/254791702686?hash=item3b52c4d89e:g:z~cAAOSwd7RfwttI</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-New-In-Box-Sealed-And-Ready-To-Ship-6800XT/114535368860?hash=item1aaad7089c:g:gogAAOSwHrtfus8j</t>
         </is>
       </c>
     </row>
@@ -1985,29 +1985,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card. New In Box, Sealed And Ready To Ship 6800XT</t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1198.43</v>
+        <v>1326</v>
       </c>
       <c r="E49" t="n">
-        <v>39.84</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1238.27</v>
+        <v>1326</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-New-In-Box-Sealed-And-Ready-To-Ship-6800XT/114535368860?hash=item1aaad7089c:g:gogAAOSwHrtfus8j</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/114542864508?hash=item1aab49687c:g:kQAAAOSwJKJfuYPw</t>
         </is>
       </c>
     </row>
@@ -2017,29 +2017,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1326</v>
+        <v>1200</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1326</v>
+        <v>1200</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/114542864508?hash=item1aab49687c:g:kQAAAOSwJKJfuYPw</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324394051445?hash=item4b87646775:g:GCcAAOSwzl9fwpRB</t>
         </is>
       </c>
     </row>
@@ -2049,29 +2049,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT 16 GB GDDR6 PCIe 4.0 Graphics Video Card - In Hand</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1200</v>
+        <v>1249.99</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1269.98</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324394051445?hash=item4b87646775:g:GCcAAOSwzl9fwpRB</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16-GB-GDDR6-PCIe-4-0-Graphics-Video-Card-In-Hand/164545276209?hash=item264fa9a931:g:Q9YAAOSwwoRfwrOE</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16 GB GDDR6 PCIe 4.0 Graphics Video Card - In Hand</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU FREE SHIPPING IN HAND</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2093,17 +2093,17 @@
         <v>1249.99</v>
       </c>
       <c r="E52" t="n">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1269.98</v>
+        <v>1249.99</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16-GB-GDDR6-PCIe-4-0-Graphics-Video-Card-In-Hand/164545276209?hash=item264fa9a931:g:Q9YAAOSwwoRfwrOE</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-FREE-SHIPPING-IN-HAND/154206794371?hash=item23e770f283:g:rrMAAOSwIWtfucOk</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU FREE SHIPPING IN HAND</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2122,20 +2122,20 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1249.99</v>
+        <v>1050</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1249.99</v>
+        <v>1050</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-FREE-SHIPPING-IN-HAND/154206794371?hash=item23e770f283:g:rrMAAOSwIWtfucOk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324395427149?hash=item4b8779654d:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -2145,29 +2145,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="F54" t="n">
-        <v>1050</v>
+        <v>1262.04</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324395427149?hash=item4b8779654d:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303782496130?hash=item46bad90782:g:pigAAOSwZYFftwlG</t>
         </is>
       </c>
     </row>
@@ -2177,29 +2177,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Sealed NIB, Fast Ship</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1250</v>
+        <v>1299</v>
       </c>
       <c r="E55" t="n">
-        <v>12.04</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1262.04</v>
+        <v>1299</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303782496130?hash=item46bad90782:g:pigAAOSwZYFftwlG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Sealed-NIB-Fast-Ship/114545229365?hash=item1aab6d7e35:g:tr0AAOSw9Q9fuUYk</t>
         </is>
       </c>
     </row>
@@ -2209,29 +2209,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Sealed NIB, Fast Ship</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1299</v>
+        <v>1275</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Sealed-NIB-Fast-Ship/114545229365?hash=item1aab6d7e35:g:tr0AAOSw9Q9fuUYk</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB/114543415990?hash=item1aab51d2b6:g:IxcAAOSwYV5fwFbA</t>
         </is>
       </c>
     </row>
@@ -2241,19 +2241,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB</t>
+          <t>asrock amd radeon rx 6800xt graphics card in hand ships asap</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1275</v>
+        <v>1300</v>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>1300</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB/114543415990?hash=item1aab51d2b6:g:IxcAAOSwYV5fwFbA</t>
+          <t>https://www.ebay.com/itm/asrock-amd-radeon-rx-6800xt-graphics-card-in-hand-ships-asap/284096325283?hash=item422575e6a3:g:Wx4AAOSwPktfwaMP</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>asrock amd radeon rx 6800xt graphics card in hand ships asap</t>
+          <t>asus amd radeon rx 6800xt graphics card</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/asrock-amd-radeon-rx-6800xt-graphics-card-in-hand-ships-asap/284096325283?hash=item422575e6a3:g:Wx4AAOSwPktfwaMP</t>
+          <t>https://www.ebay.com/itm/asus-amd-radeon-rx-6800xt-graphics-card/284096324723?hash=item422575e473:g:3S4AAOSwv7xfwaJT</t>
         </is>
       </c>
     </row>
@@ -2305,29 +2305,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>asus amd radeon rx 6800xt graphics card</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT 🔥IN HAND SAME DAY FREE 2 DAY AIR SHIP🔥</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brand New · ASUS · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1300</v>
+        <v>1299.99</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1300</v>
+        <v>1299.99</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/asus-amd-radeon-rx-6800xt-graphics-card/284096324723?hash=item422575e473:g:3S4AAOSwv7xfwaJT</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-SAME-DAY-FREE-2-DAY-AIR-SHIP/254791879805?hash=item3b52c78c7d:g:XOUAAOSwUu5fwZrW</t>
         </is>
       </c>
     </row>
@@ -2337,29 +2337,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT 🔥IN HAND SAME DAY FREE 2 DAY AIR SHIP🔥</t>
+          <t>MSI Radeon RX 6800 XT 16GB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1299.99</v>
+        <v>1200</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>22.92</v>
       </c>
       <c r="F60" t="n">
-        <v>1299.99</v>
+        <v>1222.92</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-SAME-DAY-FREE-2-DAY-AIR-SHIP/254791879805?hash=item3b52c78c7d:g:XOUAAOSwUu5fwZrW</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16GB/274593069418?hash=item3fef05b96a:g:kxAAAOSw8-hfwgDi</t>
         </is>
       </c>
     </row>
@@ -2369,29 +2369,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16GB</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1200</v>
+        <v>1299.99</v>
       </c>
       <c r="E61" t="n">
-        <v>22.92</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1222.92</v>
+        <v>1299.99</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16GB/274593069418?hash=item3fef05b96a:g:kxAAAOSw8-hfwgDi</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393033244325?hash=item5b829b5ea5:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -2401,29 +2401,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1299.99</v>
+        <v>1300</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>1299.99</v>
+        <v>1320</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393033244325?hash=item5b829b5ea5:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/203195578527?hash=item2f4f66789f:g:13IAAOSwq69fvcga</t>
         </is>
       </c>
     </row>
@@ -2433,29 +2433,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT</t>
+          <t>Sapphire Radeon RX 6800XT (IN HAND. Ships same business day)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1300</v>
+        <v>1170</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F63" t="n">
-        <v>1320</v>
+        <v>1195</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/203195578527?hash=item2f4f66789f:g:13IAAOSwq69fvcga</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT-IN-HAND-Ships-same-business-day/313319946898?hash=item48f352fa92:g:N~0AAOSwbHpfwXA6</t>
         </is>
       </c>
     </row>
@@ -2465,29 +2465,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800XT (IN HAND. Ships same business day)</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Open Box · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1170</v>
+        <v>1250</v>
       </c>
       <c r="E64" t="n">
-        <v>25</v>
+        <v>9.9</v>
       </c>
       <c r="F64" t="n">
-        <v>1195</v>
+        <v>1259.9</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT-IN-HAND-Ships-same-business-day/313319946898?hash=item48f352fa92:g:N~0AAOSwbHpfwXA6</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/363195744716?hash=item54902741cc:g:890AAOSw2PVfv16E</t>
         </is>
       </c>
     </row>
@@ -2497,29 +2497,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>Sapphire AMD Radeon RX 6800 XT16GB GDDR6, in hand ready to ship</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Open Box · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="E65" t="n">
-        <v>9.9</v>
+        <v>11.99</v>
       </c>
       <c r="F65" t="n">
-        <v>1259.9</v>
+        <v>1211.99</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/363195744716?hash=item54902741cc:g:890AAOSw2PVfv16E</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-in-hand-ready-to-ship/324385993987?hash=item4b86e97503:g:YWgAAOSwHeVfu0Il</t>
         </is>
       </c>
     </row>
@@ -2529,29 +2529,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT16GB GDDR6, in hand ready to ship</t>
+          <t>GIGABYTE Radeon RX 6800 XT AMD Graphics Card IN HAND🖐🏽 FREE SHIPPING 🚚</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · GIGABYTE · 16 GB</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1200</v>
+        <v>1247.99</v>
       </c>
       <c r="E66" t="n">
-        <v>11.99</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1211.99</v>
+        <v>1247.99</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-in-hand-ready-to-ship/324385993987?hash=item4b86e97503:g:YWgAAOSwHeVfu0Il</t>
+          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-XT-AMD-Graphics-Card-IN-HAND-FREE-SHIPPING/324390948490?epid=21042458995&amp;hash=item4b87350e8a:g:62EAAOSwrOlfvvFK</t>
         </is>
       </c>
     </row>
@@ -2561,29 +2561,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GIGABYTE Radeon RX 6800 XT AMD Graphics Card IN HAND🖐🏽 FREE SHIPPING 🚚</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Brand New · GIGABYTE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1247.99</v>
+        <v>1150</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1247.99</v>
+        <v>1150</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-XT-AMD-Graphics-Card-IN-HAND-FREE-SHIPPING/324390948490?epid=21042458995&amp;hash=item4b87350e8a:g:62EAAOSwrOlfvvFK</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164541704842?hash=item264f732a8a:g:q68AAOSw~JNfu-3N</t>
         </is>
       </c>
     </row>
@@ -2593,29 +2593,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
+          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT - In Hand - New/Sealed - Ships Fast</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1150</v>
+        <v>1219</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1150</v>
+        <v>1219</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164541704842?hash=item264f732a8a:g:q68AAOSw~JNfu-3N</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-In-Hand-New-Sealed-Ships-Fast/333804983876?hash=item4db853d644:g:cwgAAOSwhSNfwWuW</t>
         </is>
       </c>
     </row>
@@ -2625,29 +2625,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT - In Hand - New/Sealed - Ships Fast</t>
+          <t>AMD Radeon™ RX 6800 XT Graphics 16GB DDR6 ⭐️IN HAND - FAST FREE SHIPPING⭐️</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Experienced seller, 100% feedback.</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1219</v>
+        <v>1274.98</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1219</v>
+        <v>1274.98</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-In-Hand-New-Sealed-Ships-Fast/333804983876?hash=item4db853d644:g:cwgAAOSwhSNfwWuW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-16GB-DDR6-IN-HAND-FAST-FREE-SHIPPING/184556252005?hash=item2af868eb65:g:pDUAAOSwMJZfwU-5</t>
         </is>
       </c>
     </row>
@@ -2657,29 +2657,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AMD Radeon™ RX 6800 XT Graphics 16GB DDR6 ⭐️IN HAND - FAST FREE SHIPPING⭐️</t>
+          <t>XFX AMD Radeon RX 6800 XT RX-68XTACBD9 16GB GDDR6 Video Card</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Experienced seller, 100% feedback.</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1274.98</v>
+        <v>1275</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>38.15</v>
       </c>
       <c r="F70" t="n">
-        <v>1274.98</v>
+        <v>1313.15</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-16GB-DDR6-IN-HAND-FAST-FREE-SHIPPING/184556252005?hash=item2af868eb65:g:pDUAAOSwMJZfwU-5</t>
+          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-XT-RX-68XTACBD9-16GB-GDDR6-Video-Card/333803943209?hash=item4db843f529:g:hRAAAOSwwz1fvm5c</t>
         </is>
       </c>
     </row>
@@ -2689,29 +2689,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>XFX AMD Radeon RX 6800 XT RX-68XTACBD9 16GB GDDR6 Video Card</t>
+          <t>AMD RX 6800 XT Founders Edition</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1275</v>
+        <v>1000</v>
       </c>
       <c r="E71" t="n">
-        <v>38.15</v>
+        <v>13.1</v>
       </c>
       <c r="F71" t="n">
-        <v>1313.15</v>
+        <v>1013.1</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-XT-RX-68XTACBD9-16GB-GDDR6-Video-Card/333803943209?hash=item4db843f529:g:hRAAAOSwwz1fvm5c</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-Founders-Edition/313319990958?hash=item48f353a6ae:g:H38AAOSwNTZfwXgB</t>
         </is>
       </c>
     </row>
@@ -2721,29 +2721,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT Founders Edition</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1000</v>
+        <v>1225</v>
       </c>
       <c r="E72" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="F72" t="n">
-        <v>1013.1</v>
+        <v>1237.8</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-Founders-Edition/313319990958?hash=item48f353a6ae:g:H38AAOSwNTZfwXgB</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203198493735?hash=item2f4f92f427:g:yhoAAOSwdtxfwCbq</t>
         </is>
       </c>
     </row>
@@ -2753,29 +2753,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 ASRock CONFIRMED ORDER SHIPS ASAP</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1225</v>
+        <v>1280</v>
       </c>
       <c r="E73" t="n">
-        <v>12.8</v>
+        <v>33</v>
       </c>
       <c r="F73" t="n">
-        <v>1237.8</v>
+        <v>1313</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203198493735?hash=item2f4f92f427:g:yhoAAOSwdtxfwCbq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-ASRock-CONFIRMED-ORDER-SHIPS-ASAP/333802737851?hash=item4db83190bb:g:~QYAAOSwh-dfv0cR</t>
         </is>
       </c>
     </row>
@@ -2785,29 +2785,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 ASRock CONFIRMED ORDER SHIPS ASAP</t>
+          <t>AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Open Box · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1280</v>
+        <v>1350</v>
       </c>
       <c r="E74" t="n">
-        <v>33</v>
+        <v>11.75</v>
       </c>
       <c r="F74" t="n">
-        <v>1313</v>
+        <v>1361.75</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-ASRock-CONFIRMED-ORDER-SHIPS-ASAP/333802737851?hash=item4db83190bb:g:~QYAAOSwh-dfv0cR</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/333800982143?hash=item4db816c67f:g:3PoAAOSwk8pfvWiV</t>
         </is>
       </c>
     </row>
@@ -2817,29 +2817,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Open Box · AMD · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1350</v>
+        <v>1158</v>
       </c>
       <c r="E75" t="n">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1361.75</v>
+        <v>1158</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/333800982143?hash=item4db816c67f:g:3PoAAOSwk8pfvWiV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324393412518?epid=20042698447&amp;hash=item4b875aa7a6:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2858,20 +2858,20 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1158</v>
+        <v>1000</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="F76" t="n">
-        <v>1158</v>
+        <v>1015.4</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324393412518?epid=20042698447&amp;hash=item4b875aa7a6:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295545464?hash=item52420e3478:g:qn8AAOSw0vBfwTLv</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295545464?hash=item52420e3478:g:qn8AAOSw0vBfwTLv</t>
+          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295502895?hash=item52420d8e2f:g:qn8AAOSw0vBfwTLv</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2922,20 +2922,20 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1000</v>
+        <v>1170</v>
       </c>
       <c r="E78" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1015.4</v>
+        <v>1170</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295502895?hash=item52420d8e2f:g:qn8AAOSw0vBfwTLv</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324392454094?epid=20042698447&amp;hash=item4b874c07ce:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -2945,29 +2945,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1170</v>
+        <v>1070</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="F79" t="n">
-        <v>1170</v>
+        <v>1095.9</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324392454094?epid=20042698447&amp;hash=item4b874c07ce:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING/284091919528?hash=item422532aca8:g:1jcAAOSwVWVftwf8</t>
         </is>
       </c>
     </row>
@@ -2977,29 +2977,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1070</v>
+        <v>1299.99</v>
       </c>
       <c r="E80" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1095.9</v>
+        <v>1299.99</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING/284091919528?hash=item422532aca8:g:1jcAAOSwVWVftwf8</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393031567580?hash=item5b8281c8dc:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -3009,29 +3009,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>AMD Radeon RX 6800XT Video Graphics Card GPU New Sealed</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1299.99</v>
+        <v>1200</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>1299.99</v>
+        <v>1220</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393031567580?hash=item5b8281c8dc:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-Video-Graphics-Card-GPU-New-Sealed/333795119473?hash=item4db7bd5171:g:qsIAAOSwDRZftqAF</t>
         </is>
       </c>
     </row>
@@ -3041,29 +3041,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800XT Video Graphics Card GPU New Sealed</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1200</v>
+        <v>1099</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1220</v>
+        <v>1099</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-Video-Graphics-Card-GPU-New-Sealed/333795119473?hash=item4db7bd5171:g:qsIAAOSwDRZftqAF</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324391817705?epid=20042698447&amp;hash=item4b874251e9:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -3073,29 +3073,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK GPU *CONFIRMED &amp; SHIPPED ORDER*</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1099</v>
+        <v>1299.99</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1099</v>
+        <v>1299.99</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324391817705?epid=20042698447&amp;hash=item4b874251e9:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-GPU-CONFIRMED-SHIPPED-ORDER/324391148332?hash=item4b87381b2c:g:jeMAAOSwuN5fvyTz</t>
         </is>
       </c>
     </row>
@@ -3105,29 +3105,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK GPU *CONFIRMED &amp; SHIPPED ORDER*</t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1299.99</v>
+        <v>1826.01</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="F84" t="n">
-        <v>1299.99</v>
+        <v>1838.26</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-GPU-CONFIRMED-SHIPPED-ORDER/324391148332?hash=item4b87381b2c:g:jeMAAOSwuN5fvyTz</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124457758751?epid=18042593571&amp;hash=item1cfa42b01f:g:PBkAAOSwbQRfttAo</t>
         </is>
       </c>
     </row>
@@ -3137,29 +3137,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB IN HAND SHIPS FAST</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1826.01</v>
+        <v>1199</v>
       </c>
       <c r="E85" t="n">
-        <v>12.25</v>
+        <v>9.9</v>
       </c>
       <c r="F85" t="n">
-        <v>1838.26</v>
+        <v>1208.9</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124457758751?epid=18042593571&amp;hash=item1cfa42b01f:g:PBkAAOSwbQRfttAo</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-IN-HAND-SHIPS-FAST/174534969896?hash=item28a3184a28:g:z8cAAOSwyPhfuqGx</t>
         </is>
       </c>
     </row>
@@ -3169,29 +3169,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB IN HAND SHIPS FAST</t>
+          <t>AMD MSI Radeon RX 6800 XT 16GB GDDR6 Reference Model BRAND NEW!!!</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1199</v>
+        <v>1055.99</v>
       </c>
       <c r="E86" t="n">
-        <v>9.9</v>
+        <v>60</v>
       </c>
       <c r="F86" t="n">
-        <v>1208.9</v>
+        <v>1115.99</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-IN-HAND-SHIPS-FAST/174534969896?hash=item28a3184a28:g:z8cAAOSwyPhfuqGx</t>
+          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-XT-16GB-GDDR6-Reference-Model-BRAND-NEW/254789930283?epid=20042698447&amp;hash=item3b52a9cd2b:g:U1UAAOSw8pFfvxtB</t>
         </is>
       </c>
     </row>
@@ -3201,29 +3201,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMD MSI Radeon RX 6800 XT 16GB GDDR6 Reference Model BRAND NEW!!!</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1055.99</v>
+        <v>1350</v>
       </c>
       <c r="E87" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1115.99</v>
+        <v>1350</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-XT-16GB-GDDR6-Reference-Model-BRAND-NEW/254789930283?epid=20042698447&amp;hash=item3b52a9cd2b:g:U1UAAOSw8pFfvxtB</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164532349030?hash=item264ee46866:g:q68AAOSw~JNfu-3N</t>
         </is>
       </c>
     </row>
@@ -3233,29 +3233,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
+          <t>Sapphire Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1350</v>
+        <v>1050</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
-        <v>1350</v>
+        <v>1075</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164532349030?hash=item264ee46866:g:q68AAOSw~JNfu-3N</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT/313317342296?hash=item48f32b3c58:i:313317342296</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800XT</t>
+          <t>RADEON SAPPHIRE RX6800XT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3274,20 +3274,20 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="E89" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F89" t="n">
-        <v>1075</v>
+        <v>1220</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT/313317342296?hash=item48f32b3c58:i:313317342296</t>
+          <t>https://www.ebay.com/itm/RADEON-SAPPHIRE-RX6800XT/233797158586?hash=item366f6586ba:g:jNsAAOSwtllfvIko</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RADEON SAPPHIRE RX6800XT</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3306,20 +3306,20 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/RADEON-SAPPHIRE-RX6800XT/233797158586?hash=item366f6586ba:g:jNsAAOSwtllfvIko</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324388351689?epid=20042698447&amp;hash=item4b870d6ec9:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -3329,29 +3329,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card. Confirmed will ship when it arrives friday </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1210</v>
+        <v>1175</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1210</v>
+        <v>1175</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324388351689?epid=20042698447&amp;hash=item4b870d6ec9:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Confirmed-will-ship-when-it-arrives-friday/254789014239?hash=item3b529bd2df:g:ED8AAOSwxe9fveo7</t>
         </is>
       </c>
     </row>
@@ -3361,29 +3361,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card. Confirmed will ship when it arrives friday </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1175</v>
+        <v>1299.99</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>13.65</v>
       </c>
       <c r="F92" t="n">
-        <v>1175</v>
+        <v>1313.64</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Confirmed-will-ship-when-it-arrives-friday/254789014239?hash=item3b529bd2df:g:ED8AAOSwxe9fveo7</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383825445305?hash=item595dc781b9:g:pnUAAOSw0xBfvDFy</t>
         </is>
       </c>
     </row>
@@ -3393,29 +3393,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">AMD RADEON RX 6800 XT (AMD Brand - Reference Model) </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1299.99</v>
+        <v>1195</v>
       </c>
       <c r="E93" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1313.64</v>
+        <v>1195</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383825445305?hash=item595dc781b9:g:pnUAAOSw0xBfvDFy</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT-AMD-Brand-Reference-Model/303783942900?hash=item46baef1af4:g:dokAAOSw3rxfvt1F</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD RADEON RX 6800 XT (AMD Brand - Reference Model) </t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3434,20 +3434,20 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT-AMD-Brand-Reference-Model/303783942900?hash=item46baef1af4:g:dokAAOSw3rxfvt1F</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324389263014?hash=item4b871b56a6:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t xml:space="preserve"> AMD Radeon RX 6800 XT.  IN HAND.  SHIPS SAME DAY.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3466,20 +3466,20 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324389263014?hash=item4b871b56a6:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-SHIPS-SAME-DAY/224250135876?hash=item3436598544:g:pB8AAOSw8DNfvskT</t>
         </is>
       </c>
     </row>
@@ -3489,29 +3489,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMD Radeon RX 6800 XT.  IN HAND.  SHIPS SAME DAY.</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card ARRIVING FRIDAY</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>42.75</v>
       </c>
       <c r="F96" t="n">
-        <v>1250</v>
+        <v>1267.75</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-SHIPS-SAME-DAY/224250135876?hash=item3436598544:g:pB8AAOSw8DNfvskT</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ARRIVING-FRIDAY/313315663003?hash=item48f3119c9b:g:vroAAOSwSpNfvb86</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card ARRIVING FRIDAY</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card ***In Hand, Fast Shipping***</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3530,20 +3530,20 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1225</v>
+        <v>1270</v>
       </c>
       <c r="E97" t="n">
-        <v>42.75</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1267.75</v>
+        <v>1270</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ARRIVING-FRIDAY/313315663003?hash=item48f3119c9b:g:vroAAOSwSpNfvb86</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-Fast-Shipping/184550885539?hash=item2af81708a3:g:euwAAOSw8xVfvScx</t>
         </is>
       </c>
     </row>
@@ -3553,29 +3553,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card ***In Hand, Fast Shipping***</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB Reference - New IN-HAND (Ships Now!)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1270</v>
+        <v>1229.99</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>13.16</v>
       </c>
       <c r="F98" t="n">
-        <v>1270</v>
+        <v>1243.15</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-Fast-Shipping/184550885539?hash=item2af81708a3:g:euwAAOSw8xVfvScx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-Reference-New-IN-HAND-Ships-Now/264952734067?hash=item3db069e173:g:LZoAAOSwDDRfvuYb</t>
         </is>
       </c>
     </row>
@@ -3585,29 +3585,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB Reference - New IN-HAND (Ships Now!)</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING Brand New Sealed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1229.99</v>
+        <v>1200</v>
       </c>
       <c r="E99" t="n">
-        <v>13.16</v>
+        <v>25.9</v>
       </c>
       <c r="F99" t="n">
-        <v>1243.15</v>
+        <v>1225.9</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-Reference-New-IN-HAND-Ships-Now/264952734067?hash=item3db069e173:g:LZoAAOSwDDRfvuYb</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING-Brand-New-Sealed/174534172385?hash=item28a30c1ee1:g:VGMAAOSw3olfvu-N</t>
         </is>
       </c>
     </row>
@@ -3617,29 +3617,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING Brand New Sealed</t>
+          <t>🚨Free OVERNIGHT SHIPPING | Sapphire Nitro+ Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1200</v>
+        <v>1495</v>
       </c>
       <c r="E100" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1225.9</v>
+        <v>1495</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING-Brand-New-Sealed/174534172385?hash=item28a30c1ee1:g:VGMAAOSw3olfvu-N</t>
+          <t>https://www.ebay.com/itm/Free-OVERNIGHT-SHIPPING-Sapphire-Nitro-Radeon-RX-6800XT/264952630538?hash=item3db0684d0a:g:5D8AAOSwxp1fvsu~</t>
         </is>
       </c>
     </row>
@@ -3649,29 +3649,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>🚨Free OVERNIGHT SHIPPING | Sapphire Nitro+ Radeon RX 6800XT</t>
+          <t>SAPPHIRE Radeon RX 6800 XT Gaming Graphics Card *Fast Shipping*</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1495</v>
+        <v>1180</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1495</v>
+        <v>1180</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Free-OVERNIGHT-SHIPPING-Sapphire-Nitro-Radeon-RX-6800XT/264952630538?hash=item3db0684d0a:g:5D8AAOSwxp1fvsu~</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Gaming-Graphics-Card-Fast-Shipping/402578523686?hash=item5dbb8cc626:g:rZMAAOSwVrNfvqN3</t>
         </is>
       </c>
     </row>
@@ -3681,29 +3681,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 XT Gaming Graphics Card *Fast Shipping*</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB - New IN-HAND (Will Ship Same Day)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>35.55</v>
       </c>
       <c r="F102" t="n">
-        <v>1180</v>
+        <v>1235.55</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Gaming-Graphics-Card-Fast-Shipping/402578523686?hash=item5dbb8cc626:g:rZMAAOSwVrNfvqN3</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-New-IN-HAND-Will-Ship-Same-Day/303778895236?hash=item46baa21584:g:C0oAAOSwelFfuvxY</t>
         </is>
       </c>
     </row>
@@ -3713,29 +3713,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB - New IN-HAND (Will Ship Same Day)</t>
+          <t>✅ CONFIRMED NEWEGG ORDER:ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6✅</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1200</v>
+        <v>1099.99</v>
       </c>
       <c r="E103" t="n">
-        <v>35.55</v>
+        <v>10.9</v>
       </c>
       <c r="F103" t="n">
-        <v>1235.55</v>
+        <v>1110.89</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-New-IN-HAND-Will-Ship-Same-Day/303778895236?hash=item46baa21584:g:C0oAAOSwelFfuvxY</t>
+          <t>https://www.ebay.com/itm/CONFIRMED-NEWEGG-ORDER-ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/174533770349?hash=item28a305fc6d:g:DeoAAOSwqlZfvpst</t>
         </is>
       </c>
     </row>
@@ -3745,29 +3745,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>✅ CONFIRMED NEWEGG ORDER:ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6✅</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB FREE FAST SHIPPING</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1099.99</v>
+        <v>1199</v>
       </c>
       <c r="E104" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1110.89</v>
+        <v>1199</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/CONFIRMED-NEWEGG-ORDER-ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/174533770349?hash=item28a305fc6d:g:DeoAAOSwqlZfvpst</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-FREE-FAST-SHIPPING/254789512407?hash=item3b52a36cd7:g:Zv0AAOSw629fvpHI</t>
         </is>
       </c>
     </row>
@@ -3777,29 +3777,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB FREE FAST SHIPPING</t>
+          <t>AMD RX 6800 XT CONFIRMED ORDER, SHIPPING ON ARRIVAL, ARRIVES WEDNESDAY</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1199</v>
+        <v>1230</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>1199</v>
+        <v>1245</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-FREE-FAST-SHIPPING/254789512407?hash=item3b52a36cd7:g:Zv0AAOSw629fvpHI</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-CONFIRMED-ORDER-SHIPPING-ON-ARRIVAL-ARRIVES-WEDNESDAY/274583879811?hash=item3fee798083:g:i-oAAOSwne1fuAaR</t>
         </is>
       </c>
     </row>
@@ -3809,29 +3809,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT CONFIRMED ORDER, SHIPPING ON ARRIVAL, ARRIVES WEDNESDAY</t>
+          <t>PowerColor Red Devil Limited Edition AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1230</v>
+        <v>1300</v>
       </c>
       <c r="E106" t="n">
-        <v>15</v>
+        <v>20.8</v>
       </c>
       <c r="F106" t="n">
-        <v>1245</v>
+        <v>1320.8</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-CONFIRMED-ORDER-SHIPPING-ON-ARRIVAL-ARRIVES-WEDNESDAY/274583879811?hash=item3fee798083:g:i-oAAOSwne1fuAaR</t>
+          <t>https://www.ebay.com/itm/PowerColor-Red-Devil-Limited-Edition-AMD-Radeon-RX-6800-XT/333801948886?hash=item4db82586d6:g:r~AAAOSwkdpfvomS</t>
         </is>
       </c>
     </row>
@@ -3841,29 +3841,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PowerColor Red Devil Limited Edition AMD Radeon RX 6800 XT</t>
+          <t>New SAPPHIRE Radeon RX 6800 XT DirectX 16GB 256-Bit GDDR6 AMD RDNA 2 In Hand!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1300</v>
+        <v>1277.77</v>
       </c>
       <c r="E107" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1320.8</v>
+        <v>1277.77</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-Red-Devil-Limited-Edition-AMD-Radeon-RX-6800-XT/333801948886?hash=item4db82586d6:g:r~AAAOSwkdpfvomS</t>
+          <t>https://www.ebay.com/itm/New-SAPPHIRE-Radeon-RX-6800-XT-DirectX-16GB-256-Bit-GDDR6-AMD-RDNA-2-In-Hand/114538912993?hash=item1aab0d1ce1:g:PsEAAOSwRkVfvUwa</t>
         </is>
       </c>
     </row>
@@ -3873,29 +3873,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>New SAPPHIRE Radeon RX 6800 XT DirectX 16GB 256-Bit GDDR6 AMD RDNA 2 In Hand!</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1277.77</v>
+        <v>1399.99</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1277.77</v>
+        <v>1399.99</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-SAPPHIRE-Radeon-RX-6800-XT-DirectX-16GB-256-Bit-GDDR6-AMD-RDNA-2-In-Hand/114538912993?hash=item1aab0d1ce1:g:PsEAAOSwRkVfvUwa</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/284085808865?hash=item4224d56ee1:g:MPkAAOSwl89ftUh0</t>
         </is>
       </c>
     </row>
@@ -3905,29 +3905,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>NEW! PowerColor AMD Radeon RX 6800 XT 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW!</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1399.99</v>
+        <v>1175</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="F109" t="n">
-        <v>1399.99</v>
+        <v>1187.25</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/284085808865?hash=item4224d56ee1:g:MPkAAOSwl89ftUh0</t>
+          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-XT-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124455823595?epid=18042593571&amp;hash=item1cfa2528eb:g:6BIAAOSw66tfvTt2</t>
         </is>
       </c>
     </row>
@@ -3937,29 +3937,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NEW! PowerColor AMD Radeon RX 6800 XT 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW!</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *ships Immediately once received*</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1175</v>
+        <v>1150</v>
       </c>
       <c r="E110" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1187.25</v>
+        <v>1150</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-XT-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124455823595?epid=18042593571&amp;hash=item1cfa2528eb:g:6BIAAOSw66tfvTt2</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ships-Immediately-once-received/143862352654?hash=item217edd4b0e:g:E-sAAOSwiGRfvnQ9</t>
         </is>
       </c>
     </row>
@@ -3969,29 +3969,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *ships Immediately once received*</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Brand New SEALED in box</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1150</v>
+        <v>1179.99</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>12.55</v>
       </c>
       <c r="F111" t="n">
-        <v>1150</v>
+        <v>1192.54</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ships-Immediately-once-received/143862352654?hash=item217edd4b0e:g:E-sAAOSwiGRfvnQ9</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Brand-New-SEALED-in-box/264950974329?hash=item3db04f0779:g:RVIAAOSwxFhfvSjD</t>
         </is>
       </c>
     </row>
@@ -4001,29 +4001,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Brand New SEALED in box</t>
+          <t>AMD Radeon RX 6800 XT graphics card *in hand*</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1179.99</v>
+        <v>1290</v>
       </c>
       <c r="E112" t="n">
-        <v>12.55</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1192.54</v>
+        <v>1290</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Brand-New-SEALED-in-box/264950974329?hash=item3db04f0779:g:RVIAAOSwxFhfvSjD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-graphics-card-in-hand/174529910577?hash=item28a2cb1731:g:aPEAAOSwa6Jfuur4</t>
         </is>
       </c>
     </row>
@@ -4033,29 +4033,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT graphics card *in hand*</t>
+          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1290</v>
+        <v>1199.99</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>23.99</v>
       </c>
       <c r="F113" t="n">
-        <v>1290</v>
+        <v>1223.98</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-graphics-card-in-hand/174529910577?hash=item28a2cb1731:g:aPEAAOSwa6Jfuur4</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/154211544216?hash=item23e7b96c98:g:tc4AAOSwczxfvYsZ</t>
         </is>
       </c>
     </row>
@@ -4065,29 +4065,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Confirmed Order from Amazon *ETA to me 11/25*</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1199.99</v>
+        <v>1200</v>
       </c>
       <c r="E114" t="n">
-        <v>23.99</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1223.98</v>
+        <v>1200</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/154211544216?hash=item23e7b96c98:g:tc4AAOSwczxfvYsZ</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788864516?hash=item3b52998a04:g:LV0AAOSwgRhftUEu</t>
         </is>
       </c>
     </row>
@@ -4097,29 +4097,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Confirmed Order from Amazon *ETA to me 11/25*</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1200</v>
+        <v>1301</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1200</v>
+        <v>1301</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788864516?hash=item3b52998a04:g:LV0AAOSwgRhftUEu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324387324010?hash=item4b86fdc06a:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -4129,29 +4129,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1301</v>
+        <v>1250</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="F116" t="n">
-        <v>1301</v>
+        <v>1262.04</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324387324010?hash=item4b86fdc06a:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303775023279?hash=item46ba6700af:g:pigAAOSwZYFftwlG</t>
         </is>
       </c>
     </row>
@@ -4161,29 +4161,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 (ships within one business day)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1250</v>
+        <v>1099</v>
       </c>
       <c r="E117" t="n">
-        <v>12.04</v>
+        <v>10.9</v>
       </c>
       <c r="F117" t="n">
-        <v>1262.04</v>
+        <v>1109.9</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303775023279?hash=item46ba6700af:g:pigAAOSwZYFftwlG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-ships-within-one-business-day/293853998128?hash=item446b102c30:g:-DkAAOSwmQdfvaXV</t>
         </is>
       </c>
     </row>
@@ -4193,29 +4193,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6 (ships within one business day)</t>
+          <t xml:space="preserve">Big Navi AMD ASRock RX 6800 XT 16GB - IN HAND - FAST SHIPPING </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1099</v>
+        <v>1250</v>
       </c>
       <c r="E118" t="n">
-        <v>10.9</v>
+        <v>28.95</v>
       </c>
       <c r="F118" t="n">
-        <v>1109.9</v>
+        <v>1278.95</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-ships-within-one-business-day/293853998128?hash=item446b102c30:g:-DkAAOSwmQdfvaXV</t>
+          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-XT-16GB-IN-HAND-FAST-SHIPPING/313310719061?hash=item48f2c62c55:g:dfoAAOSwxB5fuYFP</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big Navi AMD ASRock RX 6800 XT 16GB - IN HAND - FAST SHIPPING </t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4234,20 +4234,20 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1250</v>
+        <v>1049</v>
       </c>
       <c r="E119" t="n">
-        <v>28.95</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1278.95</v>
+        <v>1049</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-XT-16GB-IN-HAND-FAST-SHIPPING/313310719061?hash=item48f2c62c55:g:dfoAAOSwxB5fuYFP</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324386990423?hash=item4b86f8a957:g:lgUAAOSwl5hfvCgL</t>
         </is>
       </c>
     </row>
@@ -4257,29 +4257,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1049</v>
+        <v>1325</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1049</v>
+        <v>1325</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324386990423?hash=item4b86f8a957:g:lgUAAOSwl5hfvCgL</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/114529518218?hash=item1aaa7dc28a:g:ehkAAOSwZYFftfbC</t>
         </is>
       </c>
     </row>
@@ -4289,29 +4289,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 IN HAND </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1325</v>
+        <v>1199.99</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1325</v>
+        <v>1199.99</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/114529518218?hash=item1aaa7dc28a:g:ehkAAOSwZYFftfbC</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-IN-HAND/303781784252?hash=item46bace2abc:g:KSUAAOSwJVJfvRkx</t>
         </is>
       </c>
     </row>
@@ -4321,29 +4321,29 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 IN HAND </t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1199.99</v>
+        <v>1299</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F122" t="n">
-        <v>1199.99</v>
+        <v>1313.4</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-IN-HAND/303781784252?hash=item46bace2abc:g:KSUAAOSwJVJfvRkx</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/254787768216?hash=item3b5288cf98:g:1oAAAOSweAlfvFFY</t>
         </is>
       </c>
     </row>
@@ -4353,29 +4353,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Radeon Gaming Graphics Card IN HAND FAST SHIPPING</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1299</v>
+        <v>1299.99</v>
       </c>
       <c r="E123" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1313.4</v>
+        <v>1299.99</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/254787768216?hash=item3b5288cf98:g:1oAAAOSweAlfvFFY</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Radeon-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/254785633307?hash=item3b52683c1b:g:K4kAAOSw9IZfuehq</t>
         </is>
       </c>
     </row>
@@ -4385,29 +4385,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Radeon Gaming Graphics Card IN HAND FAST SHIPPING</t>
+          <t>AMD Radeon RX 6800 XT [Same Day Shipping]</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1299.99</v>
+        <v>1289</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="F124" t="n">
-        <v>1299.99</v>
+        <v>1300.3</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Radeon-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/254785633307?hash=item3b52683c1b:g:K4kAAOSw9IZfuehq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Same-Day-Shipping/184541656094?hash=item2af78a341e:g:i3UAAOSwiGRfu-GK</t>
         </is>
       </c>
     </row>
@@ -4417,29 +4417,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT [Same Day Shipping]</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships same day if paid by 2pm EST*</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1289</v>
+        <v>1229</v>
       </c>
       <c r="E125" t="n">
-        <v>11.3</v>
+        <v>21</v>
       </c>
       <c r="F125" t="n">
-        <v>1300.3</v>
+        <v>1250</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Same-Day-Shipping/184541656094?hash=item2af78a341e:g:i3UAAOSwiGRfu-GK</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-same-day-if-paid-by-2pm-EST/353290478541?hash=item5241c0e3cd:g:vK8AAOSwnbZfvFGC</t>
         </is>
       </c>
     </row>
@@ -4449,29 +4449,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships same day if paid by 2pm EST*</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1229</v>
+        <v>1300</v>
       </c>
       <c r="E126" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-same-day-if-paid-by-2pm-EST/353290478541?hash=item5241c0e3cd:g:vK8AAOSwnbZfvFGC</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324385728269?hash=item4b86e5670d:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t>AMD Radeon RX 6800 XT ready to ship</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4490,20 +4490,20 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324385728269?hash=item4b86e5670d:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-ready-to-ship/254787431198?hash=item3b5283ab1e:g:8ewAAOSwXwBfu~pu</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT ready to ship</t>
+          <t xml:space="preserve">Radeon RX 6800 XT SHIPPED print on paper </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4522,20 +4522,20 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F128" t="n">
-        <v>1200</v>
+        <v>1010.9</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-ready-to-ship/254787431198?hash=item3b5283ab1e:g:8ewAAOSwXwBfu~pu</t>
+          <t>https://www.ebay.com/itm/Radeon-RX-6800-XT-SHIPPED-print-on-paper/383824264077?hash=item595db57b8d:g:EIMAAOSwiLVfuua7</t>
         </is>
       </c>
     </row>
@@ -4545,29 +4545,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radeon RX 6800 XT SHIPPED print on paper </t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1000</v>
+        <v>1289.99</v>
       </c>
       <c r="E129" t="n">
-        <v>10.9</v>
+        <v>14.4</v>
       </c>
       <c r="F129" t="n">
-        <v>1010.9</v>
+        <v>1304.39</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Radeon-RX-6800-XT-SHIPPED-print-on-paper/383824264077?hash=item595db57b8d:g:EIMAAOSwiLVfuua7</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363190793234?hash=item548fdbb412:g:dvMAAOSw2sRfuEGQ</t>
         </is>
       </c>
     </row>
@@ -4577,29 +4577,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Fast Ship</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1289.99</v>
+        <v>1300</v>
       </c>
       <c r="E130" t="n">
-        <v>14.4</v>
+        <v>12.54</v>
       </c>
       <c r="F130" t="n">
-        <v>1304.39</v>
+        <v>1312.54</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363190793234?hash=item548fdbb412:g:dvMAAOSw2sRfuEGQ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Fast-Ship/324385195319?hash=item4b86dd4537:g:EBsAAOSwtDNfuqbl</t>
         </is>
       </c>
     </row>
@@ -4609,29 +4609,29 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Fast Ship</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1300</v>
+        <v>1275</v>
       </c>
       <c r="E131" t="n">
-        <v>12.54</v>
+        <v>80</v>
       </c>
       <c r="F131" t="n">
-        <v>1312.54</v>
+        <v>1355</v>
       </c>
       <c r="G131" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Fast-Ship/324385195319?hash=item4b86dd4537:g:EBsAAOSwtDNfuqbl</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858709669?hash=item217ea5b4a5:g:~FEAAOSwqARfusR0</t>
         </is>
       </c>
     </row>
@@ -4653,17 +4653,17 @@
         <v>1275</v>
       </c>
       <c r="E132" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F132" t="n">
-        <v>1355</v>
+        <v>1315</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858709669?hash=item217ea5b4a5:g:~FEAAOSwqARfusR0</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858264833?hash=item217e9eeb01:g:~FEAAOSwqARfusR0</t>
         </is>
       </c>
     </row>
@@ -4673,29 +4673,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU  IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1275</v>
+        <v>1250</v>
       </c>
       <c r="E133" t="n">
-        <v>40</v>
+        <v>18.95</v>
       </c>
       <c r="F133" t="n">
-        <v>1315</v>
+        <v>1268.95</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858264833?hash=item217e9eeb01:g:~FEAAOSwqARfusR0</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-IN-HAND-READY-TO-SHIP/333798890474?hash=item4db7f6dbea:g:fH4AAOSwVJJfuvnv</t>
         </is>
       </c>
     </row>
@@ -4705,29 +4705,29 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU  IN HAND READY TO SHIP</t>
+          <t xml:space="preserve">IN HAND! MSI Radeon RX 6800 XT DirectX 12 RX 6800 XT 16G 16GB 256-Bit GDDR6 </t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1250</v>
+        <v>1349</v>
       </c>
       <c r="E134" t="n">
-        <v>18.95</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1268.95</v>
+        <v>1349</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-IN-HAND-READY-TO-SHIP/333798890474?hash=item4db7f6dbea:g:fH4AAOSwVJJfuvnv</t>
+          <t>https://www.ebay.com/itm/IN-HAND-MSI-Radeon-RX-6800-XT-DirectX-12-RX-6800-XT-16G-16GB-256-Bit-GDDR6/184546658425?hash=item2af7d68879:g:oWcAAOSwjsxfuYDi</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">IN HAND! MSI Radeon RX 6800 XT DirectX 12 RX 6800 XT 16G 16GB 256-Bit GDDR6 </t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST AUCTION</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4746,20 +4746,20 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1349</v>
+        <v>1600</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="F135" t="n">
-        <v>1349</v>
+        <v>1625.9</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-MSI-Radeon-RX-6800-XT-DirectX-12-RX-6800-XT-16G-16GB-256-Bit-GDDR6/184546658425?hash=item2af7d68879:g:oWcAAOSwjsxfuYDi</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-AUCTION/284087579032?hash=item4224f07198:g:1jcAAOSwVWVftwf8</t>
         </is>
       </c>
     </row>
@@ -4769,29 +4769,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST AUCTION</t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1600</v>
+        <v>1284</v>
       </c>
       <c r="E136" t="n">
-        <v>25.9</v>
+        <v>12.25</v>
       </c>
       <c r="F136" t="n">
-        <v>1625.9</v>
+        <v>1296.25</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-AUCTION/284087579032?hash=item4224f07198:g:1jcAAOSwVWVftwf8</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124448722219?hash=item1cf9b8cd2b:g:PBkAAOSwbQRfttAo</t>
         </is>
       </c>
     </row>
@@ -4801,29 +4801,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>IN HAND - AMD Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1284</v>
+        <v>1250</v>
       </c>
       <c r="E137" t="n">
-        <v>12.25</v>
+        <v>25</v>
       </c>
       <c r="F137" t="n">
-        <v>1296.25</v>
+        <v>1275</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124448722219?hash=item1cf9b8cd2b:g:PBkAAOSwbQRfttAo</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Radeon-RX-6800XT/293849061367?hash=item446ac4d7f7:g:VkgAAOSwGzpfurQk</t>
         </is>
       </c>
     </row>
@@ -4833,29 +4833,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>IN HAND - AMD Radeon RX 6800XT</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT16GB GDDR6, Order Confirmed. Ships upon delivery! </t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1250</v>
+        <v>1299</v>
       </c>
       <c r="E138" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>1275</v>
+        <v>1299</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Radeon-RX-6800XT/293849061367?hash=item446ac4d7f7:g:VkgAAOSwGzpfurQk</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-Order-Confirmed-Ships-upon-delivery/184541892261?hash=item2af78dcea5:g:O3cAAOSw2UpftV~7</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT16GB GDDR6, Order Confirmed. Ships upon delivery! </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4874,20 +4874,20 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="F139" t="n">
-        <v>1299</v>
+        <v>1326.7</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-Order-Confirmed-Ships-upon-delivery/184541892261?hash=item2af78dcea5:g:O3cAAOSw2UpftV~7</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313310820896?hash=item48f2c7ba20:g:lTkAAOSwtmhfuaOy</t>
         </is>
       </c>
     </row>
@@ -4897,29 +4897,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D140" t="n">
         <v>1300</v>
       </c>
       <c r="E140" t="n">
-        <v>26.7</v>
+        <v>12.3</v>
       </c>
       <c r="F140" t="n">
-        <v>1326.7</v>
+        <v>1312.3</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313310820896?hash=item48f2c7ba20:g:lTkAAOSwtmhfuaOy</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244429573?hash=item3436027305:g:HdAAAOSwDwNfuYMu</t>
         </is>
       </c>
     </row>
@@ -4929,29 +4929,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1300</v>
+        <v>1289.99</v>
       </c>
       <c r="E141" t="n">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="F141" t="n">
-        <v>1312.3</v>
+        <v>1304.39</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244429573?hash=item3436027305:g:HdAAAOSwDwNfuYMu</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363186717375?hash=item548f9d82bf:g:dvMAAOSw2sRfuEGQ</t>
         </is>
       </c>
     </row>
@@ -4961,29 +4961,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1289.99</v>
+        <v>1300</v>
       </c>
       <c r="E142" t="n">
-        <v>14.4</v>
+        <v>12.3</v>
       </c>
       <c r="F142" t="n">
-        <v>1304.39</v>
+        <v>1312.3</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363186717375?hash=item548f9d82bf:g:dvMAAOSw2sRfuEGQ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244042671?hash=item3435fc8baf:g:HdAAAOSwDwNfuYMu</t>
         </is>
       </c>
     </row>
@@ -4993,29 +4993,29 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
+          <t>AMD Radeon RX 6800 XT (IN HAND AND READY TO SHIP)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1300</v>
+        <v>1525</v>
       </c>
       <c r="E143" t="n">
-        <v>12.3</v>
+        <v>7.5</v>
       </c>
       <c r="F143" t="n">
-        <v>1312.3</v>
+        <v>1532.5</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244042671?hash=item3435fc8baf:g:HdAAAOSwDwNfuYMu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-AND-READY-TO-SHIP/284085937393?hash=item4224d764f1:g:WvYAAOSwlCpftWcX</t>
         </is>
       </c>
     </row>
@@ -5025,29 +5025,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT (IN HAND AND READY TO SHIP)</t>
+          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1525</v>
+        <v>1350</v>
       </c>
       <c r="E144" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1532.5</v>
+        <v>1350</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-AND-READY-TO-SHIP/284085937393?hash=item4224d764f1:g:WvYAAOSwlCpftWcX</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/124451444582?hash=item1cf9e25766:g:sCsAAOSwhL1fuUsq</t>
         </is>
       </c>
     </row>
@@ -5057,29 +5057,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1350</v>
+        <v>1385</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1350</v>
+        <v>1385</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/124451444582?hash=item1cf9e25766:g:sCsAAOSwhL1fuUsq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527149063?hash=item264e951007:g:JUoAAOSwwfdft0SV</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5098,20 +5098,20 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1385</v>
+        <v>1400</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F146" t="n">
-        <v>1385</v>
+        <v>1415</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527149063?hash=item264e951007:g:JUoAAOSwwfdft0SV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/133580458371?hash=item1f1a040983:g:cswAAOSw8~ZftToE</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5130,20 +5130,20 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1415</v>
+        <v>1385</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/133580458371?hash=item1f1a040983:g:cswAAOSw8~ZftToE</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527020961?hash=item264e931ba1:g:JUoAAOSwwfdft0SV</t>
         </is>
       </c>
     </row>
@@ -5153,29 +5153,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1385</v>
+        <v>1329</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1385</v>
+        <v>1329</v>
       </c>
       <c r="G148" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527020961?hash=item264e931ba1:g:JUoAAOSwwfdft0SV</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/274581176427?hash=item3fee50406b:g:PXcAAOSw9TRftVhk</t>
         </is>
       </c>
     </row>
@@ -5185,29 +5185,29 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 **FREE/FAST SHIP IN HAND**</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1329</v>
+        <v>1345</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1329</v>
+        <v>1345</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/274581176427?hash=item3fee50406b:g:PXcAAOSw9TRftVhk</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-FREE-FAST-SHIP-IN-HAND/184544049522?hash=item2af7aeb972:g:AjcAAOSwkaJft1kQ</t>
         </is>
       </c>
     </row>
@@ -5217,29 +5217,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 **FREE/FAST SHIP IN HAND**</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1345</v>
+        <v>1199</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1345</v>
+        <v>1199</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-FREE-FAST-SHIP-IN-HAND/184544049522?hash=item2af7aeb972:g:AjcAAOSwkaJft1kQ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324382376786?hash=item4b86b24352:g:ojgAAOSwZ05ft9jI</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5258,20 +5258,20 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1199</v>
+        <v>1499.98</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1199</v>
+        <v>1499.98</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324382376786?hash=item4b86b24352:g:ojgAAOSwZ05ft9jI</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/193758038220?hash=item2d1ce108cc:g:6xoAAOSwXkRftzEB</t>
         </is>
       </c>
     </row>
@@ -5281,29 +5281,29 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
+          <t>Sapphire Rx 6800xt</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1499.98</v>
+        <v>1200</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F152" t="n">
-        <v>1499.98</v>
+        <v>1220</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/193758038220?hash=item2d1ce108cc:g:6xoAAOSwXkRftzEB</t>
+          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264945340088?hash=item3daff90eb8:g:SzsAAOSwxatftqKb</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sapphire Rx 6800xt</t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND**  **NIB**</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5322,20 +5322,20 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E153" t="n">
         <v>20</v>
       </c>
       <c r="F153" t="n">
-        <v>1220</v>
+        <v>1420</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264945340088?hash=item3daff90eb8:g:SzsAAOSwxatftqKb</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-NIB/324382012648?hash=item4b86acb4e8:g:BywAAOSwGMtft0~Q</t>
         </is>
       </c>
     </row>
@@ -5345,29 +5345,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND**  **NIB**</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E154" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-NIB/324382012648?hash=item4b86acb4e8:g:BywAAOSwGMtft0~Q</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303774956221?hash=item46ba65fabd:g:YkwAAOSwkC5ftvHT</t>
         </is>
       </c>
     </row>
@@ -5377,29 +5377,29 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2 </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303774956221?hash=item46ba65fabd:g:YkwAAOSwkC5ftvHT</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/233788541183?hash=item366ee208ff:g:MKsAAOSwOMxftbxn</t>
         </is>
       </c>
     </row>
@@ -5409,29 +5409,29 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>MSI Radeon RX 6800 XT SHIPPED</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>95.67</v>
       </c>
       <c r="F156" t="n">
-        <v>1400</v>
+        <v>995.67</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/233788541183?hash=item366ee208ff:g:MKsAAOSwOMxftbxn</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-SHIPPED/383819464585?hash=item595d6c3f89:g:CqgAAOSwGbFftc5I</t>
         </is>
       </c>
     </row>
@@ -5441,29 +5441,29 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT SHIPPED</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>900</v>
+        <v>1399</v>
       </c>
       <c r="E157" t="n">
-        <v>95.67</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>995.67</v>
+        <v>1399</v>
       </c>
       <c r="G157" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-SHIPPED/383819464585?hash=item595d6c3f89:g:CqgAAOSwGbFftc5I</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303773701869?hash=item46ba52d6ed:g:d3sAAOSwDnpftaqk</t>
         </is>
       </c>
     </row>
@@ -5473,29 +5473,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Confirmed Order</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1399</v>
+        <v>1200</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F158" t="n">
-        <v>1399</v>
+        <v>1225</v>
       </c>
       <c r="G158" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303773701869?hash=item46ba52d6ed:g:d3sAAOSwDnpftaqk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Confirmed-Order/164524239898?hash=item264e68ac1a:g:vzMAAOSwS6FftfWp</t>
         </is>
       </c>
     </row>
@@ -5505,29 +5505,29 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Confirmed Order</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E159" t="n">
-        <v>25</v>
+        <v>13.65</v>
       </c>
       <c r="F159" t="n">
-        <v>1225</v>
+        <v>1513.65</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Confirmed-Order/164524239898?hash=item264e68ac1a:g:vzMAAOSwS6FftfWp</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383817206744?hash=item595d49cbd8:g:9gMAAOSwi9VftTQw</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>Sapphire AMD Radeon RX 6800 XT 16 GB GDDR6- In hand ready to ship</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5546,20 +5546,20 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E160" t="n">
-        <v>13.65</v>
+        <v>32.55</v>
       </c>
       <c r="F160" t="n">
-        <v>1513.65</v>
+        <v>1232.55</v>
       </c>
       <c r="G160" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383817206744?hash=item595d49cbd8:g:9gMAAOSwi9VftTQw</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-16-GB-GDDR6-In-hand-ready-to-ship/274582645998?hash=item3fee66acee:g:CtEAAOSwXoxftdHu</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT 16 GB GDDR6- In hand ready to ship</t>
+          <t>Sapphire Rx 6800xt</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5578,20 +5578,20 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E161" t="n">
-        <v>32.55</v>
+        <v>15</v>
       </c>
       <c r="F161" t="n">
-        <v>1232.55</v>
+        <v>1115</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-16-GB-GDDR6-In-hand-ready-to-ship/274582645998?hash=item3fee66acee:g:CtEAAOSwXoxftdHu</t>
+          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264944638749?hash=item3dafee5b1d:g:SzsAAOSwxatftqKb</t>
         </is>
       </c>
     </row>
@@ -5601,29 +5601,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sapphire Rx 6800xt</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER from AMD</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1100</v>
+        <v>1349</v>
       </c>
       <c r="E162" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1115</v>
+        <v>1349</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264944638749?hash=item3dafee5b1d:g:SzsAAOSwxatftqKb</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-from-AMD/174524929007?hash=item28a27f13ef:g:iEsAAOSwjsxftWk6</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER from AMD</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5642,20 +5642,20 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1349</v>
+        <v>1250</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="F163" t="n">
-        <v>1349</v>
+        <v>1259.9</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-from-AMD/174524929007?hash=item28a27f13ef:g:iEsAAOSwjsxftWk6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/174524837880?hash=item28a27daff8:g:xLQAAOSwPzVftdhW</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5674,20 +5674,20 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1250</v>
+        <v>1425</v>
       </c>
       <c r="E164" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1259.9</v>
+        <v>1425</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/174524837880?hash=item28a27daff8:g:xLQAAOSwPzVftdhW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527334036?hash=item1aaa5c6e94:g:gXsAAOSwjkhftZJm</t>
         </is>
       </c>
     </row>
@@ -5697,29 +5697,29 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+          <t>AMD RX 6800 XT 16GB Graphics Card - NEW IN HAND</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>New (Other)</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1425</v>
+        <v>1499.99</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1425</v>
+        <v>1499.99</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527334036?hash=item1aaa5c6e94:g:gXsAAOSwjkhftZJm</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-16GB-Graphics-Card-NEW-IN-HAND/324379346629?hash=item4b868406c5:g:EC0AAOSwGqFftV6s</t>
         </is>
       </c>
     </row>
@@ -5729,29 +5729,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT 16GB Graphics Card - NEW IN HAND</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>New (Other)</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1499.99</v>
+        <v>1425</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1499.99</v>
+        <v>1425</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-16GB-Graphics-Card-NEW-IN-HAND/324379346629?hash=item4b868406c5:g:EC0AAOSwGqFftV6s</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527193328?hash=item1aaa5a48f0:g:gXsAAOSwjkhftZJm</t>
         </is>
       </c>
     </row>
@@ -5761,29 +5761,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 CONFIRMED - 2Day Ship</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>SHIPS OUT SAME DAY RECIEVED WITH 2 DAY AIR</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1425</v>
+        <v>1229.99</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>49.99</v>
       </c>
       <c r="F167" t="n">
-        <v>1425</v>
+        <v>1279.98</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527193328?hash=item1aaa5a48f0:g:gXsAAOSwjkhftZJm</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED-2Day-Ship/264943675824?hash=item3dafdfa9b0:g:wNcAAOSwU7lftZxJ</t>
         </is>
       </c>
     </row>
@@ -5793,29 +5793,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 CONFIRMED - 2Day Ship</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SHIPS OUT SAME DAY RECIEVED WITH 2 DAY AIR</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1229.99</v>
+        <v>1429.99</v>
       </c>
       <c r="E168" t="n">
-        <v>49.99</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>1279.98</v>
+        <v>1429.99</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED-2Day-Ship/264943675824?hash=item3dafdfa9b0:g:wNcAAOSwU7lftZxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348705650?hash=item56ed512572:g:1BMAAOSwne1ftTad</t>
         </is>
       </c>
     </row>
@@ -5825,29 +5825,29 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1429.99</v>
+        <v>1300</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>23.15</v>
       </c>
       <c r="F169" t="n">
-        <v>1429.99</v>
+        <v>1323.15</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348705650?hash=item56ed512572:g:1BMAAOSwne1ftTad</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313306368113?hash=item48f283c871:g:~c4AAOSw3L1ftS8h</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, CONFIRMED</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5866,20 +5866,20 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E170" t="n">
-        <v>23.15</v>
+        <v>16.9</v>
       </c>
       <c r="F170" t="n">
-        <v>1323.15</v>
+        <v>1516.9</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313306368113?hash=item48f283c871:g:~c4AAOSw3L1ftS8h</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED/254782094792?hash=item3b52323dc8:g:OXUAAOSwGgdftTZl</t>
         </is>
       </c>
     </row>
@@ -5889,29 +5889,29 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, CONFIRMED</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1500</v>
+        <v>888.88</v>
       </c>
       <c r="E171" t="n">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1516.9</v>
+        <v>888.88</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED/254782094792?hash=item3b52323dc8:g:OXUAAOSwGgdftTZl</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541881799?hash=item2af78da5c7:g:LAMAAOSwn9JftVJc</t>
         </is>
       </c>
     </row>
@@ -5921,29 +5921,29 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>888.88</v>
+        <v>1655</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>888.88</v>
+        <v>1655</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541881799?hash=item2af78da5c7:g:LAMAAOSwn9JftVJc</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/264943388668?hash=item3dafdb47fc:g:dl0AAOSwxKBftV7i</t>
         </is>
       </c>
     </row>
@@ -5953,29 +5953,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD - IMMEDIATE SHIPPING</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1655</v>
+        <v>1450</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1655</v>
+        <v>1450</v>
       </c>
       <c r="G173" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/264943388668?hash=item3dafdb47fc:g:dl0AAOSwxKBftV7i</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD-IMMEDIATE-SHIPPING/174524212329?hash=item28a2742469:g:~6MAAOSw2lNftUoJ</t>
         </is>
       </c>
     </row>
@@ -5985,29 +5985,29 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD - IMMEDIATE SHIPPING</t>
+          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1450</v>
+        <v>1399.99</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1450</v>
+        <v>1399.99</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD-IMMEDIATE-SHIPPING/174524212329?hash=item28a2742469:g:~6MAAOSw2lNftUoJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/174524170850?hash=item28a2738262:g:w5MAAOSwglZftUPh</t>
         </is>
       </c>
     </row>
@@ -6017,29 +6017,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1399.99</v>
+        <v>888.88</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1399.99</v>
+        <v>888.88</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/174524170850?hash=item28a2738262:g:w5MAAOSwglZftUPh</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541829551?hash=item2af78cd9af:g:LAMAAOSwn9JftVJc</t>
         </is>
       </c>
     </row>
@@ -6049,29 +6049,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>888.88</v>
+        <v>1400</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F176" t="n">
-        <v>888.88</v>
+        <v>1410.9</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541829551?hash=item2af78cd9af:g:LAMAAOSwn9JftVJc</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/133580531891?hash=item1f1a0528b3:g:IL8AAOSwx8NftUjk</t>
         </is>
       </c>
     </row>
@@ -6081,29 +6081,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card Will Ship ASAP</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1400</v>
+        <v>1399.99</v>
       </c>
       <c r="E177" t="n">
-        <v>10.9</v>
+        <v>15</v>
       </c>
       <c r="F177" t="n">
-        <v>1410.9</v>
+        <v>1414.99</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/133580531891?hash=item1f1a0528b3:g:IL8AAOSwx8NftUjk</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-Will-Ship-ASAP/333793950851?hash=item4db7ab7c83:g:IUUAAOSwzJFftVBi</t>
         </is>
       </c>
     </row>
@@ -6113,29 +6113,29 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card Will Ship ASAP</t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 - Confirmed Order</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1399.99</v>
+        <v>1299</v>
       </c>
       <c r="E178" t="n">
-        <v>15</v>
+        <v>48.8</v>
       </c>
       <c r="F178" t="n">
-        <v>1414.99</v>
+        <v>1347.8</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-Will-Ship-ASAP/333793950851?hash=item4db7ab7c83:g:IUUAAOSwzJFftVBi</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-Confirmed-Order/233786704311?hash=item366ec601b7:g:PvwAAOSweENftULQ</t>
         </is>
       </c>
     </row>
@@ -6145,29 +6145,29 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 - Confirmed Order</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1299</v>
+        <v>1200</v>
       </c>
       <c r="E179" t="n">
-        <v>48.8</v>
+        <v>10.9</v>
       </c>
       <c r="F179" t="n">
-        <v>1347.8</v>
+        <v>1210.9</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-Confirmed-Order/233786704311?hash=item366ec601b7:g:PvwAAOSweENftULQ</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/174524175719?hash=item28a2739567:g:ZykAAOSwzZZftULd</t>
         </is>
       </c>
     </row>
@@ -6177,29 +6177,29 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E180" t="n">
         <v>10.9</v>
       </c>
       <c r="F180" t="n">
-        <v>1210.9</v>
+        <v>1310.9</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/174524175719?hash=item28a2739567:g:ZykAAOSwzZZftULd</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/402564277495?hash=item5dbab364f7:g:3TsAAOSwMdpftUFd</t>
         </is>
       </c>
     </row>
@@ -6209,29 +6209,29 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Confirmed Order from Amazon *ETA to me 11/19*</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E181" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1310.9</v>
+        <v>1600</v>
       </c>
       <c r="G181" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/402564277495?hash=item5dbab364f7:g:3TsAAOSwMdpftUFd</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254782140626?hash=item3b5232f0d2:g:LV0AAOSwgRhftUEu</t>
         </is>
       </c>
     </row>
@@ -6241,29 +6241,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card - CONFIRMED</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Confirmed Order from Amazon *ETA to me 11/19*</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F182" t="n">
-        <v>1600</v>
+        <v>1420</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254782140626?hash=item3b5232f0d2:g:LV0AAOSwgRhftUEu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-CONFIRMED/124445597497?hash=item1cf9891f39:g:8KkAAOSwjMFftTk-</t>
         </is>
       </c>
     </row>
@@ -6273,29 +6273,29 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card - CONFIRMED</t>
+          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1400</v>
+        <v>1499</v>
       </c>
       <c r="E183" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1420</v>
+        <v>1499</v>
       </c>
       <c r="G183" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-CONFIRMED/124445597497?hash=item1cf9891f39:g:8KkAAOSwjMFftTk-</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/264943203177?hash=item3dafd87369:g:PfMAAOSw-yNftTmO</t>
         </is>
       </c>
     </row>
@@ -6305,29 +6305,29 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1499</v>
+        <v>1300</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F184" t="n">
-        <v>1499</v>
+        <v>1314.4</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/264943203177?hash=item3dafd87369:g:PfMAAOSw-yNftTmO</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755999053?hash=item2d1cc1eb4d:g:VLcAAOSwgY1ftThV</t>
         </is>
       </c>
     </row>
@@ -6337,29 +6337,29 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD SAPPHIRE Radeon RX 6800 XT DirectX 12 21304-01-20G 16GB GDDR6 </t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E185" t="n">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="F185" t="n">
-        <v>1314.4</v>
+        <v>1520</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755999053?hash=item2d1cc1eb4d:g:VLcAAOSwgY1ftThV</t>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-XT-DirectX-12-21304-01-20G-16GB-GDDR6/114526631595?hash=item1aaa51b6ab:g:ZZIAAOSwMFhftTcL</t>
         </is>
       </c>
     </row>
@@ -6369,29 +6369,29 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD SAPPHIRE Radeon RX 6800 XT DirectX 12 21304-01-20G 16GB GDDR6 </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D186" t="n">
         <v>1500</v>
       </c>
       <c r="E186" t="n">
-        <v>20</v>
+        <v>14.4</v>
       </c>
       <c r="F186" t="n">
-        <v>1520</v>
+        <v>1514.4</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-XT-DirectX-12-21304-01-20G-16GB-GDDR6/114526631595?hash=item1aaa51b6ab:g:ZZIAAOSwMFhftTcL</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755981033?hash=item2d1cc1a4e9:g:VLcAAOSwgY1ftThV</t>
         </is>
       </c>
     </row>
@@ -6401,29 +6401,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1500</v>
+        <v>1499.99</v>
       </c>
       <c r="E187" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1514.4</v>
+        <v>1499.99</v>
       </c>
       <c r="G187" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755981033?hash=item2d1cc1a4e9:g:VLcAAOSwgY1ftThV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348646190?hash=item56ed503d2e:g:1BMAAOSwne1ftTad</t>
         </is>
       </c>
     </row>
@@ -6433,29 +6433,29 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t>SAPPHIRE AMD radeon Rx 6800 XT  Gaming Graphics Card 16GB GDDR6 RDNA2</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1499.99</v>
+        <v>1250</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>13.65</v>
       </c>
       <c r="F188" t="n">
-        <v>1499.99</v>
+        <v>1263.65</v>
       </c>
       <c r="G188" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348646190?hash=item56ed503d2e:g:1BMAAOSwne1ftTad</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-radeon-Rx-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-RDNA2/324379110769?hash=item4b86806d71:g:adEAAOSwhlBftTS6</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD radeon Rx 6800 XT  Gaming Graphics Card 16GB GDDR6 RDNA2</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6474,20 +6474,20 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1250</v>
+        <v>1899</v>
       </c>
       <c r="E189" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1263.65</v>
+        <v>1899</v>
       </c>
       <c r="G189" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-radeon-Rx-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-RDNA2/324379110769?hash=item4b86806d71:g:adEAAOSwhlBftTS6</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/393021910784?hash=item5b81ee6f00:g:0poAAOSwGqFftS7R</t>
         </is>
       </c>
     </row>
@@ -6497,29 +6497,29 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1899</v>
+        <v>1399.99</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1899</v>
+        <v>1399.99</v>
       </c>
       <c r="G190" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/393021910784?hash=item5b81ee6f00:g:0poAAOSwGqFftS7R</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/363185099274?hash=item548f84d20a:g:uT8AAOSwIqlftTB8</t>
         </is>
       </c>
     </row>
@@ -6529,61 +6529,61 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1399.99</v>
+        <v>1200</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>23.15</v>
       </c>
       <c r="F191" t="n">
-        <v>1399.99</v>
+        <v>1223.15</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/363185099274?hash=item548f84d20a:g:uT8AAOSwIqlftTB8</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313305923882?hash=item48f27d012a:g:~c4AAOSw3L1ftS8h</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>190</v>
+        <v>394</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Graphics card</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E192" t="n">
-        <v>23.15</v>
+        <v>10.9</v>
       </c>
       <c r="F192" t="n">
-        <v>1223.15</v>
+        <v>1209.9</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>44153</v>
+        <v>44166</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313305923882?hash=item48f27d012a:g:~c4AAOSw3L1ftS8h</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224259416463?hash=item3436e7218f:g:oeYAAOSwSpNfxi9M</t>
         </is>
       </c>
     </row>

--- a/Spreadsheets/RX 6800 XT.xlsx
+++ b/Spreadsheets/RX 6800 XT.xlsx
@@ -929,29 +929,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reference AMD Radeon RX 6800 XT 16GB GDDR6 Sealed, In Hand - Ships Within 24h</t>
+          <t>AMD Radeon RX 6800 XT Graphics card</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1258.88</v>
+        <v>1199</v>
       </c>
       <c r="E16" t="n">
-        <v>18.95</v>
+        <v>10.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1277.83</v>
+        <v>1209.9</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Reference-AMD-Radeon-RX-6800-XT-16GB-GDDR6-Sealed-In-Hand-Ships-Within-24h/154220925877?hash=item23e84893b5:g:cIgAAOSwvrRfxWdx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224259416463?hash=item3436e7218f:g:oeYAAOSwSpNfxi9M</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AMD RX 6800XT 16GB SEALED NEW</t>
+          <t>Reference AMD Radeon RX 6800 XT 16GB GDDR6 Sealed, In Hand - Ships Within 24h</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -970,20 +970,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1100</v>
+        <v>1258.88</v>
       </c>
       <c r="E17" t="n">
-        <v>10.9</v>
+        <v>18.95</v>
       </c>
       <c r="F17" t="n">
-        <v>1110.9</v>
+        <v>1277.83</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800XT-16GB-SEALED-NEW/143861640050?hash=item217ed26b72:g:iKkAAOSwxAFfvXNH</t>
+          <t>https://www.ebay.com/itm/Reference-AMD-Radeon-RX-6800-XT-16GB-GDDR6-Sealed-In-Hand-Ships-Within-24h/154220925877?hash=item23e84893b5:g:cIgAAOSwvrRfxWdx</t>
         </is>
       </c>
     </row>
@@ -993,29 +993,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>⚡Sapphire PULSE AMD Radeon RX 6800 XT Gaming Graphics Card IN HAND SHIPS FAST⚡</t>
+          <t>AMD RX 6800XT 16GB SEALED NEW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IN HAND, NOT PREORDER, READY TO SHIP</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1379.99</v>
+        <v>1100</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F18" t="n">
-        <v>1379.99</v>
+        <v>1110.9</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-PULSE-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-IN-HAND-SHIPS-FAST/284097361793?hash=item422585b781:g:1M0AAOSwB8xfwYTX</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800XT-16GB-SEALED-NEW/143861640050?hash=item217ed26b72:g:iKkAAOSwxAFfvXNH</t>
         </is>
       </c>
     </row>
@@ -1025,29 +1025,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>✅ Sapphire AMD Radeon RX 6800 XT Graphics Card ✅IN HAND🔥Fast Shipping!🔥SEALED</t>
+          <t>⚡Sapphire PULSE AMD Radeon RX 6800 XT Gaming Graphics Card IN HAND SHIPS FAST⚡</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>IN HAND, NOT PREORDER, READY TO SHIP</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1247.88</v>
+        <v>1379.99</v>
       </c>
       <c r="E19" t="n">
-        <v>28.88</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1276.76</v>
+        <v>1379.99</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-Fast-Shipping-SEALED/293868150338?hash=item446be81e42:g:QaAAAOSw8XRfxWGo</t>
+          <t>https://www.ebay.com/itm/Sapphire-PULSE-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-IN-HAND-SHIPS-FAST/284097361793?hash=item422585b781:g:1M0AAOSwB8xfwYTX</t>
         </is>
       </c>
     </row>
@@ -1057,29 +1057,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G. Brand New</t>
+          <t>✅ Sapphire AMD Radeon RX 6800 XT Graphics Card ✅IN HAND🔥Fast Shipping!🔥SEALED</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1425</v>
+        <v>1247.88</v>
       </c>
       <c r="E20" t="n">
-        <v>28.95</v>
+        <v>28.88</v>
       </c>
       <c r="F20" t="n">
-        <v>1453.95</v>
+        <v>1276.76</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-Brand-New/174535238915?hash=item28a31c6503:g:a4MAAOSwuklfv~7L</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-Fast-Shipping-SEALED/293868150338?hash=item446be81e42:g:QaAAAOSw8XRfxWGo</t>
         </is>
       </c>
     </row>
@@ -1089,29 +1089,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
+          <t>MSI Radeon RX 6800 XT 16G. Brand New</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1195</v>
+        <v>1425</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8</v>
+        <v>28.95</v>
       </c>
       <c r="F21" t="n">
-        <v>1207.8</v>
+        <v>1453.95</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203200991282?hash=item2f4fb91032:g:yhoAAOSwdtxfwCbq</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-Brand-New/174535238915?hash=item28a31c6503:g:a4MAAOSwuklfv~7L</t>
         </is>
       </c>
     </row>
@@ -1121,29 +1121,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 XT Graphics Card ✅ Ships Same-Day ✅</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1299</v>
+        <v>1195</v>
       </c>
       <c r="E22" t="n">
-        <v>12.26</v>
+        <v>12.8</v>
       </c>
       <c r="F22" t="n">
-        <v>1311.26</v>
+        <v>1207.8</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Graphics-Card-Ships-Same-Day/124466086237?hash=item1cfac1c15d:g:zIMAAOSwNDNfxZCW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203200991282?hash=item2f4fb91032:g:yhoAAOSwdtxfwCbq</t>
         </is>
       </c>
     </row>
@@ -1153,29 +1153,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
+          <t>SAPPHIRE Radeon RX 6800 XT Graphics Card ✅ Ships Same-Day ✅</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1125</v>
+        <v>1299</v>
       </c>
       <c r="E23" t="n">
-        <v>26.27</v>
+        <v>12.26</v>
       </c>
       <c r="F23" t="n">
-        <v>1151.27</v>
+        <v>1311.26</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788451977?hash=item3b52933e89:g:j44AAOSwwoRfvTql</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Graphics-Card-Ships-Same-Day/124466086237?hash=item1cfac1c15d:g:zIMAAOSwNDNfxZCW</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NEW ASRock Radeon RX 6800 XT Graphics Card 16GB GDDR6 SHIPPED NEWEGG ORDER</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1197,17 +1197,17 @@
         <v>1125</v>
       </c>
       <c r="E24" t="n">
-        <v>10.9</v>
+        <v>26.27</v>
       </c>
       <c r="F24" t="n">
-        <v>1135.9</v>
+        <v>1151.27</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-ASRock-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-SHIPPED-NEWEGG-ORDER/363193529483?hash=item549005748b:g:3b0AAOSwz7JfvSS1</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788451977?hash=item3b52933e89:g:j44AAOSwwoRfvTql</t>
         </is>
       </c>
     </row>
@@ -1217,29 +1217,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics card</t>
+          <t>NEW ASRock Radeon RX 6800 XT Graphics Card 16GB GDDR6 SHIPPED NEWEGG ORDER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1100</v>
+        <v>1125</v>
       </c>
       <c r="E25" t="n">
         <v>10.9</v>
       </c>
       <c r="F25" t="n">
-        <v>1110.9</v>
+        <v>1135.9</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224247584997?hash=item34363298e5:g:pGwAAOSwutVfut4M</t>
+          <t>https://www.ebay.com/itm/NEW-ASRock-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-SHIPPED-NEWEGG-ORDER/363193529483?hash=item549005748b:g:3b0AAOSwz7JfvSS1</t>
         </is>
       </c>
     </row>
@@ -1249,29 +1249,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 XT</t>
+          <t>AMD Radeon RX 6800 XT Graphics card</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="E26" t="n">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="F26" t="n">
-        <v>1384.9</v>
+        <v>1110.9</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT/353290445696?hash=item5241c06380:g:bdoAAOSw-tBfvFoJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224247584997?hash=item34363298e5:g:pGwAAOSwutVfut4M</t>
         </is>
       </c>
     </row>
@@ -1281,29 +1281,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIG NAVI ASUS Radeon RX 6800XT 16GB 256-Bit GDDR6 PCI Express 4.0 Video Card</t>
+          <t>AMD RADEON RX 6800 XT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Brand New · ASUS · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>9.9</v>
       </c>
       <c r="F27" t="n">
-        <v>1235</v>
+        <v>1384.9</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BIG-NAVI-ASUS-Radeon-RX-6800XT-16GB-256-Bit-GDDR6-PCI-Express-4-0-Video-Card/184550015030?hash=item2af809c036:g:1C8AAOSwmGNfvFGK</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT/353290445696?hash=item5241c06380:g:bdoAAOSw-tBfvFoJ</t>
         </is>
       </c>
     </row>
@@ -1313,29 +1313,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G DirectX 12 GPU - SEALED - IN HAND - Ready To Ship</t>
+          <t>BIG NAVI ASUS Radeon RX 6800XT 16GB 256-Bit GDDR6 PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1175</v>
+        <v>1200</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>1195</v>
+        <v>1235</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-DirectX-12-GPU-SEALED-IN-HAND-Ready-To-Ship/203194053285?hash=item2f4f4f32a5:g:Sw4AAOSwTnpfvFMu</t>
+          <t>https://www.ebay.com/itm/BIG-NAVI-ASUS-Radeon-RX-6800XT-16GB-256-Bit-GDDR6-PCI-Express-4-0-Video-Card/184550015030?hash=item2af809c036:g:1C8AAOSwmGNfvFGK</t>
         </is>
       </c>
     </row>
@@ -1345,29 +1345,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AMD Reference Radeon RX 6800 XT 16GB GDDR6 Graphics Card - In Hand - Ships Fast!</t>
+          <t>MSI Radeon RX 6800 XT 16G DirectX 12 GPU - SEALED - IN HAND - Ready To Ship</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1240</v>
+        <v>1175</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>1250</v>
+        <v>1195</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-In-Hand-Ships-Fast/293867082312?hash=item446bd7d248:g:niIAAOSwHpZfxYci</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-DirectX-12-GPU-SEALED-IN-HAND-Ready-To-Ship/203194053285?hash=item2f4f4f32a5:g:Sw4AAOSwTnpfvFMu</t>
         </is>
       </c>
     </row>
@@ -1377,29 +1377,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IN HAND Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA</t>
+          <t>AMD Reference Radeon RX 6800 XT 16GB GDDR6 Graphics Card - In Hand - Ships Fast!</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1239.99</v>
+        <v>1240</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>1239.99</v>
+        <v>1250</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA/114544918409?hash=item1aab68bf89:g:XDsAAOSwbs5fvsG6</t>
+          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-In-Hand-Ships-Fast/293867082312?hash=item446bd7d248:g:niIAAOSwHpZfxYci</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 IN HAND</t>
+          <t>IN HAND Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1418,20 +1418,20 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1275</v>
+        <v>1239.99</v>
       </c>
       <c r="E31" t="n">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1285.95</v>
+        <v>1239.99</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-IN-HAND/154209274987?hash=item23e796cc6b:g:cOwAAOSweNBfu9S4</t>
+          <t>https://www.ebay.com/itm/IN-HAND-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA/114544918409?hash=item1aab68bf89:g:XDsAAOSwbs5fvsG6</t>
         </is>
       </c>
     </row>
@@ -1441,29 +1441,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 IN HAND</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1300</v>
+        <v>1275</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="F32" t="n">
-        <v>1300</v>
+        <v>1285.95</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/402582098694?hash=item5dbbc35306:g:dJMAAOSwYFpfwnU4</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-IN-HAND/154209274987?hash=item23e796cc6b:g:cOwAAOSweNBfu9S4</t>
         </is>
       </c>
     </row>
@@ -1482,20 +1482,20 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1225</v>
+        <v>1300</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/284099087926?hash=item4225a00e36:g:rFYAAOSwl3xfxTlk</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/402582098694?hash=item5dbbc35306:g:dJMAAOSwYFpfwnU4</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1249.99</v>
+        <v>1225</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F34" t="n">
-        <v>1249.99</v>
+        <v>1250</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/303776474432?hash=item46ba7d2540:g:WroAAOSwntBfwbmY</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/284099087926?hash=item4225a00e36:g:rFYAAOSwl3xfxTlk</t>
         </is>
       </c>
     </row>
@@ -1537,29 +1537,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1250</v>
+        <v>1249.99</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1280</v>
+        <v>1249.99</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND/303787665689?hash=item46bb27e919:g:R8EAAOSw4z5fwq~4</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/303776474432?hash=item46ba7d2540:g:WroAAOSwntBfwbmY</t>
         </is>
       </c>
     </row>
@@ -1569,29 +1569,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1199</v>
+        <v>1250</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>1199</v>
+        <v>1280</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324398103168?epid=20042698447&amp;hash=item4b87a23a80:g:UxkAAOSwxmJfxRhE</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND/303787665689?hash=item46bb27e919:g:R8EAAOSw4z5fwq~4</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1610,20 +1610,20 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1399.99</v>
+        <v>1199</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1399.99</v>
+        <v>1199</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393035271715?hash=item5b82ba4e23:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324398103168?epid=20042698447&amp;hash=item4b87a23a80:g:UxkAAOSwxmJfxRhE</t>
         </is>
       </c>
     </row>
@@ -1633,29 +1633,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1250</v>
+        <v>1399.99</v>
       </c>
       <c r="E38" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1261.3</v>
+        <v>1399.99</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/143867544354?hash=item217f2c8322:g:U8kAAOSwcW9fvfIz</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393035271715?hash=item5b82ba4e23:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -1665,29 +1665,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT 16GB GDDR6 Graphics Card - Ships Now - Priority Ship!</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="F39" t="n">
-        <v>1239</v>
+        <v>1261.3</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-Ships-Now-Priority-Ship/284098384330?hash=item42259551ca:g:AIwAAOSwfDRfxFSx</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/143867544354?hash=item217f2c8322:g:U8kAAOSwcW9fvfIz</t>
         </is>
       </c>
     </row>
@@ -1697,29 +1697,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Powercolor 16GB GDDR6 VRAM </t>
+          <t>ASRock Radeon RX 6800 XT 16GB GDDR6 Graphics Card - Ships Now - Priority Ship!</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1325</v>
+        <v>1239</v>
       </c>
       <c r="E40" t="n">
-        <v>13.95</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1338.95</v>
+        <v>1239</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Powercolor-16GB-GDDR6-VRAM/143859666459?hash=item217eb44e1b:g:KVEAAOSw2V5fu9hD</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-Ships-Now-Priority-Ship/284098384330?hash=item42259551ca:g:AIwAAOSwfDRfxFSx</t>
         </is>
       </c>
     </row>
@@ -1729,29 +1729,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Powercolor 16GB GDDR6 VRAM </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1299</v>
+        <v>1325</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>13.95</v>
       </c>
       <c r="F41" t="n">
-        <v>1299</v>
+        <v>1338.95</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/143866812794?hash=item217f21597a:g:7VQAAOSwfGhfxACU</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Powercolor-16GB-GDDR6-VRAM/143859666459?hash=item217eb44e1b:g:KVEAAOSw2V5fu9hD</t>
         </is>
       </c>
     </row>
@@ -1761,29 +1761,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT RDNA 2</t>
+          <t>XFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Amazon Confirmed order ETA to me Thursday 12/3.</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-RDNA-2/254789556123?hash=item3b52a4179b:g:D6wAAOSwZDdfvpu6</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/143866812794?hash=item217f21597a:g:7VQAAOSwfGhfxACU</t>
         </is>
       </c>
     </row>
@@ -1793,29 +1793,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT RDNA 2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Amazon Confirmed order ETA to me Thursday 12/3.</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1289.99</v>
+        <v>1298</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1289.99</v>
+        <v>1298</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/164547121698?hash=item264fc5d222:g:uH8AAOSwTPRfxAmV</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-RDNA-2/254789556123?hash=item3b52a4179b:g:D6wAAOSwZDdfvpu6</t>
         </is>
       </c>
     </row>
@@ -1825,29 +1825,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1298.99</v>
+        <v>1289.99</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1298.99</v>
+        <v>1289.99</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/264957547756?hash=item3db0b354ec:g:wLYAAOSwzDxfxBUM</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/164547121698?hash=item264fc5d222:g:uH8AAOSwTPRfxAmV</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>🔥 XFX Speedster MERC319 Radeon RX 6800XT IN HAND FAST SHIPPING NOW</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1866,20 +1866,20 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1299</v>
+        <v>1298.99</v>
       </c>
       <c r="E45" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1366</v>
+        <v>1298.99</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-FAST-SHIPPING-NOW/184557042657?hash=item2af874fbe1:g:UQMAAOSwnGlfwgvZ</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/264957547756?hash=item3db0b354ec:g:wLYAAOSwzDxfxBUM</t>
         </is>
       </c>
     </row>
@@ -1889,29 +1889,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800xt Graphics Card -- In Hand, ships fast</t>
+          <t>🔥 XFX Speedster MERC319 Radeon RX 6800XT IN HAND FAST SHIPPING NOW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1250</v>
+        <v>1299</v>
       </c>
       <c r="E46" t="n">
-        <v>10.9</v>
+        <v>67</v>
       </c>
       <c r="F46" t="n">
-        <v>1260.9</v>
+        <v>1366</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800xt-Graphics-Card-In-Hand-ships-fast/124464197117?hash=item1cfaa4edfd:g:HzMAAOSwj-JfxD8e</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-FAST-SHIPPING-NOW/184557042657?hash=item2af874fbe1:g:UQMAAOSwnGlfwgvZ</t>
         </is>
       </c>
     </row>
@@ -1921,29 +1921,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 RX-68TMATFD8 **IN HAND**</t>
+          <t>ASRock AMD Radeon RX 6800xt Graphics Card -- In Hand, ships fast</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1220</v>
+        <v>1250</v>
       </c>
       <c r="E47" t="n">
-        <v>26.7</v>
+        <v>10.9</v>
       </c>
       <c r="F47" t="n">
-        <v>1246.7</v>
+        <v>1260.9</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-RX-68TMATFD8-IN-HAND/254791702686?hash=item3b52c4d89e:g:z~cAAOSwd7RfwttI</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800xt-Graphics-Card-In-Hand-ships-fast/124464197117?hash=item1cfaa4edfd:g:HzMAAOSwj-JfxD8e</t>
         </is>
       </c>
     </row>
@@ -1953,29 +1953,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card. New In Box, Sealed And Ready To Ship 6800XT</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 RX-68TMATFD8 **IN HAND**</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1198.43</v>
+        <v>1220</v>
       </c>
       <c r="E48" t="n">
-        <v>39.84</v>
+        <v>26.7</v>
       </c>
       <c r="F48" t="n">
-        <v>1238.27</v>
+        <v>1246.7</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-New-In-Box-Sealed-And-Ready-To-Ship-6800XT/114535368860?hash=item1aaad7089c:g:gogAAOSwHrtfus8j</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-RX-68TMATFD8-IN-HAND/254791702686?hash=item3b52c4d89e:g:z~cAAOSwd7RfwttI</t>
         </is>
       </c>
     </row>
@@ -1985,29 +1985,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card. New In Box, Sealed And Ready To Ship 6800XT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1326</v>
+        <v>1198.43</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>39.84</v>
       </c>
       <c r="F49" t="n">
-        <v>1326</v>
+        <v>1238.27</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/114542864508?hash=item1aab49687c:g:kQAAAOSwJKJfuYPw</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-New-In-Box-Sealed-And-Ready-To-Ship-6800XT/114535368860?hash=item1aaad7089c:g:gogAAOSwHrtfus8j</t>
         </is>
       </c>
     </row>
@@ -2017,29 +2017,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1200</v>
+        <v>1326</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>1326</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324394051445?hash=item4b87646775:g:GCcAAOSwzl9fwpRB</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/114542864508?hash=item1aab49687c:g:kQAAAOSwJKJfuYPw</t>
         </is>
       </c>
     </row>
@@ -2049,29 +2049,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16 GB GDDR6 PCIe 4.0 Graphics Video Card - In Hand</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1249.99</v>
+        <v>1200</v>
       </c>
       <c r="E51" t="n">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1269.98</v>
+        <v>1200</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16-GB-GDDR6-PCIe-4-0-Graphics-Video-Card-In-Hand/164545276209?hash=item264fa9a931:g:Q9YAAOSwwoRfwrOE</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324394051445?hash=item4b87646775:g:GCcAAOSwzl9fwpRB</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU FREE SHIPPING IN HAND</t>
+          <t>AMD Radeon RX 6800 XT 16 GB GDDR6 PCIe 4.0 Graphics Video Card - In Hand</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2093,17 +2093,17 @@
         <v>1249.99</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="F52" t="n">
-        <v>1249.99</v>
+        <v>1269.98</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-FREE-SHIPPING-IN-HAND/154206794371?hash=item23e770f283:g:rrMAAOSwIWtfucOk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16-GB-GDDR6-PCIe-4-0-Graphics-Video-Card-In-Hand/164545276209?hash=item264fa9a931:g:Q9YAAOSwwoRfwrOE</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU FREE SHIPPING IN HAND</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2122,20 +2122,20 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1050</v>
+        <v>1249.99</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1050</v>
+        <v>1249.99</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324395427149?hash=item4b8779654d:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-FREE-SHIPPING-IN-HAND/154206794371?hash=item23e770f283:g:rrMAAOSwIWtfucOk</t>
         </is>
       </c>
     </row>
@@ -2145,29 +2145,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1250</v>
+        <v>1050</v>
       </c>
       <c r="E54" t="n">
-        <v>12.04</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1262.04</v>
+        <v>1050</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303782496130?hash=item46bad90782:g:pigAAOSwZYFftwlG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324395427149?hash=item4b8779654d:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -2177,29 +2177,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Sealed NIB, Fast Ship</t>
+          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1299</v>
+        <v>1250</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="F55" t="n">
-        <v>1299</v>
+        <v>1262.04</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Sealed-NIB-Fast-Ship/114545229365?hash=item1aab6d7e35:g:tr0AAOSw9Q9fuUYk</t>
+          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303782496130?hash=item46bad90782:g:pigAAOSwZYFftwlG</t>
         </is>
       </c>
     </row>
@@ -2209,29 +2209,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Sealed NIB, Fast Ship</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1275</v>
+        <v>1299</v>
       </c>
       <c r="E56" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB/114543415990?hash=item1aab51d2b6:g:IxcAAOSwYV5fwFbA</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Sealed-NIB-Fast-Ship/114545229365?hash=item1aab6d7e35:g:tr0AAOSw9Q9fuUYk</t>
         </is>
       </c>
     </row>
@@ -2241,19 +2241,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>asrock amd radeon rx 6800xt graphics card in hand ships asap</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1300</v>
+        <v>1275</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F57" t="n">
         <v>1300</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/asrock-amd-radeon-rx-6800xt-graphics-card-in-hand-ships-asap/284096325283?hash=item422575e6a3:g:Wx4AAOSwPktfwaMP</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB/114543415990?hash=item1aab51d2b6:g:IxcAAOSwYV5fwFbA</t>
         </is>
       </c>
     </row>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>asus amd radeon rx 6800xt graphics card</t>
+          <t>asrock amd radeon rx 6800xt graphics card in hand ships asap</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brand New · ASUS · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/asus-amd-radeon-rx-6800xt-graphics-card/284096324723?hash=item422575e473:g:3S4AAOSwv7xfwaJT</t>
+          <t>https://www.ebay.com/itm/asrock-amd-radeon-rx-6800xt-graphics-card-in-hand-ships-asap/284096325283?hash=item422575e6a3:g:Wx4AAOSwPktfwaMP</t>
         </is>
       </c>
     </row>
@@ -2305,29 +2305,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT 🔥IN HAND SAME DAY FREE 2 DAY AIR SHIP🔥</t>
+          <t>asus amd radeon rx 6800xt graphics card</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1299.99</v>
+        <v>1300</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1299.99</v>
+        <v>1300</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-SAME-DAY-FREE-2-DAY-AIR-SHIP/254791879805?hash=item3b52c78c7d:g:XOUAAOSwUu5fwZrW</t>
+          <t>https://www.ebay.com/itm/asus-amd-radeon-rx-6800xt-graphics-card/284096324723?hash=item422575e473:g:3S4AAOSwv7xfwaJT</t>
         </is>
       </c>
     </row>
@@ -2337,29 +2337,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16GB</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT 🔥IN HAND SAME DAY FREE 2 DAY AIR SHIP🔥</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1200</v>
+        <v>1299.99</v>
       </c>
       <c r="E60" t="n">
-        <v>22.92</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1222.92</v>
+        <v>1299.99</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16GB/274593069418?hash=item3fef05b96a:g:kxAAAOSw8-hfwgDi</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-SAME-DAY-FREE-2-DAY-AIR-SHIP/254791879805?hash=item3b52c78c7d:g:XOUAAOSwUu5fwZrW</t>
         </is>
       </c>
     </row>
@@ -2369,29 +2369,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>MSI Radeon RX 6800 XT 16GB</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1299.99</v>
+        <v>1200</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>22.92</v>
       </c>
       <c r="F61" t="n">
-        <v>1299.99</v>
+        <v>1222.92</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393033244325?hash=item5b829b5ea5:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16GB/274593069418?hash=item3fef05b96a:g:kxAAAOSw8-hfwgDi</t>
         </is>
       </c>
     </row>
@@ -2401,29 +2401,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1300</v>
+        <v>1299.99</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1320</v>
+        <v>1299.99</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/203195578527?hash=item2f4f66789f:g:13IAAOSwq69fvcga</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393033244325?hash=item5b829b5ea5:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -2433,29 +2433,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800XT (IN HAND. Ships same business day)</t>
+          <t>AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1170</v>
+        <v>1300</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F63" t="n">
-        <v>1195</v>
+        <v>1320</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT-IN-HAND-Ships-same-business-day/313319946898?hash=item48f352fa92:g:N~0AAOSwbHpfwXA6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/203195578527?hash=item2f4f66789f:g:13IAAOSwq69fvcga</t>
         </is>
       </c>
     </row>
@@ -2465,29 +2465,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>Sapphire Radeon RX 6800XT (IN HAND. Ships same business day)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Open Box · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1250</v>
+        <v>1170</v>
       </c>
       <c r="E64" t="n">
-        <v>9.9</v>
+        <v>25</v>
       </c>
       <c r="F64" t="n">
-        <v>1259.9</v>
+        <v>1195</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/363195744716?hash=item54902741cc:g:890AAOSw2PVfv16E</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT-IN-HAND-Ships-same-business-day/313319946898?hash=item48f352fa92:g:N~0AAOSwbHpfwXA6</t>
         </is>
       </c>
     </row>
@@ -2497,29 +2497,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT16GB GDDR6, in hand ready to ship</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Open Box · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="E65" t="n">
-        <v>11.99</v>
+        <v>9.9</v>
       </c>
       <c r="F65" t="n">
-        <v>1211.99</v>
+        <v>1259.9</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-in-hand-ready-to-ship/324385993987?hash=item4b86e97503:g:YWgAAOSwHeVfu0Il</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/363195744716?hash=item54902741cc:g:890AAOSw2PVfv16E</t>
         </is>
       </c>
     </row>
@@ -2529,29 +2529,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GIGABYTE Radeon RX 6800 XT AMD Graphics Card IN HAND🖐🏽 FREE SHIPPING 🚚</t>
+          <t>Sapphire AMD Radeon RX 6800 XT16GB GDDR6, in hand ready to ship</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Brand New · GIGABYTE · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1247.99</v>
+        <v>1200</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="F66" t="n">
-        <v>1247.99</v>
+        <v>1211.99</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-XT-AMD-Graphics-Card-IN-HAND-FREE-SHIPPING/324390948490?epid=21042458995&amp;hash=item4b87350e8a:g:62EAAOSwrOlfvvFK</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-in-hand-ready-to-ship/324385993987?hash=item4b86e97503:g:YWgAAOSwHeVfu0Il</t>
         </is>
       </c>
     </row>
@@ -2561,29 +2561,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
+          <t>GIGABYTE Radeon RX 6800 XT AMD Graphics Card IN HAND🖐🏽 FREE SHIPPING 🚚</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · GIGABYTE · 16 GB</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1150</v>
+        <v>1247.99</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1150</v>
+        <v>1247.99</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164541704842?hash=item264f732a8a:g:q68AAOSw~JNfu-3N</t>
+          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-XT-AMD-Graphics-Card-IN-HAND-FREE-SHIPPING/324390948490?epid=21042458995&amp;hash=item4b87350e8a:g:62EAAOSwrOlfvvFK</t>
         </is>
       </c>
     </row>
@@ -2593,29 +2593,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT - In Hand - New/Sealed - Ships Fast</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1219</v>
+        <v>1150</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1219</v>
+        <v>1150</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-In-Hand-New-Sealed-Ships-Fast/333804983876?hash=item4db853d644:g:cwgAAOSwhSNfwWuW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164541704842?hash=item264f732a8a:g:q68AAOSw~JNfu-3N</t>
         </is>
       </c>
     </row>
@@ -2625,29 +2625,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AMD Radeon™ RX 6800 XT Graphics 16GB DDR6 ⭐️IN HAND - FAST FREE SHIPPING⭐️</t>
+          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT - In Hand - New/Sealed - Ships Fast</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Experienced seller, 100% feedback.</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1274.98</v>
+        <v>1219</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1274.98</v>
+        <v>1219</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-16GB-DDR6-IN-HAND-FAST-FREE-SHIPPING/184556252005?hash=item2af868eb65:g:pDUAAOSwMJZfwU-5</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-In-Hand-New-Sealed-Ships-Fast/333804983876?hash=item4db853d644:g:cwgAAOSwhSNfwWuW</t>
         </is>
       </c>
     </row>
@@ -2657,29 +2657,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>XFX AMD Radeon RX 6800 XT RX-68XTACBD9 16GB GDDR6 Video Card</t>
+          <t>AMD Radeon™ RX 6800 XT Graphics 16GB DDR6 ⭐️IN HAND - FAST FREE SHIPPING⭐️</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Experienced seller, 100% feedback.</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1275</v>
+        <v>1274.98</v>
       </c>
       <c r="E70" t="n">
-        <v>38.15</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1313.15</v>
+        <v>1274.98</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-XT-RX-68XTACBD9-16GB-GDDR6-Video-Card/333803943209?hash=item4db843f529:g:hRAAAOSwwz1fvm5c</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-16GB-DDR6-IN-HAND-FAST-FREE-SHIPPING/184556252005?hash=item2af868eb65:g:pDUAAOSwMJZfwU-5</t>
         </is>
       </c>
     </row>
@@ -2689,29 +2689,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT Founders Edition</t>
+          <t>XFX AMD Radeon RX 6800 XT RX-68XTACBD9 16GB GDDR6 Video Card</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1000</v>
+        <v>1275</v>
       </c>
       <c r="E71" t="n">
-        <v>13.1</v>
+        <v>38.15</v>
       </c>
       <c r="F71" t="n">
-        <v>1013.1</v>
+        <v>1313.15</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-Founders-Edition/313319990958?hash=item48f353a6ae:g:H38AAOSwNTZfwXgB</t>
+          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-XT-RX-68XTACBD9-16GB-GDDR6-Video-Card/333803943209?hash=item4db843f529:g:hRAAAOSwwz1fvm5c</t>
         </is>
       </c>
     </row>
@@ -2721,29 +2721,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
+          <t>AMD RX 6800 XT Founders Edition</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1225</v>
+        <v>1000</v>
       </c>
       <c r="E72" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F72" t="n">
-        <v>1237.8</v>
+        <v>1013.1</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203198493735?hash=item2f4f92f427:g:yhoAAOSwdtxfwCbq</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-Founders-Edition/313319990958?hash=item48f353a6ae:g:H38AAOSwNTZfwXgB</t>
         </is>
       </c>
     </row>
@@ -2753,29 +2753,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 ASRock CONFIRMED ORDER SHIPS ASAP</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1280</v>
+        <v>1225</v>
       </c>
       <c r="E73" t="n">
-        <v>33</v>
+        <v>12.8</v>
       </c>
       <c r="F73" t="n">
-        <v>1313</v>
+        <v>1237.8</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-ASRock-CONFIRMED-ORDER-SHIPS-ASAP/333802737851?hash=item4db83190bb:g:~QYAAOSwh-dfv0cR</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203198493735?hash=item2f4f92f427:g:yhoAAOSwdtxfwCbq</t>
         </is>
       </c>
     </row>
@@ -2785,29 +2785,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 ASRock CONFIRMED ORDER SHIPS ASAP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Open Box · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1350</v>
+        <v>1280</v>
       </c>
       <c r="E74" t="n">
-        <v>11.75</v>
+        <v>33</v>
       </c>
       <c r="F74" t="n">
-        <v>1361.75</v>
+        <v>1313</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/333800982143?hash=item4db816c67f:g:3PoAAOSwk8pfvWiV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-ASRock-CONFIRMED-ORDER-SHIPS-ASAP/333802737851?hash=item4db83190bb:g:~QYAAOSwh-dfv0cR</t>
         </is>
       </c>
     </row>
@@ -2817,29 +2817,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Open Box · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1158</v>
+        <v>1350</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="F75" t="n">
-        <v>1158</v>
+        <v>1361.75</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324393412518?epid=20042698447&amp;hash=item4b875aa7a6:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/333800982143?hash=item4db816c67f:g:3PoAAOSwk8pfvWiV</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2858,20 +2858,20 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1000</v>
+        <v>1158</v>
       </c>
       <c r="E76" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1015.4</v>
+        <v>1158</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295545464?hash=item52420e3478:g:qn8AAOSw0vBfwTLv</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324393412518?epid=20042698447&amp;hash=item4b875aa7a6:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295502895?hash=item52420d8e2f:g:qn8AAOSw0vBfwTLv</t>
+          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295545464?hash=item52420e3478:g:qn8AAOSw0vBfwTLv</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2922,20 +2922,20 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1170</v>
+        <v>1000</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="F78" t="n">
-        <v>1170</v>
+        <v>1015.4</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324392454094?epid=20042698447&amp;hash=item4b874c07ce:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295502895?hash=item52420d8e2f:g:qn8AAOSw0vBfwTLv</t>
         </is>
       </c>
     </row>
@@ -2945,29 +2945,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1070</v>
+        <v>1170</v>
       </c>
       <c r="E79" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1095.9</v>
+        <v>1170</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING/284091919528?hash=item422532aca8:g:1jcAAOSwVWVftwf8</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324392454094?epid=20042698447&amp;hash=item4b874c07ce:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -2977,29 +2977,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1299.99</v>
+        <v>1070</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="F80" t="n">
-        <v>1299.99</v>
+        <v>1095.9</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393031567580?hash=item5b8281c8dc:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING/284091919528?hash=item422532aca8:g:1jcAAOSwVWVftwf8</t>
         </is>
       </c>
     </row>
@@ -3009,29 +3009,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800XT Video Graphics Card GPU New Sealed</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1200</v>
+        <v>1299.99</v>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1220</v>
+        <v>1299.99</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-Video-Graphics-Card-GPU-New-Sealed/333795119473?hash=item4db7bd5171:g:qsIAAOSwDRZftqAF</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393031567580?hash=item5b8281c8dc:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -3041,29 +3041,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>AMD Radeon RX 6800XT Video Graphics Card GPU New Sealed</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1099</v>
+        <v>1200</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F82" t="n">
-        <v>1099</v>
+        <v>1220</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324391817705?epid=20042698447&amp;hash=item4b874251e9:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-Video-Graphics-Card-GPU-New-Sealed/333795119473?hash=item4db7bd5171:g:qsIAAOSwDRZftqAF</t>
         </is>
       </c>
     </row>
@@ -3073,29 +3073,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK GPU *CONFIRMED &amp; SHIPPED ORDER*</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1299.99</v>
+        <v>1099</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1299.99</v>
+        <v>1099</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-GPU-CONFIRMED-SHIPPED-ORDER/324391148332?hash=item4b87381b2c:g:jeMAAOSwuN5fvyTz</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324391817705?epid=20042698447&amp;hash=item4b874251e9:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -3105,29 +3105,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK GPU *CONFIRMED &amp; SHIPPED ORDER*</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1826.01</v>
+        <v>1299.99</v>
       </c>
       <c r="E84" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1838.26</v>
+        <v>1299.99</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124457758751?epid=18042593571&amp;hash=item1cfa42b01f:g:PBkAAOSwbQRfttAo</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-GPU-CONFIRMED-SHIPPED-ORDER/324391148332?hash=item4b87381b2c:g:jeMAAOSwuN5fvyTz</t>
         </is>
       </c>
     </row>
@@ -3137,29 +3137,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB IN HAND SHIPS FAST</t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1199</v>
+        <v>1826.01</v>
       </c>
       <c r="E85" t="n">
-        <v>9.9</v>
+        <v>12.25</v>
       </c>
       <c r="F85" t="n">
-        <v>1208.9</v>
+        <v>1838.26</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-IN-HAND-SHIPS-FAST/174534969896?hash=item28a3184a28:g:z8cAAOSwyPhfuqGx</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124457758751?epid=18042593571&amp;hash=item1cfa42b01f:g:PBkAAOSwbQRfttAo</t>
         </is>
       </c>
     </row>
@@ -3169,29 +3169,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMD MSI Radeon RX 6800 XT 16GB GDDR6 Reference Model BRAND NEW!!!</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB IN HAND SHIPS FAST</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1055.99</v>
+        <v>1199</v>
       </c>
       <c r="E86" t="n">
-        <v>60</v>
+        <v>9.9</v>
       </c>
       <c r="F86" t="n">
-        <v>1115.99</v>
+        <v>1208.9</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-XT-16GB-GDDR6-Reference-Model-BRAND-NEW/254789930283?epid=20042698447&amp;hash=item3b52a9cd2b:g:U1UAAOSw8pFfvxtB</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-IN-HAND-SHIPS-FAST/174534969896?hash=item28a3184a28:g:z8cAAOSwyPhfuqGx</t>
         </is>
       </c>
     </row>
@@ -3201,29 +3201,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
+          <t>AMD MSI Radeon RX 6800 XT 16GB GDDR6 Reference Model BRAND NEW!!!</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1350</v>
+        <v>1055.99</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F87" t="n">
-        <v>1350</v>
+        <v>1115.99</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164532349030?hash=item264ee46866:g:q68AAOSw~JNfu-3N</t>
+          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-XT-16GB-GDDR6-Reference-Model-BRAND-NEW/254789930283?epid=20042698447&amp;hash=item3b52a9cd2b:g:U1UAAOSw8pFfvxtB</t>
         </is>
       </c>
     </row>
@@ -3233,29 +3233,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800XT</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1050</v>
+        <v>1350</v>
       </c>
       <c r="E88" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1075</v>
+        <v>1350</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT/313317342296?hash=item48f32b3c58:i:313317342296</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164532349030?hash=item264ee46866:g:q68AAOSw~JNfu-3N</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RADEON SAPPHIRE RX6800XT</t>
+          <t>Sapphire Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3274,20 +3274,20 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="E89" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F89" t="n">
-        <v>1220</v>
+        <v>1075</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/RADEON-SAPPHIRE-RX6800XT/233797158586?hash=item366f6586ba:g:jNsAAOSwtllfvIko</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT/313317342296?hash=item48f32b3c58:i:313317342296</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>RADEON SAPPHIRE RX6800XT</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3306,20 +3306,20 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F90" t="n">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324388351689?epid=20042698447&amp;hash=item4b870d6ec9:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/RADEON-SAPPHIRE-RX6800XT/233797158586?hash=item366f6586ba:g:jNsAAOSwtllfvIko</t>
         </is>
       </c>
     </row>
@@ -3329,29 +3329,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card. Confirmed will ship when it arrives friday </t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1175</v>
+        <v>1210</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1175</v>
+        <v>1210</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Confirmed-will-ship-when-it-arrives-friday/254789014239?hash=item3b529bd2df:g:ED8AAOSwxe9fveo7</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324388351689?epid=20042698447&amp;hash=item4b870d6ec9:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -3361,29 +3361,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card. Confirmed will ship when it arrives friday </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1299.99</v>
+        <v>1175</v>
       </c>
       <c r="E92" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1313.64</v>
+        <v>1175</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383825445305?hash=item595dc781b9:g:pnUAAOSw0xBfvDFy</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Confirmed-will-ship-when-it-arrives-friday/254789014239?hash=item3b529bd2df:g:ED8AAOSwxe9fveo7</t>
         </is>
       </c>
     </row>
@@ -3393,29 +3393,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD RADEON RX 6800 XT (AMD Brand - Reference Model) </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1195</v>
+        <v>1299.99</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>13.65</v>
       </c>
       <c r="F93" t="n">
-        <v>1195</v>
+        <v>1313.64</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT-AMD-Brand-Reference-Model/303783942900?hash=item46baef1af4:g:dokAAOSw3rxfvt1F</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383825445305?hash=item595dc781b9:g:pnUAAOSw0xBfvDFy</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t xml:space="preserve">AMD RADEON RX 6800 XT (AMD Brand - Reference Model) </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3434,20 +3434,20 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324389263014?hash=item4b871b56a6:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT-AMD-Brand-Reference-Model/303783942900?hash=item46baef1af4:g:dokAAOSw3rxfvt1F</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMD Radeon RX 6800 XT.  IN HAND.  SHIPS SAME DAY.</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3466,20 +3466,20 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-SHIPS-SAME-DAY/224250135876?hash=item3436598544:g:pB8AAOSw8DNfvskT</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324389263014?hash=item4b871b56a6:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -3489,29 +3489,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card ARRIVING FRIDAY</t>
+          <t xml:space="preserve"> AMD Radeon RX 6800 XT.  IN HAND.  SHIPS SAME DAY.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1225</v>
+        <v>1250</v>
       </c>
       <c r="E96" t="n">
-        <v>42.75</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1267.75</v>
+        <v>1250</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ARRIVING-FRIDAY/313315663003?hash=item48f3119c9b:g:vroAAOSwSpNfvb86</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-SHIPS-SAME-DAY/224250135876?hash=item3436598544:g:pB8AAOSw8DNfvskT</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card ***In Hand, Fast Shipping***</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card ARRIVING FRIDAY</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3530,20 +3530,20 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1270</v>
+        <v>1225</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>42.75</v>
       </c>
       <c r="F97" t="n">
-        <v>1270</v>
+        <v>1267.75</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-Fast-Shipping/184550885539?hash=item2af81708a3:g:euwAAOSw8xVfvScx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ARRIVING-FRIDAY/313315663003?hash=item48f3119c9b:g:vroAAOSwSpNfvb86</t>
         </is>
       </c>
     </row>
@@ -3553,29 +3553,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB Reference - New IN-HAND (Ships Now!)</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card ***In Hand, Fast Shipping***</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1229.99</v>
+        <v>1270</v>
       </c>
       <c r="E98" t="n">
-        <v>13.16</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1243.15</v>
+        <v>1270</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-Reference-New-IN-HAND-Ships-Now/264952734067?hash=item3db069e173:g:LZoAAOSwDDRfvuYb</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-Fast-Shipping/184550885539?hash=item2af81708a3:g:euwAAOSw8xVfvScx</t>
         </is>
       </c>
     </row>
@@ -3585,29 +3585,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING Brand New Sealed</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB Reference - New IN-HAND (Ships Now!)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1200</v>
+        <v>1229.99</v>
       </c>
       <c r="E99" t="n">
-        <v>25.9</v>
+        <v>13.16</v>
       </c>
       <c r="F99" t="n">
-        <v>1225.9</v>
+        <v>1243.15</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING-Brand-New-Sealed/174534172385?hash=item28a30c1ee1:g:VGMAAOSw3olfvu-N</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-Reference-New-IN-HAND-Ships-Now/264952734067?hash=item3db069e173:g:LZoAAOSwDDRfvuYb</t>
         </is>
       </c>
     </row>
@@ -3617,29 +3617,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>🚨Free OVERNIGHT SHIPPING | Sapphire Nitro+ Radeon RX 6800XT</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING Brand New Sealed</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1495</v>
+        <v>1200</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1495</v>
+        <v>1225.9</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Free-OVERNIGHT-SHIPPING-Sapphire-Nitro-Radeon-RX-6800XT/264952630538?hash=item3db0684d0a:g:5D8AAOSwxp1fvsu~</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING-Brand-New-Sealed/174534172385?hash=item28a30c1ee1:g:VGMAAOSw3olfvu-N</t>
         </is>
       </c>
     </row>
@@ -3649,29 +3649,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 XT Gaming Graphics Card *Fast Shipping*</t>
+          <t>🚨Free OVERNIGHT SHIPPING | Sapphire Nitro+ Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1180</v>
+        <v>1495</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1180</v>
+        <v>1495</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Gaming-Graphics-Card-Fast-Shipping/402578523686?hash=item5dbb8cc626:g:rZMAAOSwVrNfvqN3</t>
+          <t>https://www.ebay.com/itm/Free-OVERNIGHT-SHIPPING-Sapphire-Nitro-Radeon-RX-6800XT/264952630538?hash=item3db0684d0a:g:5D8AAOSwxp1fvsu~</t>
         </is>
       </c>
     </row>
@@ -3681,29 +3681,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB - New IN-HAND (Will Ship Same Day)</t>
+          <t>SAPPHIRE Radeon RX 6800 XT Gaming Graphics Card *Fast Shipping*</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="E102" t="n">
-        <v>35.55</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1235.55</v>
+        <v>1180</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-New-IN-HAND-Will-Ship-Same-Day/303778895236?hash=item46baa21584:g:C0oAAOSwelFfuvxY</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Gaming-Graphics-Card-Fast-Shipping/402578523686?hash=item5dbb8cc626:g:rZMAAOSwVrNfvqN3</t>
         </is>
       </c>
     </row>
@@ -3713,29 +3713,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>✅ CONFIRMED NEWEGG ORDER:ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6✅</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB - New IN-HAND (Will Ship Same Day)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1099.99</v>
+        <v>1200</v>
       </c>
       <c r="E103" t="n">
-        <v>10.9</v>
+        <v>35.55</v>
       </c>
       <c r="F103" t="n">
-        <v>1110.89</v>
+        <v>1235.55</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/CONFIRMED-NEWEGG-ORDER-ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/174533770349?hash=item28a305fc6d:g:DeoAAOSwqlZfvpst</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-New-IN-HAND-Will-Ship-Same-Day/303778895236?hash=item46baa21584:g:C0oAAOSwelFfuvxY</t>
         </is>
       </c>
     </row>
@@ -3745,29 +3745,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB FREE FAST SHIPPING</t>
+          <t>✅ CONFIRMED NEWEGG ORDER:ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6✅</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1199</v>
+        <v>1099.99</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F104" t="n">
-        <v>1199</v>
+        <v>1110.89</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-FREE-FAST-SHIPPING/254789512407?hash=item3b52a36cd7:g:Zv0AAOSw629fvpHI</t>
+          <t>https://www.ebay.com/itm/CONFIRMED-NEWEGG-ORDER-ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/174533770349?hash=item28a305fc6d:g:DeoAAOSwqlZfvpst</t>
         </is>
       </c>
     </row>
@@ -3777,29 +3777,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT CONFIRMED ORDER, SHIPPING ON ARRIVAL, ARRIVES WEDNESDAY</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB FREE FAST SHIPPING</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="E105" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1245</v>
+        <v>1199</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-CONFIRMED-ORDER-SHIPPING-ON-ARRIVAL-ARRIVES-WEDNESDAY/274583879811?hash=item3fee798083:g:i-oAAOSwne1fuAaR</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-FREE-FAST-SHIPPING/254789512407?hash=item3b52a36cd7:g:Zv0AAOSw629fvpHI</t>
         </is>
       </c>
     </row>
@@ -3809,29 +3809,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PowerColor Red Devil Limited Edition AMD Radeon RX 6800 XT</t>
+          <t>AMD RX 6800 XT CONFIRMED ORDER, SHIPPING ON ARRIVAL, ARRIVES WEDNESDAY</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1300</v>
+        <v>1230</v>
       </c>
       <c r="E106" t="n">
-        <v>20.8</v>
+        <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>1320.8</v>
+        <v>1245</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-Red-Devil-Limited-Edition-AMD-Radeon-RX-6800-XT/333801948886?hash=item4db82586d6:g:r~AAAOSwkdpfvomS</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-CONFIRMED-ORDER-SHIPPING-ON-ARRIVAL-ARRIVES-WEDNESDAY/274583879811?hash=item3fee798083:g:i-oAAOSwne1fuAaR</t>
         </is>
       </c>
     </row>
@@ -3841,29 +3841,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>New SAPPHIRE Radeon RX 6800 XT DirectX 16GB 256-Bit GDDR6 AMD RDNA 2 In Hand!</t>
+          <t>PowerColor Red Devil Limited Edition AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1277.77</v>
+        <v>1300</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="F107" t="n">
-        <v>1277.77</v>
+        <v>1320.8</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-SAPPHIRE-Radeon-RX-6800-XT-DirectX-16GB-256-Bit-GDDR6-AMD-RDNA-2-In-Hand/114538912993?hash=item1aab0d1ce1:g:PsEAAOSwRkVfvUwa</t>
+          <t>https://www.ebay.com/itm/PowerColor-Red-Devil-Limited-Edition-AMD-Radeon-RX-6800-XT/333801948886?hash=item4db82586d6:g:r~AAAOSwkdpfvomS</t>
         </is>
       </c>
     </row>
@@ -3873,29 +3873,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>New SAPPHIRE Radeon RX 6800 XT DirectX 16GB 256-Bit GDDR6 AMD RDNA 2 In Hand!</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1399.99</v>
+        <v>1277.77</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1399.99</v>
+        <v>1277.77</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/284085808865?hash=item4224d56ee1:g:MPkAAOSwl89ftUh0</t>
+          <t>https://www.ebay.com/itm/New-SAPPHIRE-Radeon-RX-6800-XT-DirectX-16GB-256-Bit-GDDR6-AMD-RDNA-2-In-Hand/114538912993?hash=item1aab0d1ce1:g:PsEAAOSwRkVfvUwa</t>
         </is>
       </c>
     </row>
@@ -3905,29 +3905,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NEW! PowerColor AMD Radeon RX 6800 XT 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW!</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1175</v>
+        <v>1399.99</v>
       </c>
       <c r="E109" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1187.25</v>
+        <v>1399.99</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-XT-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124455823595?epid=18042593571&amp;hash=item1cfa2528eb:g:6BIAAOSw66tfvTt2</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/284085808865?hash=item4224d56ee1:g:MPkAAOSwl89ftUh0</t>
         </is>
       </c>
     </row>
@@ -3937,29 +3937,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *ships Immediately once received*</t>
+          <t>NEW! PowerColor AMD Radeon RX 6800 XT 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW!</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1150</v>
+        <v>1175</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="F110" t="n">
-        <v>1150</v>
+        <v>1187.25</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ships-Immediately-once-received/143862352654?hash=item217edd4b0e:g:E-sAAOSwiGRfvnQ9</t>
+          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-XT-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124455823595?epid=18042593571&amp;hash=item1cfa2528eb:g:6BIAAOSw66tfvTt2</t>
         </is>
       </c>
     </row>
@@ -3969,29 +3969,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Brand New SEALED in box</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *ships Immediately once received*</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1179.99</v>
+        <v>1150</v>
       </c>
       <c r="E111" t="n">
-        <v>12.55</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1192.54</v>
+        <v>1150</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Brand-New-SEALED-in-box/264950974329?hash=item3db04f0779:g:RVIAAOSwxFhfvSjD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ships-Immediately-once-received/143862352654?hash=item217edd4b0e:g:E-sAAOSwiGRfvnQ9</t>
         </is>
       </c>
     </row>
@@ -4001,29 +4001,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT graphics card *in hand*</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Brand New SEALED in box</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1290</v>
+        <v>1179.99</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>12.55</v>
       </c>
       <c r="F112" t="n">
-        <v>1290</v>
+        <v>1192.54</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-graphics-card-in-hand/174529910577?hash=item28a2cb1731:g:aPEAAOSwa6Jfuur4</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Brand-New-SEALED-in-box/264950974329?hash=item3db04f0779:g:RVIAAOSwxFhfvSjD</t>
         </is>
       </c>
     </row>
@@ -4033,29 +4033,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
+          <t>AMD Radeon RX 6800 XT graphics card *in hand*</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1199.99</v>
+        <v>1290</v>
       </c>
       <c r="E113" t="n">
-        <v>23.99</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1223.98</v>
+        <v>1290</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/154211544216?hash=item23e7b96c98:g:tc4AAOSwczxfvYsZ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-graphics-card-in-hand/174529910577?hash=item28a2cb1731:g:aPEAAOSwa6Jfuur4</t>
         </is>
       </c>
     </row>
@@ -4065,29 +4065,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Confirmed Order from Amazon *ETA to me 11/25*</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1200</v>
+        <v>1199.99</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>23.99</v>
       </c>
       <c r="F114" t="n">
-        <v>1200</v>
+        <v>1223.98</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788864516?hash=item3b52998a04:g:LV0AAOSwgRhftUEu</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/154211544216?hash=item23e7b96c98:g:tc4AAOSwczxfvYsZ</t>
         </is>
       </c>
     </row>
@@ -4097,29 +4097,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Confirmed Order from Amazon *ETA to me 11/25*</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1301</v>
+        <v>1200</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1301</v>
+        <v>1200</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324387324010?hash=item4b86fdc06a:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788864516?hash=item3b52998a04:g:LV0AAOSwgRhftUEu</t>
         </is>
       </c>
     </row>
@@ -4129,29 +4129,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1250</v>
+        <v>1301</v>
       </c>
       <c r="E116" t="n">
-        <v>12.04</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1262.04</v>
+        <v>1301</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303775023279?hash=item46ba6700af:g:pigAAOSwZYFftwlG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324387324010?hash=item4b86fdc06a:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -4161,29 +4161,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6 (ships within one business day)</t>
+          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1099</v>
+        <v>1250</v>
       </c>
       <c r="E117" t="n">
-        <v>10.9</v>
+        <v>12.04</v>
       </c>
       <c r="F117" t="n">
-        <v>1109.9</v>
+        <v>1262.04</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-ships-within-one-business-day/293853998128?hash=item446b102c30:g:-DkAAOSwmQdfvaXV</t>
+          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303775023279?hash=item46ba6700af:g:pigAAOSwZYFftwlG</t>
         </is>
       </c>
     </row>
@@ -4193,29 +4193,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big Navi AMD ASRock RX 6800 XT 16GB - IN HAND - FAST SHIPPING </t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 (ships within one business day)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1250</v>
+        <v>1099</v>
       </c>
       <c r="E118" t="n">
-        <v>28.95</v>
+        <v>10.9</v>
       </c>
       <c r="F118" t="n">
-        <v>1278.95</v>
+        <v>1109.9</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-XT-16GB-IN-HAND-FAST-SHIPPING/313310719061?hash=item48f2c62c55:g:dfoAAOSwxB5fuYFP</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-ships-within-one-business-day/293853998128?hash=item446b102c30:g:-DkAAOSwmQdfvaXV</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t xml:space="preserve">Big Navi AMD ASRock RX 6800 XT 16GB - IN HAND - FAST SHIPPING </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4234,20 +4234,20 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1049</v>
+        <v>1250</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
       <c r="F119" t="n">
-        <v>1049</v>
+        <v>1278.95</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324386990423?hash=item4b86f8a957:g:lgUAAOSwl5hfvCgL</t>
+          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-XT-16GB-IN-HAND-FAST-SHIPPING/313310719061?hash=item48f2c62c55:g:dfoAAOSwxB5fuYFP</t>
         </is>
       </c>
     </row>
@@ -4257,29 +4257,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1325</v>
+        <v>1049</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1325</v>
+        <v>1049</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/114529518218?hash=item1aaa7dc28a:g:ehkAAOSwZYFftfbC</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324386990423?hash=item4b86f8a957:g:lgUAAOSwl5hfvCgL</t>
         </is>
       </c>
     </row>
@@ -4289,29 +4289,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 IN HAND </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1199.99</v>
+        <v>1325</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1199.99</v>
+        <v>1325</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-IN-HAND/303781784252?hash=item46bace2abc:g:KSUAAOSwJVJfvRkx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/114529518218?hash=item1aaa7dc28a:g:ehkAAOSwZYFftfbC</t>
         </is>
       </c>
     </row>
@@ -4321,29 +4321,29 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 IN HAND </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1299</v>
+        <v>1199.99</v>
       </c>
       <c r="E122" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1313.4</v>
+        <v>1199.99</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/254787768216?hash=item3b5288cf98:g:1oAAAOSweAlfvFFY</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-IN-HAND/303781784252?hash=item46bace2abc:g:KSUAAOSwJVJfvRkx</t>
         </is>
       </c>
     </row>
@@ -4353,29 +4353,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Radeon Gaming Graphics Card IN HAND FAST SHIPPING</t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1299.99</v>
+        <v>1299</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F123" t="n">
-        <v>1299.99</v>
+        <v>1313.4</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Radeon-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/254785633307?hash=item3b52683c1b:g:K4kAAOSw9IZfuehq</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/254787768216?hash=item3b5288cf98:g:1oAAAOSweAlfvFFY</t>
         </is>
       </c>
     </row>
@@ -4385,29 +4385,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT [Same Day Shipping]</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Radeon Gaming Graphics Card IN HAND FAST SHIPPING</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1289</v>
+        <v>1299.99</v>
       </c>
       <c r="E124" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1300.3</v>
+        <v>1299.99</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Same-Day-Shipping/184541656094?hash=item2af78a341e:g:i3UAAOSwiGRfu-GK</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Radeon-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/254785633307?hash=item3b52683c1b:g:K4kAAOSw9IZfuehq</t>
         </is>
       </c>
     </row>
@@ -4417,29 +4417,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships same day if paid by 2pm EST*</t>
+          <t>AMD Radeon RX 6800 XT [Same Day Shipping]</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1229</v>
+        <v>1289</v>
       </c>
       <c r="E125" t="n">
-        <v>21</v>
+        <v>11.3</v>
       </c>
       <c r="F125" t="n">
-        <v>1250</v>
+        <v>1300.3</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-same-day-if-paid-by-2pm-EST/353290478541?hash=item5241c0e3cd:g:vK8AAOSwnbZfvFGC</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Same-Day-Shipping/184541656094?hash=item2af78a341e:g:i3UAAOSwiGRfu-GK</t>
         </is>
       </c>
     </row>
@@ -4449,29 +4449,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships same day if paid by 2pm EST*</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1300</v>
+        <v>1229</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F126" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324385728269?hash=item4b86e5670d:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-same-day-if-paid-by-2pm-EST/353290478541?hash=item5241c0e3cd:g:vK8AAOSwnbZfvFGC</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT ready to ship</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4490,20 +4490,20 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-ready-to-ship/254787431198?hash=item3b5283ab1e:g:8ewAAOSwXwBfu~pu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324385728269?hash=item4b86e5670d:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radeon RX 6800 XT SHIPPED print on paper </t>
+          <t>AMD Radeon RX 6800 XT ready to ship</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4522,20 +4522,20 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E128" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1010.9</v>
+        <v>1200</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Radeon-RX-6800-XT-SHIPPED-print-on-paper/383824264077?hash=item595db57b8d:g:EIMAAOSwiLVfuua7</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-ready-to-ship/254787431198?hash=item3b5283ab1e:g:8ewAAOSwXwBfu~pu</t>
         </is>
       </c>
     </row>
@@ -4545,29 +4545,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
+          <t xml:space="preserve">Radeon RX 6800 XT SHIPPED print on paper </t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1289.99</v>
+        <v>1000</v>
       </c>
       <c r="E129" t="n">
-        <v>14.4</v>
+        <v>10.9</v>
       </c>
       <c r="F129" t="n">
-        <v>1304.39</v>
+        <v>1010.9</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363190793234?hash=item548fdbb412:g:dvMAAOSw2sRfuEGQ</t>
+          <t>https://www.ebay.com/itm/Radeon-RX-6800-XT-SHIPPED-print-on-paper/383824264077?hash=item595db57b8d:g:EIMAAOSwiLVfuua7</t>
         </is>
       </c>
     </row>
@@ -4577,29 +4577,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Fast Ship</t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1300</v>
+        <v>1289.99</v>
       </c>
       <c r="E130" t="n">
-        <v>12.54</v>
+        <v>14.4</v>
       </c>
       <c r="F130" t="n">
-        <v>1312.54</v>
+        <v>1304.39</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Fast-Ship/324385195319?hash=item4b86dd4537:g:EBsAAOSwtDNfuqbl</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363190793234?hash=item548fdbb412:g:dvMAAOSw2sRfuEGQ</t>
         </is>
       </c>
     </row>
@@ -4609,29 +4609,29 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Fast Ship</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1275</v>
+        <v>1300</v>
       </c>
       <c r="E131" t="n">
-        <v>80</v>
+        <v>12.54</v>
       </c>
       <c r="F131" t="n">
-        <v>1355</v>
+        <v>1312.54</v>
       </c>
       <c r="G131" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858709669?hash=item217ea5b4a5:g:~FEAAOSwqARfusR0</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Fast-Ship/324385195319?hash=item4b86dd4537:g:EBsAAOSwtDNfuqbl</t>
         </is>
       </c>
     </row>
@@ -4653,17 +4653,17 @@
         <v>1275</v>
       </c>
       <c r="E132" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F132" t="n">
-        <v>1315</v>
+        <v>1355</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858264833?hash=item217e9eeb01:g:~FEAAOSwqARfusR0</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858709669?hash=item217ea5b4a5:g:~FEAAOSwqARfusR0</t>
         </is>
       </c>
     </row>
@@ -4673,29 +4673,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU  IN HAND READY TO SHIP</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1250</v>
+        <v>1275</v>
       </c>
       <c r="E133" t="n">
-        <v>18.95</v>
+        <v>40</v>
       </c>
       <c r="F133" t="n">
-        <v>1268.95</v>
+        <v>1315</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-IN-HAND-READY-TO-SHIP/333798890474?hash=item4db7f6dbea:g:fH4AAOSwVJJfuvnv</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858264833?hash=item217e9eeb01:g:~FEAAOSwqARfusR0</t>
         </is>
       </c>
     </row>
@@ -4705,29 +4705,29 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">IN HAND! MSI Radeon RX 6800 XT DirectX 12 RX 6800 XT 16G 16GB 256-Bit GDDR6 </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU  IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1349</v>
+        <v>1250</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>18.95</v>
       </c>
       <c r="F134" t="n">
-        <v>1349</v>
+        <v>1268.95</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-MSI-Radeon-RX-6800-XT-DirectX-12-RX-6800-XT-16G-16GB-256-Bit-GDDR6/184546658425?hash=item2af7d68879:g:oWcAAOSwjsxfuYDi</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-IN-HAND-READY-TO-SHIP/333798890474?hash=item4db7f6dbea:g:fH4AAOSwVJJfuvnv</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST AUCTION</t>
+          <t xml:space="preserve">IN HAND! MSI Radeon RX 6800 XT DirectX 12 RX 6800 XT 16G 16GB 256-Bit GDDR6 </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4746,20 +4746,20 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1600</v>
+        <v>1349</v>
       </c>
       <c r="E135" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1625.9</v>
+        <v>1349</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-AUCTION/284087579032?hash=item4224f07198:g:1jcAAOSwVWVftwf8</t>
+          <t>https://www.ebay.com/itm/IN-HAND-MSI-Radeon-RX-6800-XT-DirectX-12-RX-6800-XT-16G-16GB-256-Bit-GDDR6/184546658425?hash=item2af7d68879:g:oWcAAOSwjsxfuYDi</t>
         </is>
       </c>
     </row>
@@ -4769,29 +4769,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST AUCTION</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1284</v>
+        <v>1600</v>
       </c>
       <c r="E136" t="n">
-        <v>12.25</v>
+        <v>25.9</v>
       </c>
       <c r="F136" t="n">
-        <v>1296.25</v>
+        <v>1625.9</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124448722219?hash=item1cf9b8cd2b:g:PBkAAOSwbQRfttAo</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-AUCTION/284087579032?hash=item4224f07198:g:1jcAAOSwVWVftwf8</t>
         </is>
       </c>
     </row>
@@ -4801,29 +4801,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>IN HAND - AMD Radeon RX 6800XT</t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1250</v>
+        <v>1284</v>
       </c>
       <c r="E137" t="n">
-        <v>25</v>
+        <v>12.25</v>
       </c>
       <c r="F137" t="n">
-        <v>1275</v>
+        <v>1296.25</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Radeon-RX-6800XT/293849061367?hash=item446ac4d7f7:g:VkgAAOSwGzpfurQk</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124448722219?hash=item1cf9b8cd2b:g:PBkAAOSwbQRfttAo</t>
         </is>
       </c>
     </row>
@@ -4833,29 +4833,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT16GB GDDR6, Order Confirmed. Ships upon delivery! </t>
+          <t>IN HAND - AMD Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1299</v>
+        <v>1250</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F138" t="n">
-        <v>1299</v>
+        <v>1275</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-Order-Confirmed-Ships-upon-delivery/184541892261?hash=item2af78dcea5:g:O3cAAOSw2UpftV~7</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Radeon-RX-6800XT/293849061367?hash=item446ac4d7f7:g:VkgAAOSwGzpfurQk</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT16GB GDDR6, Order Confirmed. Ships upon delivery! </t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4874,20 +4874,20 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E139" t="n">
-        <v>26.7</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1326.7</v>
+        <v>1299</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313310820896?hash=item48f2c7ba20:g:lTkAAOSwtmhfuaOy</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-Order-Confirmed-Ships-upon-delivery/184541892261?hash=item2af78dcea5:g:O3cAAOSw2UpftV~7</t>
         </is>
       </c>
     </row>
@@ -4897,29 +4897,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D140" t="n">
         <v>1300</v>
       </c>
       <c r="E140" t="n">
-        <v>12.3</v>
+        <v>26.7</v>
       </c>
       <c r="F140" t="n">
-        <v>1312.3</v>
+        <v>1326.7</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244429573?hash=item3436027305:g:HdAAAOSwDwNfuYMu</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313310820896?hash=item48f2c7ba20:g:lTkAAOSwtmhfuaOy</t>
         </is>
       </c>
     </row>
@@ -4929,29 +4929,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1289.99</v>
+        <v>1300</v>
       </c>
       <c r="E141" t="n">
-        <v>14.4</v>
+        <v>12.3</v>
       </c>
       <c r="F141" t="n">
-        <v>1304.39</v>
+        <v>1312.3</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363186717375?hash=item548f9d82bf:g:dvMAAOSw2sRfuEGQ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244429573?hash=item3436027305:g:HdAAAOSwDwNfuYMu</t>
         </is>
       </c>
     </row>
@@ -4961,29 +4961,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1300</v>
+        <v>1289.99</v>
       </c>
       <c r="E142" t="n">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="F142" t="n">
-        <v>1312.3</v>
+        <v>1304.39</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244042671?hash=item3435fc8baf:g:HdAAAOSwDwNfuYMu</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363186717375?hash=item548f9d82bf:g:dvMAAOSw2sRfuEGQ</t>
         </is>
       </c>
     </row>
@@ -4993,29 +4993,29 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT (IN HAND AND READY TO SHIP)</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1525</v>
+        <v>1300</v>
       </c>
       <c r="E143" t="n">
-        <v>7.5</v>
+        <v>12.3</v>
       </c>
       <c r="F143" t="n">
-        <v>1532.5</v>
+        <v>1312.3</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-AND-READY-TO-SHIP/284085937393?hash=item4224d764f1:g:WvYAAOSwlCpftWcX</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244042671?hash=item3435fc8baf:g:HdAAAOSwDwNfuYMu</t>
         </is>
       </c>
     </row>
@@ -5025,29 +5025,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
+          <t>AMD Radeon RX 6800 XT (IN HAND AND READY TO SHIP)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1350</v>
+        <v>1525</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F144" t="n">
-        <v>1350</v>
+        <v>1532.5</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/124451444582?hash=item1cf9e25766:g:sCsAAOSwhL1fuUsq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-AND-READY-TO-SHIP/284085937393?hash=item4224d764f1:g:WvYAAOSwlCpftWcX</t>
         </is>
       </c>
     </row>
@@ -5057,29 +5057,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
+          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1385</v>
+        <v>1350</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1385</v>
+        <v>1350</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527149063?hash=item264e951007:g:JUoAAOSwwfdft0SV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/124451444582?hash=item1cf9e25766:g:sCsAAOSwhL1fuUsq</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5098,20 +5098,20 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="E146" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1415</v>
+        <v>1385</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/133580458371?hash=item1f1a040983:g:cswAAOSw8~ZftToE</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527149063?hash=item264e951007:g:JUoAAOSwwfdft0SV</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5130,20 +5130,20 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1385</v>
+        <v>1400</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F147" t="n">
-        <v>1385</v>
+        <v>1415</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527020961?hash=item264e931ba1:g:JUoAAOSwwfdft0SV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/133580458371?hash=item1f1a040983:g:cswAAOSw8~ZftToE</t>
         </is>
       </c>
     </row>
@@ -5153,29 +5153,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1329</v>
+        <v>1385</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1329</v>
+        <v>1385</v>
       </c>
       <c r="G148" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/274581176427?hash=item3fee50406b:g:PXcAAOSw9TRftVhk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527020961?hash=item264e931ba1:g:JUoAAOSwwfdft0SV</t>
         </is>
       </c>
     </row>
@@ -5185,29 +5185,29 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 **FREE/FAST SHIP IN HAND**</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-FREE-FAST-SHIP-IN-HAND/184544049522?hash=item2af7aeb972:g:AjcAAOSwkaJft1kQ</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/274581176427?hash=item3fee50406b:g:PXcAAOSw9TRftVhk</t>
         </is>
       </c>
     </row>
@@ -5217,29 +5217,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 **FREE/FAST SHIP IN HAND**</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1199</v>
+        <v>1345</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1199</v>
+        <v>1345</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324382376786?hash=item4b86b24352:g:ojgAAOSwZ05ft9jI</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-FREE-FAST-SHIP-IN-HAND/184544049522?hash=item2af7aeb972:g:AjcAAOSwkaJft1kQ</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5258,20 +5258,20 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1499.98</v>
+        <v>1199</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1499.98</v>
+        <v>1199</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/193758038220?hash=item2d1ce108cc:g:6xoAAOSwXkRftzEB</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324382376786?hash=item4b86b24352:g:ojgAAOSwZ05ft9jI</t>
         </is>
       </c>
     </row>
@@ -5281,29 +5281,29 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sapphire Rx 6800xt</t>
+          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1200</v>
+        <v>1499.98</v>
       </c>
       <c r="E152" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1220</v>
+        <v>1499.98</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264945340088?hash=item3daff90eb8:g:SzsAAOSwxatftqKb</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/193758038220?hash=item2d1ce108cc:g:6xoAAOSwXkRftzEB</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND**  **NIB**</t>
+          <t>Sapphire Rx 6800xt</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5322,20 +5322,20 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E153" t="n">
         <v>20</v>
       </c>
       <c r="F153" t="n">
-        <v>1420</v>
+        <v>1220</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-NIB/324382012648?hash=item4b86acb4e8:g:BywAAOSwGMtft0~Q</t>
+          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264945340088?hash=item3daff90eb8:g:SzsAAOSwxatftqKb</t>
         </is>
       </c>
     </row>
@@ -5345,29 +5345,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2 </t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND**  **NIB**</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F154" t="n">
-        <v>1399</v>
+        <v>1420</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303774956221?hash=item46ba65fabd:g:YkwAAOSwkC5ftvHT</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-NIB/324382012648?hash=item4b86acb4e8:g:BywAAOSwGMtft0~Q</t>
         </is>
       </c>
     </row>
@@ -5377,29 +5377,29 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/233788541183?hash=item366ee208ff:g:MKsAAOSwOMxftbxn</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303774956221?hash=item46ba65fabd:g:YkwAAOSwkC5ftvHT</t>
         </is>
       </c>
     </row>
@@ -5409,29 +5409,29 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT SHIPPED</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E156" t="n">
-        <v>95.67</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>995.67</v>
+        <v>1400</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-SHIPPED/383819464585?hash=item595d6c3f89:g:CqgAAOSwGbFftc5I</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/233788541183?hash=item366ee208ff:g:MKsAAOSwOMxftbxn</t>
         </is>
       </c>
     </row>
@@ -5441,29 +5441,29 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>MSI Radeon RX 6800 XT SHIPPED</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1399</v>
+        <v>900</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>95.67</v>
       </c>
       <c r="F157" t="n">
-        <v>1399</v>
+        <v>995.67</v>
       </c>
       <c r="G157" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303773701869?hash=item46ba52d6ed:g:d3sAAOSwDnpftaqk</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-SHIPPED/383819464585?hash=item595d6c3f89:g:CqgAAOSwGbFftc5I</t>
         </is>
       </c>
     </row>
@@ -5473,29 +5473,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Confirmed Order</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1200</v>
+        <v>1399</v>
       </c>
       <c r="E158" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>1225</v>
+        <v>1399</v>
       </c>
       <c r="G158" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Confirmed-Order/164524239898?hash=item264e68ac1a:g:vzMAAOSwS6FftfWp</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303773701869?hash=item46ba52d6ed:g:d3sAAOSwDnpftaqk</t>
         </is>
       </c>
     </row>
@@ -5505,29 +5505,29 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Confirmed Order</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E159" t="n">
-        <v>13.65</v>
+        <v>25</v>
       </c>
       <c r="F159" t="n">
-        <v>1513.65</v>
+        <v>1225</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383817206744?hash=item595d49cbd8:g:9gMAAOSwi9VftTQw</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Confirmed-Order/164524239898?hash=item264e68ac1a:g:vzMAAOSwS6FftfWp</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT 16 GB GDDR6- In hand ready to ship</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5546,20 +5546,20 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E160" t="n">
-        <v>32.55</v>
+        <v>13.65</v>
       </c>
       <c r="F160" t="n">
-        <v>1232.55</v>
+        <v>1513.65</v>
       </c>
       <c r="G160" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-16-GB-GDDR6-In-hand-ready-to-ship/274582645998?hash=item3fee66acee:g:CtEAAOSwXoxftdHu</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383817206744?hash=item595d49cbd8:g:9gMAAOSwi9VftTQw</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sapphire Rx 6800xt</t>
+          <t>Sapphire AMD Radeon RX 6800 XT 16 GB GDDR6- In hand ready to ship</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5578,20 +5578,20 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E161" t="n">
-        <v>15</v>
+        <v>32.55</v>
       </c>
       <c r="F161" t="n">
-        <v>1115</v>
+        <v>1232.55</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264944638749?hash=item3dafee5b1d:g:SzsAAOSwxatftqKb</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-16-GB-GDDR6-In-hand-ready-to-ship/274582645998?hash=item3fee66acee:g:CtEAAOSwXoxftdHu</t>
         </is>
       </c>
     </row>
@@ -5601,29 +5601,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER from AMD</t>
+          <t>Sapphire Rx 6800xt</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1349</v>
+        <v>1100</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F162" t="n">
-        <v>1349</v>
+        <v>1115</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-from-AMD/174524929007?hash=item28a27f13ef:g:iEsAAOSwjsxftWk6</t>
+          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264944638749?hash=item3dafee5b1d:g:SzsAAOSwxatftqKb</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER from AMD</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5642,20 +5642,20 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1250</v>
+        <v>1349</v>
       </c>
       <c r="E163" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1259.9</v>
+        <v>1349</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/174524837880?hash=item28a27daff8:g:xLQAAOSwPzVftdhW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-from-AMD/174524929007?hash=item28a27f13ef:g:iEsAAOSwjsxftWk6</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5674,20 +5674,20 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1425</v>
+        <v>1250</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="F164" t="n">
-        <v>1425</v>
+        <v>1259.9</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527334036?hash=item1aaa5c6e94:g:gXsAAOSwjkhftZJm</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/174524837880?hash=item28a27daff8:g:xLQAAOSwPzVftdhW</t>
         </is>
       </c>
     </row>
@@ -5697,29 +5697,29 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT 16GB Graphics Card - NEW IN HAND</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>New (Other)</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1499.99</v>
+        <v>1425</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1499.99</v>
+        <v>1425</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-16GB-Graphics-Card-NEW-IN-HAND/324379346629?hash=item4b868406c5:g:EC0AAOSwGqFftV6s</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527334036?hash=item1aaa5c6e94:g:gXsAAOSwjkhftZJm</t>
         </is>
       </c>
     </row>
@@ -5729,29 +5729,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+          <t>AMD RX 6800 XT 16GB Graphics Card - NEW IN HAND</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>New (Other)</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1425</v>
+        <v>1499.99</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1425</v>
+        <v>1499.99</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527193328?hash=item1aaa5a48f0:g:gXsAAOSwjkhftZJm</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-16GB-Graphics-Card-NEW-IN-HAND/324379346629?hash=item4b868406c5:g:EC0AAOSwGqFftV6s</t>
         </is>
       </c>
     </row>
@@ -5761,29 +5761,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 CONFIRMED - 2Day Ship</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SHIPS OUT SAME DAY RECIEVED WITH 2 DAY AIR</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1229.99</v>
+        <v>1425</v>
       </c>
       <c r="E167" t="n">
-        <v>49.99</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1279.98</v>
+        <v>1425</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED-2Day-Ship/264943675824?hash=item3dafdfa9b0:g:wNcAAOSwU7lftZxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527193328?hash=item1aaa5a48f0:g:gXsAAOSwjkhftZJm</t>
         </is>
       </c>
     </row>
@@ -5793,29 +5793,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 CONFIRMED - 2Day Ship</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>SHIPS OUT SAME DAY RECIEVED WITH 2 DAY AIR</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1429.99</v>
+        <v>1229.99</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>49.99</v>
       </c>
       <c r="F168" t="n">
-        <v>1429.99</v>
+        <v>1279.98</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348705650?hash=item56ed512572:g:1BMAAOSwne1ftTad</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED-2Day-Ship/264943675824?hash=item3dafdfa9b0:g:wNcAAOSwU7lftZxJ</t>
         </is>
       </c>
     </row>
@@ -5825,29 +5825,29 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1300</v>
+        <v>1429.99</v>
       </c>
       <c r="E169" t="n">
-        <v>23.15</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1323.15</v>
+        <v>1429.99</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313306368113?hash=item48f283c871:g:~c4AAOSw3L1ftS8h</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348705650?hash=item56ed512572:g:1BMAAOSwne1ftTad</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, CONFIRMED</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5866,20 +5866,20 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E170" t="n">
-        <v>16.9</v>
+        <v>23.15</v>
       </c>
       <c r="F170" t="n">
-        <v>1516.9</v>
+        <v>1323.15</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED/254782094792?hash=item3b52323dc8:g:OXUAAOSwGgdftTZl</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313306368113?hash=item48f283c871:g:~c4AAOSw3L1ftS8h</t>
         </is>
       </c>
     </row>
@@ -5889,29 +5889,29 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, CONFIRMED</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>888.88</v>
+        <v>1500</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="F171" t="n">
-        <v>888.88</v>
+        <v>1516.9</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541881799?hash=item2af78da5c7:g:LAMAAOSwn9JftVJc</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED/254782094792?hash=item3b52323dc8:g:OXUAAOSwGgdftTZl</t>
         </is>
       </c>
     </row>
@@ -5921,29 +5921,29 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1655</v>
+        <v>888.88</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1655</v>
+        <v>888.88</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/264943388668?hash=item3dafdb47fc:g:dl0AAOSwxKBftV7i</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541881799?hash=item2af78da5c7:g:LAMAAOSwn9JftVJc</t>
         </is>
       </c>
     </row>
@@ -5953,29 +5953,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD - IMMEDIATE SHIPPING</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1450</v>
+        <v>1655</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1450</v>
+        <v>1655</v>
       </c>
       <c r="G173" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD-IMMEDIATE-SHIPPING/174524212329?hash=item28a2742469:g:~6MAAOSw2lNftUoJ</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/264943388668?hash=item3dafdb47fc:g:dl0AAOSwxKBftV7i</t>
         </is>
       </c>
     </row>
@@ -5985,29 +5985,29 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD - IMMEDIATE SHIPPING</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1399.99</v>
+        <v>1450</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1399.99</v>
+        <v>1450</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/174524170850?hash=item28a2738262:g:w5MAAOSwglZftUPh</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD-IMMEDIATE-SHIPPING/174524212329?hash=item28a2742469:g:~6MAAOSw2lNftUoJ</t>
         </is>
       </c>
     </row>
@@ -6017,29 +6017,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>888.88</v>
+        <v>1399.99</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>888.88</v>
+        <v>1399.99</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541829551?hash=item2af78cd9af:g:LAMAAOSwn9JftVJc</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/174524170850?hash=item28a2738262:g:w5MAAOSwglZftUPh</t>
         </is>
       </c>
     </row>
@@ -6049,29 +6049,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1400</v>
+        <v>888.88</v>
       </c>
       <c r="E176" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1410.9</v>
+        <v>888.88</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/133580531891?hash=item1f1a0528b3:g:IL8AAOSwx8NftUjk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541829551?hash=item2af78cd9af:g:LAMAAOSwn9JftVJc</t>
         </is>
       </c>
     </row>
@@ -6081,29 +6081,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card Will Ship ASAP</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1399.99</v>
+        <v>1400</v>
       </c>
       <c r="E177" t="n">
-        <v>15</v>
+        <v>10.9</v>
       </c>
       <c r="F177" t="n">
-        <v>1414.99</v>
+        <v>1410.9</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-Will-Ship-ASAP/333793950851?hash=item4db7ab7c83:g:IUUAAOSwzJFftVBi</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/133580531891?hash=item1f1a0528b3:g:IL8AAOSwx8NftUjk</t>
         </is>
       </c>
     </row>
@@ -6113,29 +6113,29 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 - Confirmed Order</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card Will Ship ASAP</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1299</v>
+        <v>1399.99</v>
       </c>
       <c r="E178" t="n">
-        <v>48.8</v>
+        <v>15</v>
       </c>
       <c r="F178" t="n">
-        <v>1347.8</v>
+        <v>1414.99</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-Confirmed-Order/233786704311?hash=item366ec601b7:g:PvwAAOSweENftULQ</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-Will-Ship-ASAP/333793950851?hash=item4db7ab7c83:g:IUUAAOSwzJFftVBi</t>
         </is>
       </c>
     </row>
@@ -6145,29 +6145,29 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 - Confirmed Order</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1200</v>
+        <v>1299</v>
       </c>
       <c r="E179" t="n">
-        <v>10.9</v>
+        <v>48.8</v>
       </c>
       <c r="F179" t="n">
-        <v>1210.9</v>
+        <v>1347.8</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/174524175719?hash=item28a2739567:g:ZykAAOSwzZZftULd</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-Confirmed-Order/233786704311?hash=item366ec601b7:g:PvwAAOSweENftULQ</t>
         </is>
       </c>
     </row>
@@ -6177,29 +6177,29 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E180" t="n">
         <v>10.9</v>
       </c>
       <c r="F180" t="n">
-        <v>1310.9</v>
+        <v>1210.9</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/402564277495?hash=item5dbab364f7:g:3TsAAOSwMdpftUFd</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/174524175719?hash=item28a2739567:g:ZykAAOSwzZZftULd</t>
         </is>
       </c>
     </row>
@@ -6209,29 +6209,29 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Confirmed Order from Amazon *ETA to me 11/19*</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F181" t="n">
-        <v>1600</v>
+        <v>1310.9</v>
       </c>
       <c r="G181" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254782140626?hash=item3b5232f0d2:g:LV0AAOSwgRhftUEu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/402564277495?hash=item5dbab364f7:g:3TsAAOSwMdpftUFd</t>
         </is>
       </c>
     </row>
@@ -6241,29 +6241,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card - CONFIRMED</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Confirmed Order from Amazon *ETA to me 11/19*</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E182" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1420</v>
+        <v>1600</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-CONFIRMED/124445597497?hash=item1cf9891f39:g:8KkAAOSwjMFftTk-</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254782140626?hash=item3b5232f0d2:g:LV0AAOSwgRhftUEu</t>
         </is>
       </c>
     </row>
@@ -6273,29 +6273,29 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card - CONFIRMED</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1499</v>
+        <v>1400</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F183" t="n">
-        <v>1499</v>
+        <v>1420</v>
       </c>
       <c r="G183" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/264943203177?hash=item3dafd87369:g:PfMAAOSw-yNftTmO</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-CONFIRMED/124445597497?hash=item1cf9891f39:g:8KkAAOSwjMFftTk-</t>
         </is>
       </c>
     </row>
@@ -6305,29 +6305,29 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1300</v>
+        <v>1499</v>
       </c>
       <c r="E184" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1314.4</v>
+        <v>1499</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755999053?hash=item2d1cc1eb4d:g:VLcAAOSwgY1ftThV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/264943203177?hash=item3dafd87369:g:PfMAAOSw-yNftTmO</t>
         </is>
       </c>
     </row>
@@ -6337,29 +6337,29 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD SAPPHIRE Radeon RX 6800 XT DirectX 12 21304-01-20G 16GB GDDR6 </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E185" t="n">
-        <v>20</v>
+        <v>14.4</v>
       </c>
       <c r="F185" t="n">
-        <v>1520</v>
+        <v>1314.4</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-XT-DirectX-12-21304-01-20G-16GB-GDDR6/114526631595?hash=item1aaa51b6ab:g:ZZIAAOSwMFhftTcL</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755999053?hash=item2d1cc1eb4d:g:VLcAAOSwgY1ftThV</t>
         </is>
       </c>
     </row>
@@ -6369,29 +6369,29 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD SAPPHIRE Radeon RX 6800 XT DirectX 12 21304-01-20G 16GB GDDR6 </t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D186" t="n">
         <v>1500</v>
       </c>
       <c r="E186" t="n">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="F186" t="n">
-        <v>1514.4</v>
+        <v>1520</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755981033?hash=item2d1cc1a4e9:g:VLcAAOSwgY1ftThV</t>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-XT-DirectX-12-21304-01-20G-16GB-GDDR6/114526631595?hash=item1aaa51b6ab:g:ZZIAAOSwMFhftTcL</t>
         </is>
       </c>
     </row>
@@ -6401,29 +6401,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1499.99</v>
+        <v>1500</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F187" t="n">
-        <v>1499.99</v>
+        <v>1514.4</v>
       </c>
       <c r="G187" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348646190?hash=item56ed503d2e:g:1BMAAOSwne1ftTad</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755981033?hash=item2d1cc1a4e9:g:VLcAAOSwgY1ftThV</t>
         </is>
       </c>
     </row>
@@ -6433,29 +6433,29 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD radeon Rx 6800 XT  Gaming Graphics Card 16GB GDDR6 RDNA2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1250</v>
+        <v>1499.99</v>
       </c>
       <c r="E188" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1263.65</v>
+        <v>1499.99</v>
       </c>
       <c r="G188" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-radeon-Rx-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-RDNA2/324379110769?hash=item4b86806d71:g:adEAAOSwhlBftTS6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348646190?hash=item56ed503d2e:g:1BMAAOSwne1ftTad</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>SAPPHIRE AMD radeon Rx 6800 XT  Gaming Graphics Card 16GB GDDR6 RDNA2</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6474,20 +6474,20 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1899</v>
+        <v>1250</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>13.65</v>
       </c>
       <c r="F189" t="n">
-        <v>1899</v>
+        <v>1263.65</v>
       </c>
       <c r="G189" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/393021910784?hash=item5b81ee6f00:g:0poAAOSwGqFftS7R</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-radeon-Rx-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-RDNA2/324379110769?hash=item4b86806d71:g:adEAAOSwhlBftTS6</t>
         </is>
       </c>
     </row>
@@ -6497,29 +6497,29 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1399.99</v>
+        <v>1899</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1399.99</v>
+        <v>1899</v>
       </c>
       <c r="G190" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/363185099274?hash=item548f84d20a:g:uT8AAOSwIqlftTB8</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/393021910784?hash=item5b81ee6f00:g:0poAAOSwGqFftS7R</t>
         </is>
       </c>
     </row>
@@ -6529,61 +6529,61 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1200</v>
+        <v>1399.99</v>
       </c>
       <c r="E191" t="n">
-        <v>23.15</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1223.15</v>
+        <v>1399.99</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313305923882?hash=item48f27d012a:g:~c4AAOSw3L1ftS8h</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/363185099274?hash=item548f84d20a:g:uT8AAOSwIqlftTB8</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics card</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E192" t="n">
-        <v>10.9</v>
+        <v>23.15</v>
       </c>
       <c r="F192" t="n">
-        <v>1209.9</v>
+        <v>1223.15</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>44166</v>
+        <v>44153</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224259416463?hash=item3436e7218f:g:oeYAAOSwSpNfxi9M</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313305923882?hash=item48f27d012a:g:~c4AAOSw3L1ftS8h</t>
         </is>
       </c>
     </row>

--- a/Spreadsheets/RX 6800 XT.xlsx
+++ b/Spreadsheets/RX 6800 XT.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,29 +481,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>New ListingXFX AMD Radeon RX 6800XT 16GB GDDR6 PCI Express 4.0 Gaming Graphics Card</t>
+          <t>New ListingSAPPHIRE NITRO+ AMD Radeon RX 6800 XT Video Card - NEW, IN HAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10.54</v>
       </c>
       <c r="F2" t="n">
-        <v>1100</v>
+        <v>1385.54</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800XT-16GB-GDDR6-PCI-Express-4-0-Gaming-Graphics-Card/254796450274?hash=item3b530d49e2:g:AEgAAOSwJ9Rfx8IH</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-NITRO-AMD-Radeon-RX-6800-XT-Video-Card-NEW-IN-HAND/154229304804?epid=10042951242&amp;hash=item23e8c86de4:g:vmYAAOSwV0VfzBuJ</t>
         </is>
       </c>
     </row>
@@ -513,29 +513,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *IN HAND AND SHIPS ASAP*</t>
+          <t>SAPPHIRE Radeon RX 6800 XT 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1094</v>
+        <v>1125</v>
       </c>
       <c r="E3" t="n">
-        <v>92.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1186.21</v>
+        <v>1125</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-AND-SHIPS-ASAP/254793535461?hash=item3b52e0cfe5:g:MJEAAOSwPjZfw~tx</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card/264956018128?hash=item3db09bfdd0:g:X4kAAOSwMSxfwZzS</t>
         </is>
       </c>
     </row>
@@ -545,29 +545,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New ListingAMD Radeon RX 6800 XT</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card IN HAND!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E4" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1314.4</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/164552060938?hash=item265011300a:g:13EAAOSwHVVfxyWx</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-IN-HAND/284101755277?hash=item4225c8c18d:g:e3gAAOSw3olfyAaO</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New ListingXFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>XFX AMD Radeon RX 6800 XT 16GB GDDR6 Gaming Graphics Card. IN HAND FAST SHIPPING</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,20 +586,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1050</v>
+        <v>1229.99</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1050</v>
+        <v>1229.99</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/184563019396?hash=item2af8d02e84:g:AScAAOSwsKxfx9GH</t>
+          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-XT-16GB-GDDR6-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/303790739582?hash=item46bb56d07e:g:LYUAAOSwmtFfxfFq</t>
         </is>
       </c>
     </row>
@@ -609,29 +609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New ListingXFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
+          <t>SAPPHIRE NITRO+ AMD Radeon RX 6800 XT SE Gaming Graphics Card with 16GB GDDR6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1349.99</v>
+        <v>1425</v>
       </c>
       <c r="E6" t="n">
-        <v>16.91</v>
+        <v>25.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1366.9</v>
+        <v>1450.1</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/133594969175?hash=item1f1ae17457:g:SKQAAOSwJfRfx8pY</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-NITRO-AMD-Radeon-RX-6800-XT-SE-Gaming-Graphics-Card-with-16GB-GDDR6/264964653889?hash=item3db11fc341:g:MCoAAOSwYvNfytZV</t>
         </is>
       </c>
     </row>
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT</t>
+          <t>AMD Radeon RX 6800 XT 16GB (IMAGE ONLY)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1100</v>
+        <v>922</v>
       </c>
       <c r="E7" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1114.4</v>
+        <v>922</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT/143866622982?hash=item217f1e7406:g:2BEAAOSwuDBfw9c6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-IMAGE-ONLY/313326977660?hash=item48f3be427c:g:UnAAAOSwH71fyA~O</t>
         </is>
       </c>
     </row>
@@ -673,29 +673,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card. Same day shipping</t>
+          <t>AMD Radeon rx 6800xt!! In Hand!! Ships next day!!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Open Box · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="E8" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="F8" t="n">
-        <v>1061.75</v>
+        <v>1211.55</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44167</v>
+        <v>44170</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Same-day-shipping/224255729122?hash=item3436aedde2:g:RuQAAOSw2CNfw26X</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-rx-6800xt-In-Hand-Ships-next-day/373369964294?hash=item56ee958706:g:5IYAAOSw7GVfwp3R</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
+          <t>amd Radeon rx 6800 xt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -714,20 +714,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1195</v>
+        <v>1250</v>
       </c>
       <c r="E9" t="n">
-        <v>9.81</v>
+        <v>14.4</v>
       </c>
       <c r="F9" t="n">
-        <v>1204.81</v>
+        <v>1264.4</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44166</v>
+        <v>44170</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/174533016074?hash=item28a2fa7a0a:g:WPYAAOSwIwtfvdtL</t>
+          <t>https://www.ebay.com/itm/amd-Radeon-rx-6800-xt/164557959986?hash=item26506b3332:g:lW4AAOSw8DNfu~3v</t>
         </is>
       </c>
     </row>
@@ -737,29 +737,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>MSI Radeon RX 6800 XT 16GB GDDR6 Graphics Card - *IN HAND* Brand New Sealed</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1249.99</v>
+        <v>1199.99</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1249.99</v>
+        <v>1199.99</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44166</v>
+        <v>44170</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/154221279765?hash=item23e84dfa15:g:WBEAAOSwTB1fxccd</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-IN-HAND-Brand-New-Sealed/124472075641?hash=item1cfb1d2579:g:XboAAOSwEJdfyuLQ</t>
         </is>
       </c>
     </row>
@@ -769,29 +769,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAPPHIRE NITRO+ Radeon RX 6800 XT - SHIPS SAME DAY</t>
+          <t>NEW UNOPENED AMD Radeon RX 6800 XT - IN HAND - Ships ASAP W/ Receipt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1475</v>
+        <v>1200</v>
       </c>
       <c r="E11" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1488.65</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44166</v>
+        <v>44170</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-NITRO-Radeon-RX-6800-XT-SHIPS-SAME-DAY/363200164749?hash=item54906ab38d:g:mYAAAOSwiLVfwxaX</t>
+          <t>https://www.ebay.com/itm/NEW-UNOPENED-AMD-Radeon-RX-6800-XT-IN-HAND-Ships-ASAP-W-Receipt/143872198050?hash=item217f7385a2:g:ffQAAOSwg1lfymoL</t>
         </is>
       </c>
     </row>
@@ -810,20 +810,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E12" t="n">
         <v>13.65</v>
       </c>
       <c r="F12" t="n">
-        <v>1363.65</v>
+        <v>1338.65</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44166</v>
+        <v>44170</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-New-Sealed-Ships-Same-Day/363200150605?hash=item54906a7c4d:g:8mwAAOSwxFhfwxMT</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-New-Sealed-Ships-Same-Day/284096337664?hash=item4225761700:g:e14AAOSwSadfwafv</t>
         </is>
       </c>
     </row>
@@ -833,29 +833,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800xt 16GB GDDR6 Graphics Card</t>
+          <t>Radeon RX 6800 16GB GDDR6 Graphics Card In Hand</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · GIGABYTE · 16 GB</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1075</v>
+        <v>875</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>1105</v>
+        <v>890</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44166</v>
+        <v>44170</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800xt-16GB-GDDR6-Graphics-Card/143861842386?hash=item217ed581d2:g:UCIAAOSwh-RfvcSC</t>
+          <t>https://www.ebay.com/itm/Radeon-RX-6800-16GB-GDDR6-Graphics-Card-In-Hand/154227564700?epid=21042458995&amp;hash=item23e8ade09c:g:0NwAAOSwJF1fyqrT</t>
         </is>
       </c>
     </row>
@@ -865,29 +865,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>Asus AMD Radeon RX 6800xt Graphics Card 6800 XT - IN HAND SHIPS FREE &amp; FAST</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1239</v>
+        <v>1295</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1239</v>
+        <v>1295</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44166</v>
+        <v>44170</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324398663547?epid=20042698447&amp;hash=item4b87aac77b:g:UxkAAOSwxmJfxRhE</t>
+          <t>https://www.ebay.com/itm/Asus-AMD-Radeon-RX-6800xt-Graphics-Card-6800-XT-IN-HAND-SHIPS-FREE-FAST/324400510399?hash=item4b87c6f5bf:g:YTEAAOSwwoRfxtSM</t>
         </is>
       </c>
     </row>
@@ -897,29 +897,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Graphics Card - IN HAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1125</v>
+        <v>1249.99</v>
       </c>
       <c r="E15" t="n">
-        <v>10.2</v>
+        <v>16.91</v>
       </c>
       <c r="F15" t="n">
-        <v>1135.2</v>
+        <v>1266.9</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44166</v>
+        <v>44170</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/203204043580?hash=item2f4fe7a33c:g:2s8AAOSwxF5fxcjJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-IN-HAND/143872581646?hash=item217f79600e:g:tjEAAOSwhJJfyrUl</t>
         </is>
       </c>
     </row>
@@ -929,29 +929,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics card</t>
+          <t>AMD Radeon RX 6800 XT SAPPHIRE NITRO+ Video Card/Graphics Card - NEW, IN HAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1199</v>
+        <v>1350</v>
       </c>
       <c r="E16" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1209.9</v>
+        <v>1350</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224259416463?hash=item3436e7218f:g:oeYAAOSwSpNfxi9M</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-SAPPHIRE-NITRO-Video-Card-Graphics-Card-NEW-IN-HAND/264964581935?hash=item3db11eaa2f:g:adUAAOSwpsJfysJo</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reference AMD Radeon RX 6800 XT 16GB GDDR6 Sealed, In Hand - Ships Within 24h</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Graphics Card - Offer Open</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -970,20 +970,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1258.88</v>
+        <v>1250</v>
       </c>
       <c r="E17" t="n">
-        <v>18.95</v>
+        <v>9.9</v>
       </c>
       <c r="F17" t="n">
-        <v>1277.83</v>
+        <v>1259.9</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Reference-AMD-Radeon-RX-6800-XT-16GB-GDDR6-Sealed-In-Hand-Ships-Within-24h/154220925877?hash=item23e84893b5:g:cIgAAOSwvrRfxWdx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-Offer-Open/143872534047?hash=item217f78a61f:g:qMkAAOSwGqFfwuNE</t>
         </is>
       </c>
     </row>
@@ -993,29 +993,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AMD RX 6800XT 16GB SEALED NEW</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card 6800XT ON HAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1100</v>
+        <v>1175</v>
       </c>
       <c r="E18" t="n">
         <v>10.9</v>
       </c>
       <c r="F18" t="n">
-        <v>1110.9</v>
+        <v>1185.9</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800XT-16GB-SEALED-NEW/143861640050?hash=item217ed26b72:g:iKkAAOSwxAFfvXNH</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-6800XT-ON-HAND/293873561245?hash=item446c3aae9d:g:1bcAAOSw9MZfyXAq</t>
         </is>
       </c>
     </row>
@@ -1025,29 +1025,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>⚡Sapphire PULSE AMD Radeon RX 6800 XT Gaming Graphics Card IN HAND SHIPS FAST⚡</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IN HAND, NOT PREORDER, READY TO SHIP</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1379.99</v>
+        <v>1099</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1379.99</v>
+        <v>1099</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-PULSE-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-IN-HAND-SHIPS-FAST/284097361793?hash=item422585b781:g:1M0AAOSwB8xfwYTX</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324403740046?epid=20042698447&amp;hash=item4b87f83d8e:g:UxkAAOSwxmJfxRhE</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>✅ Sapphire AMD Radeon RX 6800 XT Graphics Card ✅IN HAND🔥Fast Shipping!🔥SEALED</t>
+          <t>SAPPHIRE NITRO+ AMD Radeon RX 6800 XT Video Card - NEW, IN HAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1066,20 +1066,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1247.88</v>
+        <v>1349</v>
       </c>
       <c r="E20" t="n">
-        <v>28.88</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>1276.76</v>
+        <v>1372</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-Fast-Shipping-SEALED/293868150338?hash=item446be81e42:g:QaAAAOSw8XRfxWGo</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-NITRO-AMD-Radeon-RX-6800-XT-Video-Card-NEW-IN-HAND/333813868844?hash=item4db8db692c:g:28gAAOSw84lfyriF</t>
         </is>
       </c>
     </row>
@@ -1089,29 +1089,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G. Brand New</t>
+          <t>Radeon RX 6800 16GB GDDR6 Graphics Card In Hand</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · GIGABYTE · 16 GB</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1425</v>
+        <v>990</v>
       </c>
       <c r="E21" t="n">
-        <v>28.95</v>
+        <v>10.9</v>
       </c>
       <c r="F21" t="n">
-        <v>1453.95</v>
+        <v>1000.9</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-Brand-New/174535238915?hash=item28a31c6503:g:a4MAAOSwuklfv~7L</t>
+          <t>https://www.ebay.com/itm/Radeon-RX-6800-16GB-GDDR6-Graphics-Card-In-Hand/193770118132?epid=21042458995&amp;hash=item2d1d995bf4:g:yNEAAOSwvBVfwVbG</t>
         </is>
       </c>
     </row>
@@ -1121,29 +1121,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
+          <t>ASUS Liquid Cooled 6800XT ROG-STRIX-LC-RX6800XT-O16G-GAMING - Confirmed Preorder</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1195</v>
+        <v>1325</v>
       </c>
       <c r="E22" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1207.8</v>
+        <v>1325</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203200991282?hash=item2f4fb91032:g:yhoAAOSwdtxfwCbq</t>
+          <t>https://www.ebay.com/itm/ASUS-Liquid-Cooled-6800XT-ROG-STRIX-LC-RX6800XT-O16G-GAMING-Confirmed-Preorder/393040694274?hash=item5b830d0c02:g:x6AAAOSw~JhfyAKf</t>
         </is>
       </c>
     </row>
@@ -1153,29 +1153,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 XT Graphics Card ✅ Ships Same-Day ✅</t>
+          <t>SAPPHIRE NITRO+ AMD Radeon RX 6800 XT Video Card - NEW, IN HAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Boost Clock: Up to 2360 MHz, Game Clock: Up to 2110 MHz</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1299</v>
+        <v>1349</v>
       </c>
       <c r="E23" t="n">
-        <v>12.26</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>1311.26</v>
+        <v>1372</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Graphics-Card-Ships-Same-Day/124466086237?hash=item1cfac1c15d:g:zIMAAOSwNDNfxZCW</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-NITRO-AMD-Radeon-RX-6800-XT-Video-Card-NEW-IN-HAND/333813675510?hash=item4db8d875f6:g:ZFQAAOSw37tfylbV</t>
         </is>
       </c>
     </row>
@@ -1185,29 +1185,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB GDDR6 HDMI DisplayPort USB-C</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1125</v>
+        <v>1399.99</v>
       </c>
       <c r="E24" t="n">
-        <v>26.27</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1151.27</v>
+        <v>1399.99</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788451977?hash=item3b52933e89:g:j44AAOSwwoRfvTql</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB-GDDR6-HDMI-DisplayPort-USB-C/284093696862?hash=item42254dcb5e:g:recAAOSwsttfyHuY</t>
         </is>
       </c>
     </row>
@@ -1217,29 +1217,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NEW ASRock Radeon RX 6800 XT Graphics Card 16GB GDDR6 SHIPPED NEWEGG ORDER</t>
+          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="E25" t="n">
-        <v>10.9</v>
+        <v>9.81</v>
       </c>
       <c r="F25" t="n">
-        <v>1135.9</v>
+        <v>1009.81</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-ASRock-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-SHIPPED-NEWEGG-ORDER/363193529483?hash=item549005748b:g:3b0AAOSwz7JfvSS1</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/174544896534?hash=item28a3afc216:g:WPYAAOSwIwtfvdtL</t>
         </is>
       </c>
     </row>
@@ -1249,29 +1249,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics card</t>
+          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - NEW *ORDER CONFIRMED*</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1100</v>
+        <v>879.99</v>
       </c>
       <c r="E26" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1110.9</v>
+        <v>879.99</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224247584997?hash=item34363298e5:g:pGwAAOSwutVfut4M</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-NEW-ORDER-CONFIRMED/333811968617?epid=7042570008&amp;hash=item4db8be6a69:g:IWkAAOSwwoRfyG0P</t>
         </is>
       </c>
     </row>
@@ -1281,29 +1281,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 XT</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card IN HAND!!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1375</v>
+        <v>1275</v>
       </c>
       <c r="E27" t="n">
-        <v>9.9</v>
+        <v>29.99</v>
       </c>
       <c r="F27" t="n">
-        <v>1384.9</v>
+        <v>1304.99</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT/353290445696?hash=item5241c06380:g:bdoAAOSw-tBfvFoJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND/393029441780?hash=item5b826158f4:g:7YcAAOSwAiVfvHNf</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIG NAVI ASUS Radeon RX 6800XT 16GB 256-Bit GDDR6 PCI Express 4.0 Video Card</t>
+          <t>ASUS TUF RX6800XT O16G GAMING AMD RX 6800 XT PCIE 4.0 16GB GDDR6 HDMI 2.1 Radeon</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1322,20 +1322,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1235</v>
+        <v>1150</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BIG-NAVI-ASUS-Radeon-RX-6800XT-16GB-256-Bit-GDDR6-PCI-Express-4-0-Video-Card/184550015030?hash=item2af809c036:g:1C8AAOSwmGNfvFGK</t>
+          <t>https://www.ebay.com/itm/ASUS-TUF-RX6800XT-O16G-GAMING-AMD-RX-6800-XT-PCIE-4-0-16GB-GDDR6-HDMI-2-1-Radeon/174544718705?hash=item28a3ad0b71:g:5hkAAOSw2CNfwtss</t>
         </is>
       </c>
     </row>
@@ -1345,29 +1345,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G DirectX 12 GPU - SEALED - IN HAND - Ready To Ship</t>
+          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT New/Sealed - Ships FAST *10yr seller</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1175</v>
+        <v>1339</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F29" t="n">
-        <v>1195</v>
+        <v>1396</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-DirectX-12-GPU-SEALED-IN-HAND-Ready-To-Ship/203194053285?hash=item2f4f4f32a5:g:Sw4AAOSwTnpfvFMu</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-New-Sealed-Ships-FAST-10yr-seller/284103167228?hash=item4225de4cfc:g:RxwAAOSw061fyZWL</t>
         </is>
       </c>
     </row>
@@ -1377,29 +1377,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AMD Reference Radeon RX 6800 XT 16GB GDDR6 Graphics Card - In Hand - Ships Fast!</t>
+          <t>⚡Sapphire PULSE AMD Radeon RX 6800 XT Gaming Graphics Card IN HAND SHIPS FAST⚡</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>IN HAND, NOT PREORDER, READY TO SHIP</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1240</v>
+        <v>1379.99</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1250</v>
+        <v>1379.99</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-In-Hand-Ships-Fast/293867082312?hash=item446bd7d248:g:niIAAOSwHpZfxYci</t>
+          <t>https://www.ebay.com/itm/Sapphire-PULSE-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-IN-HAND-SHIPS-FAST/284097361793?hash=item422585b781:g:1M0AAOSwB8xfwYTX</t>
         </is>
       </c>
     </row>
@@ -1409,29 +1409,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IN HAND Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA</t>
+          <t>XFX Speedster MERC319 RX 6800 XT 16GB GDDR6 AMD Graphics Card</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1239.99</v>
+        <v>1249.99</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1239.99</v>
+        <v>1249.99</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA/114544918409?hash=item1aab68bf89:g:XDsAAOSwbs5fvsG6</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-RX-6800-XT-16GB-GDDR6-AMD-Graphics-Card/114556656761?epid=28042879418&amp;hash=item1aac1bdc79:g:7mAAAOSwmOhfyWvs</t>
         </is>
       </c>
     </row>
@@ -1441,29 +1441,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 IN HAND</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="E32" t="n">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1285.95</v>
+        <v>1260</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-IN-HAND/154209274987?hash=item23e796cc6b:g:cOwAAOSweNBfu9S4</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/383840301033?hash=item595eaa2fe9:g:RfgAAOSw7Cdfx9He</t>
         </is>
       </c>
     </row>
@@ -1473,29 +1473,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - Ships same day immediately.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Open Box · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1300</v>
+        <v>999</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1300</v>
+        <v>999</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/402582098694?hash=item5dbbc35306:g:dJMAAOSwYFpfwnU4</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-Ships-same-day-immediately/114554789717?epid=7042570008&amp;hash=item1aabff5f55:g:gR4AAOSwcuVfyE0C</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>🔥Sapphire AMD Radeon RX 6800 XT 6800XT REFERENCE🔥In Hand🔥Ships Same Day🔥</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1225</v>
+        <v>1298.98</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1250</v>
+        <v>1298.98</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/284099087926?hash=item4225a00e36:g:rFYAAOSwl3xfxTlk</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-6800XT-REFERENCE-In-Hand-Ships-Same-Day/324402545957?hash=item4b87e60525:g:v4oAAOSw8JRfyEgc</t>
         </is>
       </c>
     </row>
@@ -1546,20 +1546,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1249.99</v>
+        <v>1260</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1249.99</v>
+        <v>1260</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/303776474432?hash=item46ba7d2540:g:WroAAOSwntBfwbmY</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/383839235401?hash=item595e99ed49:g:RfgAAOSw7Cdfx9He</t>
         </is>
       </c>
     </row>
@@ -1569,29 +1569,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND</t>
+          <t>Sapphire Radeon RX 6800xt 16GB GDDR6 Graphics Card Sealed And Ready To Ship!</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1250</v>
+        <v>1040</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>19.95</v>
       </c>
       <c r="F36" t="n">
-        <v>1280</v>
+        <v>1059.95</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND/303787665689?hash=item46bb27e919:g:R8EAAOSw4z5fwq~4</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800xt-16GB-GDDR6-Graphics-Card-Sealed-And-Ready-To-Ship/143869396241?hash=item217f48c511:g:kwUAAOSwCFFfxVPy</t>
         </is>
       </c>
     </row>
@@ -1601,29 +1601,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t xml:space="preserve">XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB - Sealed/New in box/In Hand </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1199</v>
+        <v>1299</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>1199</v>
+        <v>1324</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324398103168?epid=20042698447&amp;hash=item4b87a23a80:g:UxkAAOSwxmJfxRhE</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB-Sealed-New-in-box-In-Hand/114554489317?hash=item1aabfac9e5:g:BVoAAOSwZRxfyA-m</t>
         </is>
       </c>
     </row>
@@ -1633,29 +1633,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB VRAM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Open Box · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1399.99</v>
+        <v>1425</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>18.95</v>
       </c>
       <c r="F38" t="n">
-        <v>1399.99</v>
+        <v>1443.95</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393035271715?hash=item5b82ba4e23:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-VRAM/164547373489?hash=item264fc9a9b1:g:uTgAAOSw-u9fxDFW</t>
         </is>
       </c>
     </row>
@@ -1665,29 +1665,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>XFX AMD Radeon RX 6800XT 16GB GDDR6 PCI Express 4.0 Gaming Graphics Card</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="E39" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1261.3</v>
+        <v>1100</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/143867544354?hash=item217f2c8322:g:U8kAAOSwcW9fvfIz</t>
+          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800XT-16GB-GDDR6-PCI-Express-4-0-Gaming-Graphics-Card/254796450274?hash=item3b530d49e2:g:AEgAAOSwJ9Rfx8IH</t>
         </is>
       </c>
     </row>
@@ -1697,29 +1697,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT 16GB GDDR6 Graphics Card - Ships Now - Priority Ship!</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *IN HAND AND SHIPS ASAP*</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1239</v>
+        <v>1094</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>92.20999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>1239</v>
+        <v>1186.21</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-Ships-Now-Priority-Ship/284098384330?hash=item42259551ca:g:AIwAAOSwfDRfxFSx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-AND-SHIPS-ASAP/254793535461?hash=item3b52e0cfe5:g:MJEAAOSwPjZfw~tx</t>
         </is>
       </c>
     </row>
@@ -1729,29 +1729,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Powercolor 16GB GDDR6 VRAM </t>
+          <t>AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1325</v>
+        <v>1300</v>
       </c>
       <c r="E41" t="n">
-        <v>13.95</v>
+        <v>14.4</v>
       </c>
       <c r="F41" t="n">
-        <v>1338.95</v>
+        <v>1314.4</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Powercolor-16GB-GDDR6-VRAM/143859666459?hash=item217eb44e1b:g:KVEAAOSw2V5fu9hD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/164552060938?hash=item265011300a:g:13EAAOSwHVVfxyWx</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1770,20 +1770,20 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1299</v>
+        <v>1050</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1299</v>
+        <v>1050</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/143866812794?hash=item217f21597a:g:7VQAAOSwfGhfxACU</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/184563019396?hash=item2af8d02e84:g:AScAAOSwsKxfx9GH</t>
         </is>
       </c>
     </row>
@@ -1793,29 +1793,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT RDNA 2</t>
+          <t>XFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Amazon Confirmed order ETA to me Thursday 12/3.</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1298</v>
+        <v>1349.99</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>16.91</v>
       </c>
       <c r="F43" t="n">
-        <v>1298</v>
+        <v>1366.9</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-RDNA-2/254789556123?hash=item3b52a4179b:g:D6wAAOSwZDdfvpu6</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/133594969175?hash=item1f1ae17457:g:SKQAAOSwJfRfx8pY</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>ASRock AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1834,20 +1834,20 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1289.99</v>
+        <v>1100</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F44" t="n">
-        <v>1289.99</v>
+        <v>1114.4</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44165</v>
+        <v>44167</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/164547121698?hash=item264fc5d222:g:uH8AAOSwTPRfxAmV</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT/143866622982?hash=item217f1e7406:g:2BEAAOSwuDBfw9c6</t>
         </is>
       </c>
     </row>
@@ -1857,29 +1857,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card. Same day shipping</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Open Box · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1298.99</v>
+        <v>1050</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="F45" t="n">
-        <v>1298.99</v>
+        <v>1061.75</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44164</v>
+        <v>44167</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/264957547756?hash=item3db0b354ec:g:wLYAAOSwzDxfxBUM</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Same-day-shipping/224255729122?hash=item3436aedde2:g:RuQAAOSw2CNfw26X</t>
         </is>
       </c>
     </row>
@@ -1889,29 +1889,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>🔥 XFX Speedster MERC319 Radeon RX 6800XT IN HAND FAST SHIPPING NOW</t>
+          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1299</v>
+        <v>1195</v>
       </c>
       <c r="E46" t="n">
-        <v>67</v>
+        <v>9.81</v>
       </c>
       <c r="F46" t="n">
-        <v>1366</v>
+        <v>1204.81</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-FAST-SHIPPING-NOW/184557042657?hash=item2af874fbe1:g:UQMAAOSwnGlfwgvZ</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/174533016074?hash=item28a2fa7a0a:g:WPYAAOSwIwtfvdtL</t>
         </is>
       </c>
     </row>
@@ -1921,29 +1921,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800xt Graphics Card -- In Hand, ships fast</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1250</v>
+        <v>1249.99</v>
       </c>
       <c r="E47" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1260.9</v>
+        <v>1249.99</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800xt-Graphics-Card-In-Hand-ships-fast/124464197117?hash=item1cfaa4edfd:g:HzMAAOSwj-JfxD8e</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/154221279765?hash=item23e84dfa15:g:WBEAAOSwTB1fxccd</t>
         </is>
       </c>
     </row>
@@ -1953,29 +1953,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 RX-68TMATFD8 **IN HAND**</t>
+          <t>Sapphire Radeon RX 6800xt 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1220</v>
+        <v>1075</v>
       </c>
       <c r="E48" t="n">
-        <v>26.7</v>
+        <v>30</v>
       </c>
       <c r="F48" t="n">
-        <v>1246.7</v>
+        <v>1105</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-RX-68TMATFD8-IN-HAND/254791702686?hash=item3b52c4d89e:g:z~cAAOSwd7RfwttI</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800xt-16GB-GDDR6-Graphics-Card/143861842386?hash=item217ed581d2:g:UCIAAOSwh-RfvcSC</t>
         </is>
       </c>
     </row>
@@ -1985,29 +1985,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card. New In Box, Sealed And Ready To Ship 6800XT</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1198.43</v>
+        <v>1125</v>
       </c>
       <c r="E49" t="n">
-        <v>39.84</v>
+        <v>10.2</v>
       </c>
       <c r="F49" t="n">
-        <v>1238.27</v>
+        <v>1135.2</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-New-In-Box-Sealed-And-Ready-To-Ship-6800XT/114535368860?hash=item1aaad7089c:g:gogAAOSwHrtfus8j</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/203204043580?hash=item2f4fe7a33c:g:2s8AAOSwxF5fxcjJ</t>
         </is>
       </c>
     </row>
@@ -2017,29 +2017,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>AMD Radeon RX 6800 XT Graphics card</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1326</v>
+        <v>1199</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F50" t="n">
-        <v>1326</v>
+        <v>1209.9</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/114542864508?hash=item1aab49687c:g:kQAAAOSwJKJfuYPw</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224259416463?hash=item3436e7218f:g:oeYAAOSwSpNfxi9M</t>
         </is>
       </c>
     </row>
@@ -2049,29 +2049,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>Reference AMD Radeon RX 6800 XT 16GB GDDR6 Sealed, In Hand - Ships Within 24h</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1200</v>
+        <v>1258.88</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>18.95</v>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>1277.83</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44164</v>
+        <v>44166</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324394051445?hash=item4b87646775:g:GCcAAOSwzl9fwpRB</t>
+          <t>https://www.ebay.com/itm/Reference-AMD-Radeon-RX-6800-XT-16GB-GDDR6-Sealed-In-Hand-Ships-Within-24h/154220925877?hash=item23e84893b5:g:cIgAAOSwvrRfxWdx</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16 GB GDDR6 PCIe 4.0 Graphics Video Card - In Hand</t>
+          <t>AMD RX 6800XT 16GB SEALED NEW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2090,20 +2090,20 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1249.99</v>
+        <v>1100</v>
       </c>
       <c r="E52" t="n">
-        <v>19.99</v>
+        <v>10.9</v>
       </c>
       <c r="F52" t="n">
-        <v>1269.98</v>
+        <v>1110.9</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16-GB-GDDR6-PCIe-4-0-Graphics-Video-Card-In-Hand/164545276209?hash=item264fa9a931:g:Q9YAAOSwwoRfwrOE</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800XT-16GB-SEALED-NEW/143861640050?hash=item217ed26b72:g:iKkAAOSwxAFfvXNH</t>
         </is>
       </c>
     </row>
@@ -2113,29 +2113,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU FREE SHIPPING IN HAND</t>
+          <t>✅ Sapphire AMD Radeon RX 6800 XT Graphics Card ✅IN HAND🔥Fast Shipping!🔥SEALED</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1249.99</v>
+        <v>1247.88</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>28.88</v>
       </c>
       <c r="F53" t="n">
-        <v>1249.99</v>
+        <v>1276.76</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-FREE-SHIPPING-IN-HAND/154206794371?hash=item23e770f283:g:rrMAAOSwIWtfucOk</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Graphics-Card-IN-HAND-Fast-Shipping-SEALED/293868150338?hash=item446be81e42:g:QaAAAOSw8XRfxWGo</t>
         </is>
       </c>
     </row>
@@ -2145,29 +2145,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t>MSI Radeon RX 6800 XT 16G. Brand New</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1050</v>
+        <v>1425</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
       <c r="F54" t="n">
-        <v>1050</v>
+        <v>1453.95</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324395427149?hash=item4b8779654d:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-Brand-New/174535238915?hash=item28a31c6503:g:a4MAAOSwuklfv~7L</t>
         </is>
       </c>
     </row>
@@ -2177,29 +2177,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1250</v>
+        <v>1195</v>
       </c>
       <c r="E55" t="n">
-        <v>12.04</v>
+        <v>12.8</v>
       </c>
       <c r="F55" t="n">
-        <v>1262.04</v>
+        <v>1207.8</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303782496130?hash=item46bad90782:g:pigAAOSwZYFftwlG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203200991282?hash=item2f4fb91032:g:yhoAAOSwdtxfwCbq</t>
         </is>
       </c>
     </row>
@@ -2209,29 +2209,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Sealed NIB, Fast Ship</t>
+          <t>SAPPHIRE Radeon RX 6800 XT Graphics Card ✅ Ships Same-Day ✅</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1299</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>12.26</v>
       </c>
       <c r="F56" t="n">
-        <v>1299</v>
+        <v>1311.26</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Sealed-NIB-Fast-Ship/114545229365?hash=item1aab6d7e35:g:tr0AAOSw9Q9fuUYk</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Graphics-Card-Ships-Same-Day/124466086237?hash=item1cfac1c15d:g:zIMAAOSwNDNfxZCW</t>
         </is>
       </c>
     </row>
@@ -2241,29 +2241,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1275</v>
+        <v>1125</v>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>26.27</v>
       </c>
       <c r="F57" t="n">
-        <v>1300</v>
+        <v>1151.27</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB/114543415990?hash=item1aab51d2b6:g:IxcAAOSwYV5fwFbA</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788451977?hash=item3b52933e89:g:j44AAOSwwoRfvTql</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>asrock amd radeon rx 6800xt graphics card in hand ships asap</t>
+          <t>NEW ASRock Radeon RX 6800 XT Graphics Card 16GB GDDR6 SHIPPED NEWEGG ORDER</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2282,20 +2282,20 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1300</v>
+        <v>1125</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F58" t="n">
-        <v>1300</v>
+        <v>1135.9</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/asrock-amd-radeon-rx-6800xt-graphics-card-in-hand-ships-asap/284096325283?hash=item422575e6a3:g:Wx4AAOSwPktfwaMP</t>
+          <t>https://www.ebay.com/itm/NEW-ASRock-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-SHIPPED-NEWEGG-ORDER/363193529483?hash=item549005748b:g:3b0AAOSwz7JfvSS1</t>
         </is>
       </c>
     </row>
@@ -2305,29 +2305,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>asus amd radeon rx 6800xt graphics card</t>
+          <t>AMD Radeon RX 6800 XT Graphics card</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brand New · ASUS · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F59" t="n">
-        <v>1300</v>
+        <v>1110.9</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44163</v>
+        <v>44166</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/asus-amd-radeon-rx-6800xt-graphics-card/284096324723?hash=item422575e473:g:3S4AAOSwv7xfwaJT</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-card/224247584997?hash=item34363298e5:g:pGwAAOSwutVfut4M</t>
         </is>
       </c>
     </row>
@@ -2337,29 +2337,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT 🔥IN HAND SAME DAY FREE 2 DAY AIR SHIP🔥</t>
+          <t>BIG NAVI ASUS Radeon RX 6800XT 16GB 256-Bit GDDR6 PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1299.99</v>
+        <v>1200</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F60" t="n">
-        <v>1299.99</v>
+        <v>1235</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44163</v>
+        <v>44165</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-SAME-DAY-FREE-2-DAY-AIR-SHIP/254791879805?hash=item3b52c78c7d:g:XOUAAOSwUu5fwZrW</t>
+          <t>https://www.ebay.com/itm/BIG-NAVI-ASUS-Radeon-RX-6800XT-16GB-256-Bit-GDDR6-PCI-Express-4-0-Video-Card/184550015030?hash=item2af809c036:g:1C8AAOSwmGNfvFGK</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16GB</t>
+          <t>MSI Radeon RX 6800 XT 16G DirectX 12 GPU - SEALED - IN HAND - Ready To Ship</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2378,20 +2378,20 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="E61" t="n">
-        <v>22.92</v>
+        <v>20</v>
       </c>
       <c r="F61" t="n">
-        <v>1222.92</v>
+        <v>1195</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44163</v>
+        <v>44165</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16GB/274593069418?hash=item3fef05b96a:g:kxAAAOSw8-hfwgDi</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-DirectX-12-GPU-SEALED-IN-HAND-Ready-To-Ship/203194053285?hash=item2f4f4f32a5:g:Sw4AAOSwTnpfvFMu</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>AMD Reference Radeon RX 6800 XT 16GB GDDR6 Graphics Card - In Hand - Ships Fast!</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2410,20 +2410,20 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1299.99</v>
+        <v>1240</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>1299.99</v>
+        <v>1250</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393033244325?hash=item5b829b5ea5:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-In-Hand-Ships-Fast/293867082312?hash=item446bd7d248:g:niIAAOSwHpZfxYci</t>
         </is>
       </c>
     </row>
@@ -2433,29 +2433,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT</t>
+          <t>IN HAND Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1300</v>
+        <v>1239.99</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1320</v>
+        <v>1239.99</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/203195578527?hash=item2f4f66789f:g:13IAAOSwq69fvcga</t>
+          <t>https://www.ebay.com/itm/IN-HAND-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA/114544918409?hash=item1aab68bf89:g:XDsAAOSwbs5fvsG6</t>
         </is>
       </c>
     </row>
@@ -2465,29 +2465,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800XT (IN HAND. Ships same business day)</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 IN HAND</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1170</v>
+        <v>1275</v>
       </c>
       <c r="E64" t="n">
-        <v>25</v>
+        <v>10.95</v>
       </c>
       <c r="F64" t="n">
-        <v>1195</v>
+        <v>1285.95</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT-IN-HAND-Ships-same-business-day/313319946898?hash=item48f352fa92:g:N~0AAOSwbHpfwXA6</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-IN-HAND/154209274987?hash=item23e796cc6b:g:cOwAAOSweNBfu9S4</t>
         </is>
       </c>
     </row>
@@ -2497,29 +2497,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Open Box · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1250</v>
+        <v>1300</v>
       </c>
       <c r="E65" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1259.9</v>
+        <v>1300</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/363195744716?hash=item54902741cc:g:890AAOSw2PVfv16E</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/402582098694?hash=item5dbbc35306:g:dJMAAOSwYFpfwnU4</t>
         </is>
       </c>
     </row>
@@ -2529,29 +2529,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT16GB GDDR6, in hand ready to ship</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1200</v>
+        <v>1225</v>
       </c>
       <c r="E66" t="n">
-        <v>11.99</v>
+        <v>25</v>
       </c>
       <c r="F66" t="n">
-        <v>1211.99</v>
+        <v>1250</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-in-hand-ready-to-ship/324385993987?hash=item4b86e97503:g:YWgAAOSwHeVfu0Il</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/284099087926?hash=item4225a00e36:g:rFYAAOSwl3xfxTlk</t>
         </is>
       </c>
     </row>
@@ -2561,29 +2561,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GIGABYTE Radeon RX 6800 XT AMD Graphics Card IN HAND🖐🏽 FREE SHIPPING 🚚</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Brand New · GIGABYTE · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1247.99</v>
+        <v>1249.99</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1247.99</v>
+        <v>1249.99</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-XT-AMD-Graphics-Card-IN-HAND-FREE-SHIPPING/324390948490?epid=21042458995&amp;hash=item4b87350e8a:g:62EAAOSwrOlfvvFK</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/303776474432?hash=item46ba7d2540:g:WroAAOSwntBfwbmY</t>
         </is>
       </c>
     </row>
@@ -2593,29 +2593,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1150</v>
+        <v>1250</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F68" t="n">
-        <v>1150</v>
+        <v>1280</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164541704842?hash=item264f732a8a:g:q68AAOSw~JNfu-3N</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND/303787665689?hash=item46bb27e919:g:R8EAAOSw4z5fwq~4</t>
         </is>
       </c>
     </row>
@@ -2625,29 +2625,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT - In Hand - New/Sealed - Ships Fast</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-In-Hand-New-Sealed-Ships-Fast/333804983876?hash=item4db853d644:g:cwgAAOSwhSNfwWuW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324398103168?epid=20042698447&amp;hash=item4b87a23a80:g:UxkAAOSwxmJfxRhE</t>
         </is>
       </c>
     </row>
@@ -2657,29 +2657,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AMD Radeon™ RX 6800 XT Graphics 16GB DDR6 ⭐️IN HAND - FAST FREE SHIPPING⭐️</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Experienced seller, 100% feedback.</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1274.98</v>
+        <v>1399.99</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1274.98</v>
+        <v>1399.99</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-16GB-DDR6-IN-HAND-FAST-FREE-SHIPPING/184556252005?hash=item2af868eb65:g:pDUAAOSwMJZfwU-5</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393035271715?hash=item5b82ba4e23:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -2689,29 +2689,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>XFX AMD Radeon RX 6800 XT RX-68XTACBD9 16GB GDDR6 Video Card</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1275</v>
+        <v>1250</v>
       </c>
       <c r="E71" t="n">
-        <v>38.15</v>
+        <v>11.3</v>
       </c>
       <c r="F71" t="n">
-        <v>1313.15</v>
+        <v>1261.3</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-XT-RX-68XTACBD9-16GB-GDDR6-Video-Card/333803943209?hash=item4db843f529:g:hRAAAOSwwz1fvm5c</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/143867544354?hash=item217f2c8322:g:U8kAAOSwcW9fvfIz</t>
         </is>
       </c>
     </row>
@@ -2721,29 +2721,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT Founders Edition</t>
+          <t>ASRock Radeon RX 6800 XT 16GB GDDR6 Graphics Card - Ships Now - Priority Ship!</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1000</v>
+        <v>1239</v>
       </c>
       <c r="E72" t="n">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1013.1</v>
+        <v>1239</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-Founders-Edition/313319990958?hash=item48f353a6ae:g:H38AAOSwNTZfwXgB</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-16GB-GDDR6-Graphics-Card-Ships-Now-Priority-Ship/284098384330?hash=item42259551ca:g:AIwAAOSwfDRfxFSx</t>
         </is>
       </c>
     </row>
@@ -2753,29 +2753,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Powercolor 16GB GDDR6 VRAM </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1225</v>
+        <v>1325</v>
       </c>
       <c r="E73" t="n">
-        <v>12.8</v>
+        <v>13.95</v>
       </c>
       <c r="F73" t="n">
-        <v>1237.8</v>
+        <v>1338.95</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203198493735?hash=item2f4f92f427:g:yhoAAOSwdtxfwCbq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Powercolor-16GB-GDDR6-VRAM/143859666459?hash=item217eb44e1b:g:KVEAAOSw2V5fu9hD</t>
         </is>
       </c>
     </row>
@@ -2785,29 +2785,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 ASRock CONFIRMED ORDER SHIPS ASAP</t>
+          <t>XFX Speedster MERC 319 AMD RADEON RX 6800 XT GRAPHICS / VIDEO CARD RDNA 2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1280</v>
+        <v>1299</v>
       </c>
       <c r="E74" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-ASRock-CONFIRMED-ORDER-SHIPS-ASAP/333802737851?hash=item4db83190bb:g:~QYAAOSwh-dfv0cR</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC-319-AMD-RADEON-RX-6800-XT-GRAPHICS-VIDEO-CARD-RDNA-2/143866812794?hash=item217f21597a:g:7VQAAOSwfGhfxACU</t>
         </is>
       </c>
     </row>
@@ -2817,29 +2817,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT</t>
+          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT RDNA 2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Open Box · AMD · 16 GB</t>
+          <t>Amazon Confirmed order ETA to me Thursday 12/3.</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1350</v>
+        <v>1298</v>
       </c>
       <c r="E75" t="n">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1361.75</v>
+        <v>1298</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/333800982143?hash=item4db816c67f:g:3PoAAOSwk8pfvWiV</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-RDNA-2/254789556123?hash=item3b52a4179b:g:D6wAAOSwZDdfvpu6</t>
         </is>
       </c>
     </row>
@@ -2849,29 +2849,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1158</v>
+        <v>1289.99</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1158</v>
+        <v>1289.99</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44162</v>
+        <v>44165</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324393412518?epid=20042698447&amp;hash=item4b875aa7a6:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/164547121698?hash=item264fc5d222:g:uH8AAOSwTPRfxAmV</t>
         </is>
       </c>
     </row>
@@ -2881,29 +2881,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1000</v>
+        <v>1298.99</v>
       </c>
       <c r="E77" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1015.4</v>
+        <v>1298.99</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44162</v>
+        <v>44164</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295545464?hash=item52420e3478:g:qn8AAOSw0vBfwTLv</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/264957547756?hash=item3db0b354ec:g:wLYAAOSwzDxfxBUM</t>
         </is>
       </c>
     </row>
@@ -2913,29 +2913,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
+          <t>🔥 XFX Speedster MERC319 Radeon RX 6800XT IN HAND FAST SHIPPING NOW</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1000</v>
+        <v>1299</v>
       </c>
       <c r="E78" t="n">
-        <v>15.4</v>
+        <v>67</v>
       </c>
       <c r="F78" t="n">
-        <v>1015.4</v>
+        <v>1366</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44162</v>
+        <v>44164</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295502895?hash=item52420d8e2f:g:qn8AAOSw0vBfwTLv</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-FAST-SHIPPING-NOW/184557042657?hash=item2af874fbe1:g:UQMAAOSwnGlfwgvZ</t>
         </is>
       </c>
     </row>
@@ -2945,29 +2945,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>ASRock AMD Radeon RX 6800xt Graphics Card -- In Hand, ships fast</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1170</v>
+        <v>1250</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F79" t="n">
-        <v>1170</v>
+        <v>1260.9</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44161</v>
+        <v>44164</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324392454094?epid=20042698447&amp;hash=item4b874c07ce:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800xt-Graphics-Card-In-Hand-ships-fast/124464197117?hash=item1cfaa4edfd:g:HzMAAOSwj-JfxD8e</t>
         </is>
       </c>
     </row>
@@ -2977,29 +2977,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 RX-68TMATFD8 **IN HAND**</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1070</v>
+        <v>1220</v>
       </c>
       <c r="E80" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1095.9</v>
+        <v>1246.7</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44161</v>
+        <v>44164</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING/284091919528?hash=item422532aca8:g:1jcAAOSwVWVftwf8</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-RX-68TMATFD8-IN-HAND/254791702686?hash=item3b52c4d89e:g:z~cAAOSwd7RfwttI</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card. New In Box, Sealed And Ready To Ship 6800XT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3018,20 +3018,20 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1299.99</v>
+        <v>1198.43</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>39.84</v>
       </c>
       <c r="F81" t="n">
-        <v>1299.99</v>
+        <v>1238.27</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44161</v>
+        <v>44164</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393031567580?hash=item5b8281c8dc:g:-GYAAOSwFWVfvohV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-New-In-Box-Sealed-And-Ready-To-Ship-6800XT/114535368860?hash=item1aaad7089c:g:gogAAOSwHrtfus8j</t>
         </is>
       </c>
     </row>
@@ -3041,29 +3041,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800XT Video Graphics Card GPU New Sealed</t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1200</v>
+        <v>1326</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1220</v>
+        <v>1326</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44161</v>
+        <v>44164</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-Video-Graphics-Card-GPU-New-Sealed/333795119473?hash=item4db7bd5171:g:qsIAAOSwDRZftqAF</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/114542864508?hash=item1aab49687c:g:kQAAAOSwJKJfuYPw</t>
         </is>
       </c>
     </row>
@@ -3073,29 +3073,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1099</v>
+        <v>1200</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1099</v>
+        <v>1200</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44161</v>
+        <v>44164</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324391817705?epid=20042698447&amp;hash=item4b874251e9:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324394051445?hash=item4b87646775:g:GCcAAOSwzl9fwpRB</t>
         </is>
       </c>
     </row>
@@ -3105,29 +3105,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK GPU *CONFIRMED &amp; SHIPPED ORDER*</t>
+          <t>AMD Radeon RX 6800 XT 16 GB GDDR6 PCIe 4.0 Graphics Video Card - In Hand</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1299.99</v>
+        <v>1249.99</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="F84" t="n">
-        <v>1299.99</v>
+        <v>1269.98</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-GPU-CONFIRMED-SHIPPED-ORDER/324391148332?hash=item4b87381b2c:g:jeMAAOSwuN5fvyTz</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16-GB-GDDR6-PCIe-4-0-Graphics-Video-Card-In-Hand/164545276209?hash=item264fa9a931:g:Q9YAAOSwwoRfwrOE</t>
         </is>
       </c>
     </row>
@@ -3137,29 +3137,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU FREE SHIPPING IN HAND</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1826.01</v>
+        <v>1249.99</v>
       </c>
       <c r="E85" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1838.26</v>
+        <v>1249.99</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124457758751?epid=18042593571&amp;hash=item1cfa42b01f:g:PBkAAOSwbQRfttAo</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-FREE-SHIPPING-IN-HAND/154206794371?hash=item23e770f283:g:rrMAAOSwIWtfucOk</t>
         </is>
       </c>
     </row>
@@ -3169,29 +3169,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB IN HAND SHIPS FAST</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1199</v>
+        <v>1050</v>
       </c>
       <c r="E86" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1208.9</v>
+        <v>1050</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-IN-HAND-SHIPS-FAST/174534969896?hash=item28a3184a28:g:z8cAAOSwyPhfuqGx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324395427149?hash=item4b8779654d:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -3201,29 +3201,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMD MSI Radeon RX 6800 XT 16GB GDDR6 Reference Model BRAND NEW!!!</t>
+          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1055.99</v>
+        <v>1250</v>
       </c>
       <c r="E87" t="n">
-        <v>60</v>
+        <v>12.04</v>
       </c>
       <c r="F87" t="n">
-        <v>1115.99</v>
+        <v>1262.04</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-XT-16GB-GDDR6-Reference-Model-BRAND-NEW/254789930283?epid=20042698447&amp;hash=item3b52a9cd2b:g:U1UAAOSw8pFfvxtB</t>
+          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303782496130?hash=item46bad90782:g:pigAAOSwZYFftwlG</t>
         </is>
       </c>
     </row>
@@ -3233,29 +3233,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Sealed NIB, Fast Ship</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164532349030?hash=item264ee46866:g:q68AAOSw~JNfu-3N</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Sealed-NIB-Fast-Ship/114545229365?hash=item1aab6d7e35:g:tr0AAOSw9Q9fuUYk</t>
         </is>
       </c>
     </row>
@@ -3265,29 +3265,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800XT</t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK 16GB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1050</v>
+        <v>1275</v>
       </c>
       <c r="E89" t="n">
         <v>25</v>
       </c>
       <c r="F89" t="n">
-        <v>1075</v>
+        <v>1300</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT/313317342296?hash=item48f32b3c58:i:313317342296</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-16GB/114543415990?hash=item1aab51d2b6:g:IxcAAOSwYV5fwFbA</t>
         </is>
       </c>
     </row>
@@ -3297,29 +3297,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RADEON SAPPHIRE RX6800XT</t>
+          <t>asrock amd radeon rx 6800xt graphics card in hand ships asap</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1220</v>
+        <v>1300</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/RADEON-SAPPHIRE-RX6800XT/233797158586?hash=item366f6586ba:g:jNsAAOSwtllfvIko</t>
+          <t>https://www.ebay.com/itm/asrock-amd-radeon-rx-6800xt-graphics-card-in-hand-ships-asap/284096325283?hash=item422575e6a3:g:Wx4AAOSwPktfwaMP</t>
         </is>
       </c>
     </row>
@@ -3329,29 +3329,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t>asus amd radeon rx 6800xt graphics card</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASUS · 16 GB</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1210</v>
+        <v>1300</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1210</v>
+        <v>1300</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44161</v>
+        <v>44163</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324388351689?epid=20042698447&amp;hash=item4b870d6ec9:g:VmcAAOSw-IRfvTWM</t>
+          <t>https://www.ebay.com/itm/asus-amd-radeon-rx-6800xt-graphics-card/284096324723?hash=item422575e473:g:3S4AAOSwv7xfwaJT</t>
         </is>
       </c>
     </row>
@@ -3361,29 +3361,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card. Confirmed will ship when it arrives friday </t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT 🔥IN HAND SAME DAY FREE 2 DAY AIR SHIP🔥</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1175</v>
+        <v>1299.99</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1175</v>
+        <v>1299.99</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44160</v>
+        <v>44163</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Confirmed-will-ship-when-it-arrives-friday/254789014239?hash=item3b529bd2df:g:ED8AAOSwxe9fveo7</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-IN-HAND-SAME-DAY-FREE-2-DAY-AIR-SHIP/254791879805?hash=item3b52c78c7d:g:XOUAAOSwUu5fwZrW</t>
         </is>
       </c>
     </row>
@@ -3393,29 +3393,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>MSI Radeon RX 6800 XT 16GB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1299.99</v>
+        <v>1200</v>
       </c>
       <c r="E93" t="n">
-        <v>13.65</v>
+        <v>22.92</v>
       </c>
       <c r="F93" t="n">
-        <v>1313.64</v>
+        <v>1222.92</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44160</v>
+        <v>44163</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383825445305?hash=item595dc781b9:g:pnUAAOSw0xBfvDFy</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16GB/274593069418?hash=item3fef05b96a:g:kxAAAOSw8-hfwgDi</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD RADEON RX 6800 XT (AMD Brand - Reference Model) </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3434,20 +3434,20 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1195</v>
+        <v>1299.99</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1195</v>
+        <v>1299.99</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT-AMD-Brand-Reference-Model/303783942900?hash=item46baef1af4:g:dokAAOSw3rxfvt1F</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393033244325?hash=item5b829b5ea5:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -3457,29 +3457,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t>AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324389263014?hash=item4b871b56a6:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/203195578527?hash=item2f4f66789f:g:13IAAOSwq69fvcga</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMD Radeon RX 6800 XT.  IN HAND.  SHIPS SAME DAY.</t>
+          <t>Sapphire Radeon RX 6800XT (IN HAND. Ships same business day)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3498,20 +3498,20 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1250</v>
+        <v>1170</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F96" t="n">
-        <v>1250</v>
+        <v>1195</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-SHIPS-SAME-DAY/224250135876?hash=item3436598544:g:pB8AAOSw8DNfvskT</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT-IN-HAND-Ships-same-business-day/313319946898?hash=item48f352fa92:g:N~0AAOSwbHpfwXA6</t>
         </is>
       </c>
     </row>
@@ -3521,29 +3521,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card ARRIVING FRIDAY</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Open Box · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1225</v>
+        <v>1250</v>
       </c>
       <c r="E97" t="n">
-        <v>42.75</v>
+        <v>9.9</v>
       </c>
       <c r="F97" t="n">
-        <v>1267.75</v>
+        <v>1259.9</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ARRIVING-FRIDAY/313315663003?hash=item48f3119c9b:g:vroAAOSwSpNfvb86</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/363195744716?hash=item54902741cc:g:890AAOSw2PVfv16E</t>
         </is>
       </c>
     </row>
@@ -3553,29 +3553,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card ***In Hand, Fast Shipping***</t>
+          <t>Sapphire AMD Radeon RX 6800 XT16GB GDDR6, in hand ready to ship</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="F98" t="n">
-        <v>1270</v>
+        <v>1211.99</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-Fast-Shipping/184550885539?hash=item2af81708a3:g:euwAAOSw8xVfvScx</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-in-hand-ready-to-ship/324385993987?hash=item4b86e97503:g:YWgAAOSwHeVfu0Il</t>
         </is>
       </c>
     </row>
@@ -3585,29 +3585,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB Reference - New IN-HAND (Ships Now!)</t>
+          <t>GIGABYTE Radeon RX 6800 XT AMD Graphics Card IN HAND🖐🏽 FREE SHIPPING 🚚</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · GIGABYTE · 16 GB</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1229.99</v>
+        <v>1247.99</v>
       </c>
       <c r="E99" t="n">
-        <v>13.16</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1243.15</v>
+        <v>1247.99</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-Reference-New-IN-HAND-Ships-Now/264952734067?hash=item3db069e173:g:LZoAAOSwDDRfvuYb</t>
+          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-XT-AMD-Graphics-Card-IN-HAND-FREE-SHIPPING/324390948490?epid=21042458995&amp;hash=item4b87350e8a:g:62EAAOSwrOlfvvFK</t>
         </is>
       </c>
     </row>
@@ -3617,29 +3617,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING Brand New Sealed</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="E100" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1225.9</v>
+        <v>1150</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING-Brand-New-Sealed/174534172385?hash=item28a30c1ee1:g:VGMAAOSw3olfvu-N</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164541704842?hash=item264f732a8a:g:q68AAOSw~JNfu-3N</t>
         </is>
       </c>
     </row>
@@ -3649,29 +3649,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>🚨Free OVERNIGHT SHIPPING | Sapphire Nitro+ Radeon RX 6800XT</t>
+          <t>XFX Speedster MERC319 AMD Radeon RX 6800 XT - In Hand - New/Sealed - Ships Fast</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1495</v>
+        <v>1219</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1495</v>
+        <v>1219</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Free-OVERNIGHT-SHIPPING-Sapphire-Nitro-Radeon-RX-6800XT/264952630538?hash=item3db0684d0a:g:5D8AAOSwxp1fvsu~</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-AMD-Radeon-RX-6800-XT-In-Hand-New-Sealed-Ships-Fast/333804983876?hash=item4db853d644:g:cwgAAOSwhSNfwWuW</t>
         </is>
       </c>
     </row>
@@ -3681,29 +3681,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 XT Gaming Graphics Card *Fast Shipping*</t>
+          <t>AMD Radeon™ RX 6800 XT Graphics 16GB DDR6 ⭐️IN HAND - FAST FREE SHIPPING⭐️</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Experienced seller, 100% feedback.</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1180</v>
+        <v>1274.98</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1180</v>
+        <v>1274.98</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Gaming-Graphics-Card-Fast-Shipping/402578523686?hash=item5dbb8cc626:g:rZMAAOSwVrNfvqN3</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-16GB-DDR6-IN-HAND-FAST-FREE-SHIPPING/184556252005?hash=item2af868eb65:g:pDUAAOSwMJZfwU-5</t>
         </is>
       </c>
     </row>
@@ -3713,29 +3713,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB - New IN-HAND (Will Ship Same Day)</t>
+          <t>XFX AMD Radeon RX 6800 XT RX-68XTACBD9 16GB GDDR6 Video Card</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1200</v>
+        <v>1275</v>
       </c>
       <c r="E103" t="n">
-        <v>35.55</v>
+        <v>38.15</v>
       </c>
       <c r="F103" t="n">
-        <v>1235.55</v>
+        <v>1313.15</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-New-IN-HAND-Will-Ship-Same-Day/303778895236?hash=item46baa21584:g:C0oAAOSwelFfuvxY</t>
+          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-XT-RX-68XTACBD9-16GB-GDDR6-Video-Card/333803943209?hash=item4db843f529:g:hRAAAOSwwz1fvm5c</t>
         </is>
       </c>
     </row>
@@ -3745,29 +3745,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>✅ CONFIRMED NEWEGG ORDER:ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6✅</t>
+          <t>AMD RX 6800 XT Founders Edition</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1099.99</v>
+        <v>1000</v>
       </c>
       <c r="E104" t="n">
-        <v>10.9</v>
+        <v>13.1</v>
       </c>
       <c r="F104" t="n">
-        <v>1110.89</v>
+        <v>1013.1</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/CONFIRMED-NEWEGG-ORDER-ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/174533770349?hash=item28a305fc6d:g:DeoAAOSwqlZfvpst</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-Founders-Edition/313319990958?hash=item48f353a6ae:g:H38AAOSwNTZfwXgB</t>
         </is>
       </c>
     </row>
@@ -3777,29 +3777,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB FREE FAST SHIPPING</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In hand and ships immediately*</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1199</v>
+        <v>1225</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="F105" t="n">
-        <v>1199</v>
+        <v>1237.8</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-FREE-FAST-SHIPPING/254789512407?hash=item3b52a36cd7:g:Zv0AAOSw629fvpHI</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-hand-and-ships-immediately/203198493735?hash=item2f4f92f427:g:yhoAAOSwdtxfwCbq</t>
         </is>
       </c>
     </row>
@@ -3809,29 +3809,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT CONFIRMED ORDER, SHIPPING ON ARRIVAL, ARRIVES WEDNESDAY</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 ASRock CONFIRMED ORDER SHIPS ASAP</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1230</v>
+        <v>1280</v>
       </c>
       <c r="E106" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F106" t="n">
-        <v>1245</v>
+        <v>1313</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-CONFIRMED-ORDER-SHIPPING-ON-ARRIVAL-ARRIVES-WEDNESDAY/274583879811?hash=item3fee798083:g:i-oAAOSwne1fuAaR</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-ASRock-CONFIRMED-ORDER-SHIPS-ASAP/333802737851?hash=item4db83190bb:g:~QYAAOSwh-dfv0cR</t>
         </is>
       </c>
     </row>
@@ -3841,29 +3841,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PowerColor Red Devil Limited Edition AMD Radeon RX 6800 XT</t>
+          <t>AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Open Box · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="E107" t="n">
-        <v>20.8</v>
+        <v>11.75</v>
       </c>
       <c r="F107" t="n">
-        <v>1320.8</v>
+        <v>1361.75</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-Red-Devil-Limited-Edition-AMD-Radeon-RX-6800-XT/333801948886?hash=item4db82586d6:g:r~AAAOSwkdpfvomS</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT/333800982143?hash=item4db816c67f:g:3PoAAOSwk8pfvWiV</t>
         </is>
       </c>
     </row>
@@ -3873,29 +3873,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>New SAPPHIRE Radeon RX 6800 XT DirectX 16GB 256-Bit GDDR6 AMD RDNA 2 In Hand!</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1277.77</v>
+        <v>1158</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1277.77</v>
+        <v>1158</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-SAPPHIRE-Radeon-RX-6800-XT-DirectX-16GB-256-Bit-GDDR6-AMD-RDNA-2-In-Hand/114538912993?hash=item1aab0d1ce1:g:PsEAAOSwRkVfvUwa</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324393412518?epid=20042698447&amp;hash=item4b875aa7a6:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -3905,29 +3905,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1399.99</v>
+        <v>1000</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="F109" t="n">
-        <v>1399.99</v>
+        <v>1015.4</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/284085808865?hash=item4224d56ee1:g:MPkAAOSwl89ftUh0</t>
+          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295545464?hash=item52420e3478:g:qn8AAOSw0vBfwTLv</t>
         </is>
       </c>
     </row>
@@ -3937,29 +3937,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NEW! PowerColor AMD Radeon RX 6800 XT 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW!</t>
+          <t>NEW SEALED AMD Radeon RX 6800 XT GPU/Graphics Card (6800XT)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1175</v>
+        <v>1000</v>
       </c>
       <c r="E110" t="n">
-        <v>12.25</v>
+        <v>15.4</v>
       </c>
       <c r="F110" t="n">
-        <v>1187.25</v>
+        <v>1015.4</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-XT-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124455823595?epid=18042593571&amp;hash=item1cfa2528eb:g:6BIAAOSw66tfvTt2</t>
+          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Radeon-RX-6800-XT-GPU-Graphics-Card-6800XT/353295502895?hash=item52420d8e2f:g:qn8AAOSw0vBfwTLv</t>
         </is>
       </c>
     </row>
@@ -3969,29 +3969,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *ships Immediately once received*</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ships-Immediately-once-received/143862352654?hash=item217edd4b0e:g:E-sAAOSwiGRfvnQ9</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324392454094?epid=20042698447&amp;hash=item4b874c07ce:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -4001,29 +4001,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Brand New SEALED in box</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1179.99</v>
+        <v>1070</v>
       </c>
       <c r="E112" t="n">
-        <v>12.55</v>
+        <v>25.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1192.54</v>
+        <v>1095.9</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Brand-New-SEALED-in-box/264950974329?hash=item3db04f0779:g:RVIAAOSwxFhfvSjD</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING/284091919528?hash=item422532aca8:g:1jcAAOSwVWVftwf8</t>
         </is>
       </c>
     </row>
@@ -4033,29 +4033,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT graphics card *in hand*</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card SEALED ORDER via AMD - IN HAND</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1290</v>
+        <v>1299.99</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1290</v>
+        <v>1299.99</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-graphics-card-in-hand/174529910577?hash=item28a2cb1731:g:aPEAAOSwa6Jfuur4</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-SEALED-ORDER-via-AMD-IN-HAND/393031567580?hash=item5b8281c8dc:g:-GYAAOSwFWVfvohV</t>
         </is>
       </c>
     </row>
@@ -4065,29 +4065,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
+          <t>AMD Radeon RX 6800XT Video Graphics Card GPU New Sealed</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1199.99</v>
+        <v>1200</v>
       </c>
       <c r="E114" t="n">
-        <v>23.99</v>
+        <v>20</v>
       </c>
       <c r="F114" t="n">
-        <v>1223.98</v>
+        <v>1220</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/154211544216?hash=item23e7b96c98:g:tc4AAOSwczxfvYsZ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-Video-Graphics-Card-GPU-New-Sealed/333795119473?hash=item4db7bd5171:g:qsIAAOSwDRZftqAF</t>
         </is>
       </c>
     </row>
@@ -4097,29 +4097,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Confirmed Order from Amazon *ETA to me 11/25*</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1200</v>
+        <v>1099</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1200</v>
+        <v>1099</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788864516?hash=item3b52998a04:g:LV0AAOSwgRhftUEu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324391817705?epid=20042698447&amp;hash=item4b874251e9:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -4129,29 +4129,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
+          <t>XFX Speedster MERC319 Radeon RX 6800XT BLACK GPU *CONFIRMED &amp; SHIPPED ORDER*</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1301</v>
+        <v>1299.99</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1301</v>
+        <v>1299.99</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324387324010?hash=item4b86fdc06a:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-Radeon-RX-6800XT-BLACK-GPU-CONFIRMED-SHIPPED-ORDER/324391148332?hash=item4b87381b2c:g:jeMAAOSwuN5fvyTz</t>
         </is>
       </c>
     </row>
@@ -4161,29 +4161,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1250</v>
+        <v>1826.01</v>
       </c>
       <c r="E117" t="n">
-        <v>12.04</v>
+        <v>12.25</v>
       </c>
       <c r="F117" t="n">
-        <v>1262.04</v>
+        <v>1838.26</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303775023279?hash=item46ba6700af:g:pigAAOSwZYFftwlG</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124457758751?epid=18042593571&amp;hash=item1cfa42b01f:g:PBkAAOSwbQRfttAo</t>
         </is>
       </c>
     </row>
@@ -4193,29 +4193,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6 (ships within one business day)</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB IN HAND SHIPS FAST</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="E118" t="n">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
       <c r="F118" t="n">
-        <v>1109.9</v>
+        <v>1208.9</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-ships-within-one-business-day/293853998128?hash=item446b102c30:g:-DkAAOSwmQdfvaXV</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-IN-HAND-SHIPS-FAST/174534969896?hash=item28a3184a28:g:z8cAAOSwyPhfuqGx</t>
         </is>
       </c>
     </row>
@@ -4225,29 +4225,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big Navi AMD ASRock RX 6800 XT 16GB - IN HAND - FAST SHIPPING </t>
+          <t>AMD MSI Radeon RX 6800 XT 16GB GDDR6 Reference Model BRAND NEW!!!</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1250</v>
+        <v>1055.99</v>
       </c>
       <c r="E119" t="n">
-        <v>28.95</v>
+        <v>60</v>
       </c>
       <c r="F119" t="n">
-        <v>1278.95</v>
+        <v>1115.99</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-XT-16GB-IN-HAND-FAST-SHIPPING/313310719061?hash=item48f2c62c55:g:dfoAAOSwxB5fuYFP</t>
+          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-XT-16GB-GDDR6-Reference-Model-BRAND-NEW/254789930283?epid=20042698447&amp;hash=item3b52a9cd2b:g:U1UAAOSw8pFfvxtB</t>
         </is>
       </c>
     </row>
@@ -4257,29 +4257,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships Immediately*</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1049</v>
+        <v>1350</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1049</v>
+        <v>1350</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324386990423?hash=item4b86f8a957:g:lgUAAOSwl5hfvCgL</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-Immediately/164532349030?hash=item264ee46866:g:q68AAOSw~JNfu-3N</t>
         </is>
       </c>
     </row>
@@ -4289,29 +4289,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD</t>
+          <t>Sapphire Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1325</v>
+        <v>1050</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F121" t="n">
-        <v>1325</v>
+        <v>1075</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/114529518218?hash=item1aaa7dc28a:g:ehkAAOSwZYFftfbC</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800XT/313317342296?hash=item48f32b3c58:i:313317342296</t>
         </is>
       </c>
     </row>
@@ -4321,29 +4321,29 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 IN HAND </t>
+          <t>RADEON SAPPHIRE RX6800XT</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1199.99</v>
+        <v>1200</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F122" t="n">
-        <v>1199.99</v>
+        <v>1220</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-IN-HAND/303781784252?hash=item46bace2abc:g:KSUAAOSwJVJfvRkx</t>
+          <t>https://www.ebay.com/itm/RADEON-SAPPHIRE-RX6800XT/233797158586?hash=item366f6586ba:g:jNsAAOSwtllfvIko</t>
         </is>
       </c>
     </row>
@@ -4353,29 +4353,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1299</v>
+        <v>1210</v>
       </c>
       <c r="E123" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1313.4</v>
+        <v>1210</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/254787768216?hash=item3b5288cf98:g:1oAAAOSweAlfvFFY</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324388351689?epid=20042698447&amp;hash=item4b870d6ec9:g:VmcAAOSw-IRfvTWM</t>
         </is>
       </c>
     </row>
@@ -4385,29 +4385,29 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Radeon Gaming Graphics Card IN HAND FAST SHIPPING</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card. Confirmed will ship when it arrives friday </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1299.99</v>
+        <v>1175</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1299.99</v>
+        <v>1175</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Radeon-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/254785633307?hash=item3b52683c1b:g:K4kAAOSw9IZfuehq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-Confirmed-will-ship-when-it-arrives-friday/254789014239?hash=item3b529bd2df:g:ED8AAOSwxe9fveo7</t>
         </is>
       </c>
     </row>
@@ -4417,29 +4417,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT [Same Day Shipping]</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1289</v>
+        <v>1299.99</v>
       </c>
       <c r="E125" t="n">
-        <v>11.3</v>
+        <v>13.65</v>
       </c>
       <c r="F125" t="n">
-        <v>1300.3</v>
+        <v>1313.64</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Same-Day-Shipping/184541656094?hash=item2af78a341e:g:i3UAAOSwiGRfu-GK</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383825445305?hash=item595dc781b9:g:pnUAAOSw0xBfvDFy</t>
         </is>
       </c>
     </row>
@@ -4449,29 +4449,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships same day if paid by 2pm EST*</t>
+          <t xml:space="preserve">AMD RADEON RX 6800 XT (AMD Brand - Reference Model) </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1229</v>
+        <v>1195</v>
       </c>
       <c r="E126" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1250</v>
+        <v>1195</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-same-day-if-paid-by-2pm-EST/353290478541?hash=item5241c0e3cd:g:vK8AAOSwnbZfvFGC</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-XT-AMD-Brand-Reference-Model/303783942900?hash=item46baef1af4:g:dokAAOSw3rxfvt1F</t>
         </is>
       </c>
     </row>
@@ -4490,20 +4490,20 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324385728269?hash=item4b86e5670d:g:nL8AAOSwKIBfuwxJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324389263014?hash=item4b871b56a6:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT ready to ship</t>
+          <t xml:space="preserve"> AMD Radeon RX 6800 XT.  IN HAND.  SHIPS SAME DAY.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4522,20 +4522,20 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-ready-to-ship/254787431198?hash=item3b5283ab1e:g:8ewAAOSwXwBfu~pu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-SHIPS-SAME-DAY/224250135876?hash=item3436598544:g:pB8AAOSw8DNfvskT</t>
         </is>
       </c>
     </row>
@@ -4545,29 +4545,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radeon RX 6800 XT SHIPPED print on paper </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card ARRIVING FRIDAY</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1000</v>
+        <v>1225</v>
       </c>
       <c r="E129" t="n">
-        <v>10.9</v>
+        <v>42.75</v>
       </c>
       <c r="F129" t="n">
-        <v>1010.9</v>
+        <v>1267.75</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Radeon-RX-6800-XT-SHIPPED-print-on-paper/383824264077?hash=item595db57b8d:g:EIMAAOSwiLVfuua7</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ARRIVING-FRIDAY/313315663003?hash=item48f3119c9b:g:vroAAOSwSpNfvb86</t>
         </is>
       </c>
     </row>
@@ -4577,29 +4577,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card ***In Hand, Fast Shipping***</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1289.99</v>
+        <v>1270</v>
       </c>
       <c r="E130" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1304.39</v>
+        <v>1270</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44158</v>
+        <v>44160</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363190793234?hash=item548fdbb412:g:dvMAAOSw2sRfuEGQ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-Fast-Shipping/184550885539?hash=item2af81708a3:g:euwAAOSw8xVfvScx</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Fast Ship</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB Reference - New IN-HAND (Ships Now!)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4618,20 +4618,20 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1300</v>
+        <v>1229.99</v>
       </c>
       <c r="E131" t="n">
-        <v>12.54</v>
+        <v>13.16</v>
       </c>
       <c r="F131" t="n">
-        <v>1312.54</v>
+        <v>1243.15</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Fast-Ship/324385195319?hash=item4b86dd4537:g:EBsAAOSwtDNfuqbl</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-Reference-New-IN-HAND-Ships-Now/264952734067?hash=item3db069e173:g:LZoAAOSwDDRfvuYb</t>
         </is>
       </c>
     </row>
@@ -4641,29 +4641,29 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST SHIPPING Brand New Sealed</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1275</v>
+        <v>1200</v>
       </c>
       <c r="E132" t="n">
-        <v>80</v>
+        <v>25.9</v>
       </c>
       <c r="F132" t="n">
-        <v>1355</v>
+        <v>1225.9</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858709669?hash=item217ea5b4a5:g:~FEAAOSwqARfusR0</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-SHIPPING-Brand-New-Sealed/174534172385?hash=item28a30c1ee1:g:VGMAAOSw3olfvu-N</t>
         </is>
       </c>
     </row>
@@ -4673,29 +4673,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
+          <t>🚨Free OVERNIGHT SHIPPING | Sapphire Nitro+ Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1275</v>
+        <v>1495</v>
       </c>
       <c r="E133" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1315</v>
+        <v>1495</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858264833?hash=item217e9eeb01:g:~FEAAOSwqARfusR0</t>
+          <t>https://www.ebay.com/itm/Free-OVERNIGHT-SHIPPING-Sapphire-Nitro-Radeon-RX-6800XT/264952630538?hash=item3db0684d0a:g:5D8AAOSwxp1fvsu~</t>
         </is>
       </c>
     </row>
@@ -4705,29 +4705,29 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU  IN HAND READY TO SHIP</t>
+          <t>SAPPHIRE Radeon RX 6800 XT Gaming Graphics Card *Fast Shipping*</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1250</v>
+        <v>1180</v>
       </c>
       <c r="E134" t="n">
-        <v>18.95</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1268.95</v>
+        <v>1180</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-IN-HAND-READY-TO-SHIP/333798890474?hash=item4db7f6dbea:g:fH4AAOSwVJJfuvnv</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-XT-Gaming-Graphics-Card-Fast-Shipping/402578523686?hash=item5dbb8cc626:g:rZMAAOSwVrNfvqN3</t>
         </is>
       </c>
     </row>
@@ -4737,29 +4737,29 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">IN HAND! MSI Radeon RX 6800 XT DirectX 12 RX 6800 XT 16G 16GB 256-Bit GDDR6 </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB - New IN-HAND (Will Ship Same Day)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1349</v>
+        <v>1200</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>35.55</v>
       </c>
       <c r="F135" t="n">
-        <v>1349</v>
+        <v>1235.55</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-MSI-Radeon-RX-6800-XT-DirectX-12-RX-6800-XT-16G-16GB-256-Bit-GDDR6/184546658425?hash=item2af7d68879:g:oWcAAOSwjsxfuYDi</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-New-IN-HAND-Will-Ship-Same-Day/303778895236?hash=item46baa21584:g:C0oAAOSwelFfuvxY</t>
         </is>
       </c>
     </row>
@@ -4769,29 +4769,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST AUCTION</t>
+          <t>✅ CONFIRMED NEWEGG ORDER:ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6✅</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1600</v>
+        <v>1099.99</v>
       </c>
       <c r="E136" t="n">
-        <v>25.9</v>
+        <v>10.9</v>
       </c>
       <c r="F136" t="n">
-        <v>1625.9</v>
+        <v>1110.89</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-AUCTION/284087579032?hash=item4224f07198:g:1jcAAOSwVWVftwf8</t>
+          <t>https://www.ebay.com/itm/CONFIRMED-NEWEGG-ORDER-ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/174533770349?hash=item28a305fc6d:g:DeoAAOSwqlZfvpst</t>
         </is>
       </c>
     </row>
@@ -4801,29 +4801,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB FREE FAST SHIPPING</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1284</v>
+        <v>1199</v>
       </c>
       <c r="E137" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1296.25</v>
+        <v>1199</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124448722219?hash=item1cf9b8cd2b:g:PBkAAOSwbQRfttAo</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-FREE-FAST-SHIPPING/254789512407?hash=item3b52a36cd7:g:Zv0AAOSw629fvpHI</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>IN HAND - AMD Radeon RX 6800XT</t>
+          <t>AMD RX 6800 XT CONFIRMED ORDER, SHIPPING ON ARRIVAL, ARRIVES WEDNESDAY</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4842,20 +4842,20 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1250</v>
+        <v>1230</v>
       </c>
       <c r="E138" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F138" t="n">
-        <v>1275</v>
+        <v>1245</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Radeon-RX-6800XT/293849061367?hash=item446ac4d7f7:g:VkgAAOSwGzpfurQk</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-CONFIRMED-ORDER-SHIPPING-ON-ARRIVAL-ARRIVES-WEDNESDAY/274583879811?hash=item3fee798083:g:i-oAAOSwne1fuAaR</t>
         </is>
       </c>
     </row>
@@ -4865,29 +4865,29 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT16GB GDDR6, Order Confirmed. Ships upon delivery! </t>
+          <t>PowerColor Red Devil Limited Edition AMD Radeon RX 6800 XT</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="F139" t="n">
-        <v>1299</v>
+        <v>1320.8</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-Order-Confirmed-Ships-upon-delivery/184541892261?hash=item2af78dcea5:g:O3cAAOSw2UpftV~7</t>
+          <t>https://www.ebay.com/itm/PowerColor-Red-Devil-Limited-Edition-AMD-Radeon-RX-6800-XT/333801948886?hash=item4db82586d6:g:r~AAAOSwkdpfvomS</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>New SAPPHIRE Radeon RX 6800 XT DirectX 16GB 256-Bit GDDR6 AMD RDNA 2 In Hand!</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4906,20 +4906,20 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1300</v>
+        <v>1277.77</v>
       </c>
       <c r="E140" t="n">
-        <v>26.7</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1326.7</v>
+        <v>1277.77</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313310820896?hash=item48f2c7ba20:g:lTkAAOSwtmhfuaOy</t>
+          <t>https://www.ebay.com/itm/New-SAPPHIRE-Radeon-RX-6800-XT-DirectX-16GB-256-Bit-GDDR6-AMD-RDNA-2-In-Hand/114538912993?hash=item1aab0d1ce1:g:PsEAAOSwRkVfvUwa</t>
         </is>
       </c>
     </row>
@@ -4929,29 +4929,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1300</v>
+        <v>1399.99</v>
       </c>
       <c r="E141" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1312.3</v>
+        <v>1399.99</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44157</v>
+        <v>44160</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244429573?hash=item3436027305:g:HdAAAOSwDwNfuYMu</t>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/284085808865?hash=item4224d56ee1:g:MPkAAOSwl89ftUh0</t>
         </is>
       </c>
     </row>
@@ -4961,29 +4961,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
+          <t>NEW! PowerColor AMD Radeon RX 6800 XT 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW!</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1289.99</v>
+        <v>1175</v>
       </c>
       <c r="E142" t="n">
-        <v>14.4</v>
+        <v>12.25</v>
       </c>
       <c r="F142" t="n">
-        <v>1304.39</v>
+        <v>1187.25</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44156</v>
+        <v>44160</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363186717375?hash=item548f9d82bf:g:dvMAAOSw2sRfuEGQ</t>
+          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-XT-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124455823595?epid=18042593571&amp;hash=item1cfa2528eb:g:6BIAAOSw66tfvTt2</t>
         </is>
       </c>
     </row>
@@ -4993,29 +4993,29 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *ships Immediately once received*</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1300</v>
+        <v>1150</v>
       </c>
       <c r="E143" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1312.3</v>
+        <v>1150</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44156</v>
+        <v>44160</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244042671?hash=item3435fc8baf:g:HdAAAOSwDwNfuYMu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-ships-Immediately-once-received/143862352654?hash=item217edd4b0e:g:E-sAAOSwiGRfvnQ9</t>
         </is>
       </c>
     </row>
@@ -5025,29 +5025,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT (IN HAND AND READY TO SHIP)</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 Brand New SEALED in box</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1525</v>
+        <v>1179.99</v>
       </c>
       <c r="E144" t="n">
-        <v>7.5</v>
+        <v>12.55</v>
       </c>
       <c r="F144" t="n">
-        <v>1532.5</v>
+        <v>1192.54</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44156</v>
+        <v>44160</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-AND-READY-TO-SHIP/284085937393?hash=item4224d764f1:g:WvYAAOSwlCpftWcX</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Brand-New-SEALED-in-box/264950974329?hash=item3db04f0779:g:RVIAAOSwxFhfvSjD</t>
         </is>
       </c>
     </row>
@@ -5057,29 +5057,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
+          <t>AMD Radeon RX 6800 XT graphics card *in hand*</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1350</v>
+        <v>1290</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1350</v>
+        <v>1290</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44156</v>
+        <v>44160</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/124451444582?hash=item1cf9e25766:g:sCsAAOSwhL1fuUsq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-graphics-card-in-hand/174529910577?hash=item28a2cb1731:g:aPEAAOSwa6Jfuur4</t>
         </is>
       </c>
     </row>
@@ -5089,29 +5089,29 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
+          <t>⚡Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1385</v>
+        <v>1199.99</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>23.99</v>
       </c>
       <c r="F146" t="n">
-        <v>1385</v>
+        <v>1223.98</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>44155</v>
+        <v>44160</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527149063?hash=item264e951007:g:JUoAAOSwwfdft0SV</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA/154211544216?hash=item23e7b96c98:g:tc4AAOSwczxfvYsZ</t>
         </is>
       </c>
     </row>
@@ -5121,29 +5121,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Confirmed Order from Amazon *ETA to me 11/25*</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1415</v>
+        <v>1200</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>44155</v>
+        <v>44160</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/133580458371?hash=item1f1a040983:g:cswAAOSw8~ZftToE</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788864516?hash=item3b52998a04:g:LV0AAOSwgRhftUEu</t>
         </is>
       </c>
     </row>
@@ -5153,29 +5153,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1385</v>
+        <v>1301</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1385</v>
+        <v>1301</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527020961?hash=item264e931ba1:g:JUoAAOSwwfdft0SV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324387324010?hash=item4b86fdc06a:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">NEW Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5194,20 +5194,20 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1329</v>
+        <v>1250</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>12.04</v>
       </c>
       <c r="F149" t="n">
-        <v>1329</v>
+        <v>1262.04</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/274581176427?hash=item3fee50406b:g:PXcAAOSw9TRftVhk</t>
+          <t>https://www.ebay.com/itm/NEW-Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/303775023279?hash=item46ba6700af:g:pigAAOSwZYFftwlG</t>
         </is>
       </c>
     </row>
@@ -5217,29 +5217,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 **FREE/FAST SHIP IN HAND**</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6 (ships within one business day)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1345</v>
+        <v>1099</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F150" t="n">
-        <v>1345</v>
+        <v>1109.9</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-FREE-FAST-SHIP-IN-HAND/184544049522?hash=item2af7aeb972:g:AjcAAOSwkaJft1kQ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-ships-within-one-business-day/293853998128?hash=item446b102c30:g:-DkAAOSwmQdfvaXV</t>
         </is>
       </c>
     </row>
@@ -5249,29 +5249,29 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
+          <t xml:space="preserve">Big Navi AMD ASRock RX 6800 XT 16GB - IN HAND - FAST SHIPPING </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1199</v>
+        <v>1250</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
       <c r="F151" t="n">
-        <v>1199</v>
+        <v>1278.95</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324382376786?hash=item4b86b24352:g:ojgAAOSwZ05ft9jI</t>
+          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-XT-16GB-IN-HAND-FAST-SHIPPING/313310719061?hash=item48f2c62c55:g:dfoAAOSwxB5fuYFP</t>
         </is>
       </c>
     </row>
@@ -5281,29 +5281,29 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
+          <t>ASRock Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1499.98</v>
+        <v>1049</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1499.98</v>
+        <v>1049</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/193758038220?hash=item2d1ce108cc:g:6xoAAOSwXkRftzEB</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-AMD-RDNA-2/324386990423?hash=item4b86f8a957:g:lgUAAOSwl5hfvCgL</t>
         </is>
       </c>
     </row>
@@ -5313,29 +5313,29 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sapphire Rx 6800xt</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1200</v>
+        <v>1325</v>
       </c>
       <c r="E153" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1220</v>
+        <v>1325</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264945340088?hash=item3daff90eb8:g:SzsAAOSwxatftqKb</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/114529518218?hash=item1aaa7dc28a:g:ehkAAOSwZYFftfbC</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND**  **NIB**</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card 16GB GDDR6 IN HAND </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5354,20 +5354,20 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1400</v>
+        <v>1199.99</v>
       </c>
       <c r="E154" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1420</v>
+        <v>1199.99</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-NIB/324382012648?hash=item4b86acb4e8:g:BywAAOSwGMtft0~Q</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-IN-HAND/303781784252?hash=item46bace2abc:g:KSUAAOSwJVJfvRkx</t>
         </is>
       </c>
     </row>
@@ -5377,29 +5377,29 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2 </t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1399</v>
+        <v>1299</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F155" t="n">
-        <v>1399</v>
+        <v>1313.4</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44155</v>
+        <v>44159</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303774956221?hash=item46ba65fabd:g:YkwAAOSwkC5ftvHT</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6/254787768216?hash=item3b5288cf98:g:1oAAAOSweAlfvFFY</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Radeon Gaming Graphics Card IN HAND FAST SHIPPING</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5418,20 +5418,20 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1400</v>
+        <v>1299.99</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1400</v>
+        <v>1299.99</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>44154</v>
+        <v>44159</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/233788541183?hash=item366ee208ff:g:MKsAAOSwOMxftbxn</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Radeon-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/254785633307?hash=item3b52683c1b:g:K4kAAOSw9IZfuehq</t>
         </is>
       </c>
     </row>
@@ -5441,29 +5441,29 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 XT SHIPPED</t>
+          <t>AMD Radeon RX 6800 XT [Same Day Shipping]</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>900</v>
+        <v>1289</v>
       </c>
       <c r="E157" t="n">
-        <v>95.67</v>
+        <v>11.3</v>
       </c>
       <c r="F157" t="n">
-        <v>995.67</v>
+        <v>1300.3</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>44154</v>
+        <v>44159</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-SHIPPED/383819464585?hash=item595d6c3f89:g:CqgAAOSwGbFftc5I</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Same-Day-Shipping/184541656094?hash=item2af78a341e:g:i3UAAOSwiGRfu-GK</t>
         </is>
       </c>
     </row>
@@ -5473,29 +5473,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *In Hand, ships same day if paid by 2pm EST*</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1399</v>
+        <v>1229</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F158" t="n">
-        <v>1399</v>
+        <v>1250</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>44154</v>
+        <v>44158</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303773701869?hash=item46ba52d6ed:g:d3sAAOSwDnpftaqk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-In-Hand-ships-same-day-if-paid-by-2pm-EST/353290478541?hash=item5241c0e3cd:g:vK8AAOSwnbZfvFGC</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Confirmed Order</t>
+          <t xml:space="preserve">AMD Radeon RX 6800XT 16GB DDR6 NIB. priority shipping! </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5514,20 +5514,20 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E159" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1225</v>
+        <v>1300</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>44154</v>
+        <v>44158</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Confirmed-Order/164524239898?hash=item264e68ac1a:g:vzMAAOSwS6FftfWp</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800XT-16GB-DDR6-NIB-priority-shipping/324385728269?hash=item4b86e5670d:g:nL8AAOSwKIBfuwxJ</t>
         </is>
       </c>
     </row>
@@ -5537,29 +5537,29 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>AMD Radeon RX 6800 XT ready to ship</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E160" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1513.65</v>
+        <v>1200</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>44154</v>
+        <v>44158</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383817206744?hash=item595d49cbd8:g:9gMAAOSwi9VftTQw</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-ready-to-ship/254787431198?hash=item3b5283ab1e:g:8ewAAOSwXwBfu~pu</t>
         </is>
       </c>
     </row>
@@ -5569,29 +5569,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT 16 GB GDDR6- In hand ready to ship</t>
+          <t xml:space="preserve">Radeon RX 6800 XT SHIPPED print on paper </t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E161" t="n">
-        <v>32.55</v>
+        <v>10.9</v>
       </c>
       <c r="F161" t="n">
-        <v>1232.55</v>
+        <v>1010.9</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>44154</v>
+        <v>44158</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-16-GB-GDDR6-In-hand-ready-to-ship/274582645998?hash=item3fee66acee:g:CtEAAOSwXoxftdHu</t>
+          <t>https://www.ebay.com/itm/Radeon-RX-6800-XT-SHIPPED-print-on-paper/383824264077?hash=item595db57b8d:g:EIMAAOSwiLVfuua7</t>
         </is>
       </c>
     </row>
@@ -5601,29 +5601,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sapphire Rx 6800xt</t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1100</v>
+        <v>1289.99</v>
       </c>
       <c r="E162" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="F162" t="n">
-        <v>1115</v>
+        <v>1304.39</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>44154</v>
+        <v>44158</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264944638749?hash=item3dafee5b1d:g:SzsAAOSwxatftqKb</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363190793234?hash=item548fdbb412:g:dvMAAOSw2sRfuEGQ</t>
         </is>
       </c>
     </row>
@@ -5633,29 +5633,29 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER from AMD</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - IN HAND, Fast Ship</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1349</v>
+        <v>1300</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>12.54</v>
       </c>
       <c r="F163" t="n">
-        <v>1349</v>
+        <v>1312.54</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>44154</v>
+        <v>44157</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-from-AMD/174524929007?hash=item28a27f13ef:g:iEsAAOSwjsxftWk6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-IN-HAND-Fast-Ship/324385195319?hash=item4b86dd4537:g:EBsAAOSwtDNfuqbl</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5674,20 +5674,20 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1250</v>
+        <v>1275</v>
       </c>
       <c r="E164" t="n">
-        <v>9.9</v>
+        <v>80</v>
       </c>
       <c r="F164" t="n">
-        <v>1259.9</v>
+        <v>1355</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/174524837880?hash=item28a27daff8:g:xLQAAOSwPzVftdhW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858709669?hash=item217ea5b4a5:g:~FEAAOSwqARfusR0</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Now!</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5706,20 +5706,20 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1425</v>
+        <v>1275</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F165" t="n">
-        <v>1425</v>
+        <v>1315</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527334036?hash=item1aaa5c6e94:g:gXsAAOSwjkhftZJm</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Now/143858264833?hash=item217e9eeb01:g:~FEAAOSwqARfusR0</t>
         </is>
       </c>
     </row>
@@ -5729,29 +5729,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AMD RX 6800 XT 16GB Graphics Card - NEW IN HAND</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 GPU  IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>New (Other)</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1499.99</v>
+        <v>1250</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>18.95</v>
       </c>
       <c r="F166" t="n">
-        <v>1499.99</v>
+        <v>1268.95</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-16GB-Graphics-Card-NEW-IN-HAND/324379346629?hash=item4b868406c5:g:EC0AAOSwGqFftV6s</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-GPU-IN-HAND-READY-TO-SHIP/333798890474?hash=item4db7f6dbea:g:fH4AAOSwVJJfuvnv</t>
         </is>
       </c>
     </row>
@@ -5761,29 +5761,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+          <t xml:space="preserve">IN HAND! MSI Radeon RX 6800 XT DirectX 12 RX 6800 XT 16G 16GB 256-Bit GDDR6 </t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1425</v>
+        <v>1349</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1425</v>
+        <v>1349</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527193328?hash=item1aaa5a48f0:g:gXsAAOSwjkhftZJm</t>
+          <t>https://www.ebay.com/itm/IN-HAND-MSI-Radeon-RX-6800-XT-DirectX-12-RX-6800-XT-16G-16GB-256-Bit-GDDR6/184546658425?hash=item2af7d68879:g:oWcAAOSwjsxfuYDi</t>
         </is>
       </c>
     </row>
@@ -5793,29 +5793,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 CONFIRMED - 2Day Ship</t>
+          <t>MSI Radeon RX 6800 XT 16G - IN HAND - FAST AUCTION</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SHIPS OUT SAME DAY RECIEVED WITH 2 DAY AIR</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1229.99</v>
+        <v>1600</v>
       </c>
       <c r="E168" t="n">
-        <v>49.99</v>
+        <v>25.9</v>
       </c>
       <c r="F168" t="n">
-        <v>1279.98</v>
+        <v>1625.9</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED-2Day-Ship/264943675824?hash=item3dafdfa9b0:g:wNcAAOSwU7lftZxJ</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-16G-IN-HAND-FAST-AUCTION/284087579032?hash=item4224f07198:g:1jcAAOSwVWVftwf8</t>
         </is>
       </c>
     </row>
@@ -5825,29 +5825,29 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t>PowerColor AMD Radeon RX 6800 XT GDDR6 16GB Graphics Card 16GBD6-M2DHC SHIPS NOW</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1429.99</v>
+        <v>1284</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="F169" t="n">
-        <v>1429.99</v>
+        <v>1296.25</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348705650?hash=item56ed512572:g:1BMAAOSwne1ftTad</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-XT-GDDR6-16GB-Graphics-Card-16GBD6-M2DHC-SHIPS-NOW/124448722219?hash=item1cf9b8cd2b:g:PBkAAOSwbQRfttAo</t>
         </is>
       </c>
     </row>
@@ -5857,29 +5857,29 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+          <t>IN HAND - AMD Radeon RX 6800XT</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="E170" t="n">
-        <v>23.15</v>
+        <v>25</v>
       </c>
       <c r="F170" t="n">
-        <v>1323.15</v>
+        <v>1275</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313306368113?hash=item48f283c871:g:~c4AAOSw3L1ftS8h</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Radeon-RX-6800XT/293849061367?hash=item446ac4d7f7:g:VkgAAOSwGzpfurQk</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, CONFIRMED</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT16GB GDDR6, Order Confirmed. Ships upon delivery! </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5898,20 +5898,20 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1500</v>
+        <v>1299</v>
       </c>
       <c r="E171" t="n">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1516.9</v>
+        <v>1299</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED/254782094792?hash=item3b52323dc8:g:OXUAAOSwGgdftTZl</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT16GB-GDDR6-Order-Confirmed-Ships-upon-delivery/184541892261?hash=item2af78dcea5:g:O3cAAOSw2UpftV~7</t>
         </is>
       </c>
     </row>
@@ -5921,29 +5921,29 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>888.88</v>
+        <v>1300</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="F172" t="n">
-        <v>888.88</v>
+        <v>1326.7</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541881799?hash=item2af78da5c7:g:LAMAAOSwn9JftVJc</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313310820896?hash=item48f2c7ba20:g:lTkAAOSwtmhfuaOy</t>
         </is>
       </c>
     </row>
@@ -5953,29 +5953,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1655</v>
+        <v>1300</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="F173" t="n">
-        <v>1655</v>
+        <v>1312.3</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>44153</v>
+        <v>44157</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/264943388668?hash=item3dafdb47fc:g:dl0AAOSwxKBftV7i</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244429573?hash=item3436027305:g:HdAAAOSwDwNfuYMu</t>
         </is>
       </c>
     </row>
@@ -5985,29 +5985,29 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD - IMMEDIATE SHIPPING</t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND, USPS DROP OFF SAME BIZ DAY**</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1450</v>
+        <v>1289.99</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F174" t="n">
-        <v>1450</v>
+        <v>1304.39</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>44153</v>
+        <v>44156</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD-IMMEDIATE-SHIPPING/174524212329?hash=item28a2742469:g:~6MAAOSw2lNftUoJ</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-USPS-DROP-OFF-SAME-BIZ-DAY/363186717375?hash=item548f9d82bf:g:dvMAAOSw2sRfuEGQ</t>
         </is>
       </c>
     </row>
@@ -6017,29 +6017,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 - Brand New IN-HAND Ships Monday!</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1399.99</v>
+        <v>1300</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="F175" t="n">
-        <v>1399.99</v>
+        <v>1312.3</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>44153</v>
+        <v>44156</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/174524170850?hash=item28a2738262:g:w5MAAOSwglZftUPh</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-Brand-New-IN-HAND-Ships-Monday/224244042671?hash=item3435fc8baf:g:HdAAAOSwDwNfuYMu</t>
         </is>
       </c>
     </row>
@@ -6049,29 +6049,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+          <t>AMD Radeon RX 6800 XT (IN HAND AND READY TO SHIP)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>888.88</v>
+        <v>1525</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F176" t="n">
-        <v>888.88</v>
+        <v>1532.5</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>44153</v>
+        <v>44156</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541829551?hash=item2af78cd9af:g:LAMAAOSwn9JftVJc</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-IN-HAND-AND-READY-TO-SHIP/284085937393?hash=item4224d764f1:g:WvYAAOSwlCpftWcX</t>
         </is>
       </c>
     </row>
@@ -6081,29 +6081,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="E177" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1410.9</v>
+        <v>1350</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>44153</v>
+        <v>44156</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/133580531891?hash=item1f1a0528b3:g:IL8AAOSwx8NftUjk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/124451444582?hash=item1cf9e25766:g:sCsAAOSwhL1fuUsq</t>
         </is>
       </c>
     </row>
@@ -6113,29 +6113,29 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card Will Ship ASAP</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1399.99</v>
+        <v>1385</v>
       </c>
       <c r="E178" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1414.99</v>
+        <v>1385</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-Will-Ship-ASAP/333793950851?hash=item4db7ab7c83:g:IUUAAOSwzJFftVBi</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527149063?hash=item264e951007:g:JUoAAOSwwfdft0SV</t>
         </is>
       </c>
     </row>
@@ -6145,29 +6145,29 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 - Confirmed Order</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1299</v>
+        <v>1400</v>
       </c>
       <c r="E179" t="n">
-        <v>48.8</v>
+        <v>15</v>
       </c>
       <c r="F179" t="n">
-        <v>1347.8</v>
+        <v>1415</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-Confirmed-Order/233786704311?hash=item366ec601b7:g:PvwAAOSweENftULQ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/133580458371?hash=item1f1a040983:g:cswAAOSw8~ZftToE</t>
         </is>
       </c>
     </row>
@@ -6177,29 +6177,29 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+          <t>AMD Radeon RX 6800 XT Graphics Card *CONFIRMED ORDER* via AMD</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1200</v>
+        <v>1385</v>
       </c>
       <c r="E180" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1210.9</v>
+        <v>1385</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/174524175719?hash=item28a2739567:g:ZykAAOSwzZZftULd</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/164527020961?hash=item264e931ba1:g:JUoAAOSwwfdft0SV</t>
         </is>
       </c>
     </row>
@@ -6209,29 +6209,29 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1300</v>
+        <v>1329</v>
       </c>
       <c r="E181" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1310.9</v>
+        <v>1329</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/402564277495?hash=item5dbab364f7:g:3TsAAOSwMdpftUFd</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/274581176427?hash=item3fee50406b:g:PXcAAOSw9TRftVhk</t>
         </is>
       </c>
     </row>
@@ -6241,29 +6241,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>ASRock AMD Radeon RX 6800 XT Graphics Card 16GB GDDR6 **FREE/FAST SHIP IN HAND**</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Confirmed Order from Amazon *ETA to me 11/19*</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1600</v>
+        <v>1345</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1600</v>
+        <v>1345</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254782140626?hash=item3b5232f0d2:g:LV0AAOSwgRhftUEu</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-XT-Graphics-Card-16GB-GDDR6-FREE-FAST-SHIP-IN-HAND/184544049522?hash=item2af7aeb972:g:AjcAAOSwkaJft1kQ</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Gaming Graphics Card - CONFIRMED</t>
+          <t>AMD Radeon RX 6800 XT 16GB GDDR6, Order Confirmed, Ships upon delivery! Sealed.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6282,20 +6282,20 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1400</v>
+        <v>1199</v>
       </c>
       <c r="E183" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1420</v>
+        <v>1199</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-CONFIRMED/124445597497?hash=item1cf9891f39:g:8KkAAOSwjMFftTk-</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Order-Confirmed-Ships-upon-delivery-Sealed/324382376786?hash=item4b86b24352:g:ojgAAOSwZ05ft9jI</t>
         </is>
       </c>
     </row>
@@ -6305,29 +6305,29 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+          <t>AMD Radeon RX 6800 XT Gaming 16GB GDDR6 Graphics Card, Brand New</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1499</v>
+        <v>1499.98</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1499</v>
+        <v>1499.98</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/264943203177?hash=item3dafd87369:g:PfMAAOSw-yNftTmO</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-16GB-GDDR6-Graphics-Card-Brand-New/193758038220?hash=item2d1ce108cc:g:6xoAAOSwXkRftzEB</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t>Sapphire Rx 6800xt</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6346,20 +6346,20 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E185" t="n">
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="F185" t="n">
-        <v>1314.4</v>
+        <v>1220</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755999053?hash=item2d1cc1eb4d:g:VLcAAOSwgY1ftThV</t>
+          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264945340088?hash=item3daff90eb8:g:SzsAAOSwxatftqKb</t>
         </is>
       </c>
     </row>
@@ -6369,29 +6369,29 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD SAPPHIRE Radeon RX 6800 XT DirectX 12 21304-01-20G 16GB GDDR6 </t>
+          <t>Sapphire AMD Radeon RX 6800 XT **IN HAND**  **NIB**</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E186" t="n">
         <v>20</v>
       </c>
       <c r="F186" t="n">
-        <v>1520</v>
+        <v>1420</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-XT-DirectX-12-21304-01-20G-16GB-GDDR6/114526631595?hash=item1aaa51b6ab:g:ZZIAAOSwMFhftTcL</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-IN-HAND-NIB/324382012648?hash=item4b86acb4e8:g:BywAAOSwGMtft0~Q</t>
         </is>
       </c>
     </row>
@@ -6401,29 +6401,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1500</v>
+        <v>1399</v>
       </c>
       <c r="E187" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1514.4</v>
+        <v>1399</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>44153</v>
+        <v>44155</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755981033?hash=item2d1cc1a4e9:g:VLcAAOSwgY1ftThV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303774956221?hash=item46ba65fabd:g:YkwAAOSwkC5ftvHT</t>
         </is>
       </c>
     </row>
@@ -6433,29 +6433,29 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1499.99</v>
+        <v>1400</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1499.99</v>
+        <v>1400</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348646190?hash=item56ed503d2e:g:1BMAAOSwne1ftTad</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/233788541183?hash=item366ee208ff:g:MKsAAOSwOMxftbxn</t>
         </is>
       </c>
     </row>
@@ -6465,29 +6465,29 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD radeon Rx 6800 XT  Gaming Graphics Card 16GB GDDR6 RDNA2</t>
+          <t>MSI Radeon RX 6800 XT SHIPPED</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="E189" t="n">
-        <v>13.65</v>
+        <v>95.67</v>
       </c>
       <c r="F189" t="n">
-        <v>1263.65</v>
+        <v>995.67</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-radeon-Rx-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-RDNA2/324379110769?hash=item4b86806d71:g:adEAAOSwhlBftTS6</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-XT-SHIPPED/383819464585?hash=item595d6c3f89:g:CqgAAOSwGbFftc5I</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6506,20 +6506,20 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1899</v>
+        <v>1399</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1899</v>
+        <v>1399</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/393021910784?hash=item5b81ee6f00:g:0poAAOSwGqFftS7R</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/303773701869?hash=item46ba52d6ed:g:d3sAAOSwDnpftaqk</t>
         </is>
       </c>
     </row>
@@ -6529,29 +6529,29 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+          <t>AMD Radeon RX 6800 XT Confirmed Order</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1399.99</v>
+        <v>1200</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F191" t="n">
-        <v>1399.99</v>
+        <v>1225</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/363185099274?hash=item548f84d20a:g:uT8AAOSwIqlftTB8</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Confirmed-Order/164524239898?hash=item264e68ac1a:g:vzMAAOSwS6FftfWp</t>
         </is>
       </c>
     </row>
@@ -6570,18 +6570,1042 @@
         </is>
       </c>
       <c r="D192" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E192" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1513.65</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/383817206744?hash=item595d49cbd8:g:9gMAAOSwi9VftTQw</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sapphire AMD Radeon RX 6800 XT 16 GB GDDR6- In hand ready to ship</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
         <v>1200</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E193" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1232.55</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-16-GB-GDDR6-In-hand-ready-to-ship/274582645998?hash=item3fee66acee:g:CtEAAOSwXoxftdHu</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sapphire Rx 6800xt</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E194" t="n">
+        <v>15</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1115</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-Rx-6800xt/264944638749?hash=item3dafee5b1d:g:SzsAAOSwxatftqKb</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER from AMD</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1349</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>44154</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-from-AMD/174524929007?hash=item28a27f13ef:g:iEsAAOSwjsxftWk6</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/174524837880?hash=item28a27daff8:g:xLQAAOSwPzVftdhW</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1425</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1425</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527334036?hash=item1aaa5c6e94:g:gXsAAOSwjkhftZJm</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>AMD RX 6800 XT 16GB Graphics Card - NEW IN HAND</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>New (Other)</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1499.99</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1499.99</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-XT-16GB-Graphics-Card-NEW-IN-HAND/324379346629?hash=item4b868406c5:g:EC0AAOSwGqFftV6s</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD) </t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1425</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1425</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/114527193328?hash=item1aaa5a48f0:g:gXsAAOSwjkhftZJm</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 CONFIRMED - 2Day Ship</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SHIPS OUT SAME DAY RECIEVED WITH 2 DAY AIR</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1229.99</v>
+      </c>
+      <c r="E200" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1279.98</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED-2Day-Ship/264943675824?hash=item3dafdfa9b0:g:wNcAAOSwU7lftZxJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1429.99</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1429.99</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348705650?hash=item56ed512572:g:1BMAAOSwne1ftTad</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E202" t="n">
         <v>23.15</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F202" t="n">
+        <v>1323.15</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313306368113?hash=item48f283c871:g:~c4AAOSw3L1ftS8h</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, CONFIRMED</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E203" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1516.9</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-CONFIRMED/254782094792?hash=item3b52323dc8:g:OXUAAOSwGgdftTZl</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>888.88</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>888.88</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541881799?hash=item2af78da5c7:g:LAMAAOSwn9JftVJc</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1655</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/264943388668?hash=item3dafdb47fc:g:dl0AAOSwxKBftV7i</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD - IMMEDIATE SHIPPING</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Brand New · AMD · 16 GB</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD-IMMEDIATE-SHIPPING/174524212329?hash=item28a2742469:g:~6MAAOSw2lNftUoJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>1399.99</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1399.99</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/174524170850?hash=item28a2738262:g:w5MAAOSwglZftUPh</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT 16GB GDDR6 "Relabel Edition". </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Pre-Owned · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>888.88</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>888.88</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-16GB-GDDR6-Relabel-Edition/184541829551?hash=item2af78cd9af:g:LAMAAOSwn9JftVJc</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E209" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1410.9</v>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/133580531891?hash=item1f1a0528b3:g:IL8AAOSwx8NftUjk</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card Will Ship ASAP</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Brand New · XFX · 16 GB</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1399.99</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1414.99</v>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-Will-Ship-ASAP/333793950851?hash=item4db7ab7c83:g:IUUAAOSwzJFftVBi</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6 - Confirmed Order</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Brand New · AMD · 16 GB</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E211" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1347.8</v>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-Confirmed-Order/233786704311?hash=item366ec601b7:g:PvwAAOSweENftULQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>XFX RX 6800 XT 16GB GDDR6 2xDP HDMI USB-C PCIe 4.0 Graphics Card RX-68TMATFD8</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Brand New · XFX · 16 GB</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E212" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1210.9</v>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/XFX-RX-6800-XT-16GB-GDDR6-2xDP-HDMI-USB-C-PCIe-4-0-Graphics-Card-RX-68TMATFD8/174524175719?hash=item28a2739567:g:ZykAAOSwzZZftULd</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Brand New · AMD · 16 GB</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E213" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1310.9</v>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/402564277495?hash=item5dbab364f7:g:3TsAAOSwMdpftUFd</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Confirmed Order from Amazon *ETA to me 11/19*</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254782140626?hash=item3b5232f0d2:g:LV0AAOSwgRhftUEu</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Gaming Graphics Card - CONFIRMED</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Brand New · AMD · 16 GB</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E215" t="n">
+        <v>20</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-CONFIRMED/124445597497?hash=item1cf9891f39:g:8KkAAOSwjMFftTk-</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>AMD Radeon RX 6800 XT Graphics (Confirmed Order | AMD)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Confirmed-Order-AMD/264943203177?hash=item3dafd87369:g:PfMAAOSw-yNftTmO</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E217" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1314.4</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755999053?hash=item2d1cc1eb4d:g:VLcAAOSwgY1ftThV</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD SAPPHIRE Radeon RX 6800 XT DirectX 12 21304-01-20G 16GB GDDR6 </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Brand New · AMD · 16 GB</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E218" t="n">
+        <v>20</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-XT-DirectX-12-21304-01-20G-16GB-GDDR6/114526631595?hash=item1aaa51b6ab:g:ZZIAAOSwMFhftTcL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E219" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1514.4</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/193755981033?hash=item2d1cc1a4e9:g:VLcAAOSwgY1ftThV</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER AMD </t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1499.99</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1499.99</v>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-AMD/373348646190?hash=item56ed503d2e:g:1BMAAOSwne1ftTad</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SAPPHIRE AMD radeon Rx 6800 XT  Gaming Graphics Card 16GB GDDR6 RDNA2</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E221" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1263.65</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-radeon-Rx-6800-XT-Gaming-Graphics-Card-16GB-GDDR6-RDNA2/324379110769?hash=item4b86806d71:g:adEAAOSwhlBftTS6</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>1899</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1899</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/393021910784?hash=item5b81ee6f00:g:0poAAOSwGqFftS7R</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMD Radeon RX 6800 XT Graphics Card CONFIRMED ORDER via AMD </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Brand New · Graphics · 16 GB</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>1399.99</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1399.99</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-XT-Graphics-Card-CONFIRMED-ORDER-via-AMD/363185099274?hash=item548f84d20a:g:uT8AAOSwIqlftTB8</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 XT Gaming Graphics Card with 16GB GDDR6, AMD RDNA 2 </t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E224" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="F224" t="n">
         <v>1223.15</v>
       </c>
-      <c r="G192" s="2" t="n">
+      <c r="G224" s="2" t="n">
         <v>44153</v>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-XT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/313305923882?hash=item48f27d012a:g:~c4AAOSw3L1ftS8h</t>
         </is>
